--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1680808.364211061</v>
+        <v>1648211.44567987</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6555689.629549498</v>
+        <v>6555689.629549492</v>
       </c>
     </row>
     <row r="9">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>211.2539816898142</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H11" t="n">
-        <v>301.5808821335967</v>
+        <v>18.54549825659318</v>
       </c>
       <c r="I11" t="n">
         <v>67.82676469672091</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.9103283483173</v>
+        <v>67.96402090993324</v>
       </c>
       <c r="T12" t="n">
         <v>192.1849784014749</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>138.8266777650923</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>126.3774955012707</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>166.3312300154376</v>
       </c>
       <c r="H13" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>119.9430404257883</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.602611067468</v>
+        <v>13.20839349014708</v>
       </c>
       <c r="H14" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.82676469672094</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>206.8985460394687</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>133.369365357983</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,10 +1703,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H15" t="n">
-        <v>93.11530261957644</v>
+        <v>47.40345196865512</v>
       </c>
       <c r="I15" t="n">
-        <v>21.23445678746316</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>134.9103283483173</v>
       </c>
       <c r="T15" t="n">
-        <v>125.2386709630897</v>
+        <v>192.1849784014749</v>
       </c>
       <c r="U15" t="n">
         <v>225.8111358846743</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8539331444638</v>
+        <v>129.7985757177713</v>
       </c>
       <c r="U16" t="n">
         <v>286.2284975741443</v>
       </c>
       <c r="V16" t="n">
-        <v>5.375534870699361</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.602611067468</v>
       </c>
       <c r="H17" t="n">
-        <v>301.5808821335967</v>
+        <v>29.82256328706668</v>
       </c>
       <c r="I17" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>251.0496427920231</v>
       </c>
       <c r="V17" t="n">
-        <v>292.6998653002443</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3637749794424</v>
+        <v>68.41746754105789</v>
       </c>
       <c r="H18" t="n">
         <v>93.11530261957644</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>67.96402090993234</v>
+        <v>134.9103283483173</v>
       </c>
       <c r="T18" t="n">
         <v>192.1849784014749</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>74.56259303937016</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>120.8131746803972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>213.1261788181902</v>
+        <v>159.7424263695993</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2216,7 +2216,7 @@
         <v>192.1849784014749</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8111358846743</v>
+        <v>158.86482844629</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.73638833892</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>12.2895153392623</v>
+        <v>237.2080077336166</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>231.7695208734181</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I23" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>151.5920901863595</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>90.69877301701648</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2450,7 +2450,7 @@
         <v>134.9103283483173</v>
       </c>
       <c r="T24" t="n">
-        <v>192.1849784014749</v>
+        <v>125.2386709630915</v>
       </c>
       <c r="U24" t="n">
         <v>225.8111358846743</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3312300154376</v>
+        <v>50.78148246621863</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>119.9430404257883</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>81.91405404585247</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.602611067468</v>
+        <v>409.7499208120707</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>68.41746754105789</v>
+        <v>135.3637749794424</v>
       </c>
       <c r="H27" t="n">
         <v>93.11530261957644</v>
@@ -2687,7 +2687,7 @@
         <v>134.9103283483173</v>
       </c>
       <c r="T27" t="n">
-        <v>192.1849784014749</v>
+        <v>125.2386709630915</v>
       </c>
       <c r="U27" t="n">
         <v>225.8111358846743</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>51.69871871479322</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>286.2284975741443</v>
       </c>
       <c r="V28" t="n">
-        <v>201.0677095212889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>81.91405404585338</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>312.496664572429</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>99.5868762114839</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2924,7 +2924,7 @@
         <v>134.9103283483173</v>
       </c>
       <c r="T30" t="n">
-        <v>125.2386709630906</v>
+        <v>192.1849784014749</v>
       </c>
       <c r="U30" t="n">
         <v>225.8111358846743</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>85.95960627281623</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>27.06798436493338</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>128.2437733423131</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>81.91405404585338</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>78.12290495500028</v>
       </c>
       <c r="G33" t="n">
         <v>135.3637749794424</v>
       </c>
       <c r="H33" t="n">
-        <v>26.16899518119199</v>
+        <v>93.11530261957644</v>
       </c>
       <c r="I33" t="n">
         <v>21.23445678746313</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3312300154376</v>
@@ -3207,7 +3207,7 @@
         <v>147.4704919849424</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5372855934949</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>195.0916935772309</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>209.9076352149245</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>36.71940489975569</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>160.933174697161</v>
+        <v>34.78110910920396</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>120.821332998947</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3365,7 +3365,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I36" t="n">
-        <v>21.23445678746313</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>138.8266777650923</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>65.76094751569502</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5372855934949</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>102.665025462782</v>
       </c>
       <c r="S37" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U37" t="n">
-        <v>268.6899048884358</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.602611067468</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I38" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>61.86773244004183</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>103.9609583400375</v>
       </c>
     </row>
     <row r="39">
@@ -3644,13 +3644,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>184.7486757225353</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>138.73638833892</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>195.0916935772309</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2284975741443</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.9161949209957</v>
+        <v>140.5192701607097</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>22.67822674822117</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7034381600318</v>
+        <v>30.04802372188885</v>
       </c>
       <c r="T41" t="n">
         <v>206.8985460394687</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H42" t="n">
-        <v>47.40345196865379</v>
+        <v>93.11530261957644</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.9103283483173</v>
+        <v>67.96402090993415</v>
       </c>
       <c r="T42" t="n">
         <v>192.1849784014749</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.37860521987645</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T43" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2284975741443</v>
+        <v>201.9641053696735</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U44" t="n">
-        <v>242.7430896001207</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>361.6025821120061</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>78.12290495499809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>135.3637749794424</v>
       </c>
       <c r="H45" t="n">
-        <v>93.11530261957644</v>
+        <v>26.16899518119155</v>
       </c>
       <c r="I45" t="n">
-        <v>21.23445678746315</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>10.54469934263393</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>101.5220863761665</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S46" t="n">
         <v>195.0916935772309</v>
@@ -4194,10 +4194,10 @@
         <v>286.2284975741443</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2160.437041238699</v>
+        <v>1718.649368390181</v>
       </c>
       <c r="C11" t="n">
-        <v>1791.474524298287</v>
+        <v>1349.686851449769</v>
       </c>
       <c r="D11" t="n">
-        <v>1433.208825691537</v>
+        <v>1349.686851449769</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.420573093292</v>
+        <v>963.8985988515251</v>
       </c>
       <c r="F11" t="n">
-        <v>636.4346683036849</v>
+        <v>552.9126940619176</v>
       </c>
       <c r="G11" t="n">
-        <v>423.0468080109433</v>
+        <v>137.1524808624549</v>
       </c>
       <c r="H11" t="n">
         <v>118.4196543406436</v>
       </c>
       <c r="I11" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J11" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K11" t="n">
-        <v>429.6498038307155</v>
+        <v>429.649803830715</v>
       </c>
       <c r="L11" t="n">
         <v>774.3096803567475</v>
@@ -5062,31 +5062,31 @@
         <v>2303.220758926972</v>
       </c>
       <c r="Q11" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577521</v>
       </c>
       <c r="R11" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S11" t="n">
-        <v>2369.425471581596</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="T11" t="n">
-        <v>2160.437041238699</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="U11" t="n">
-        <v>2160.437041238699</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="V11" t="n">
-        <v>2160.437041238699</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="W11" t="n">
-        <v>2160.437041238699</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="X11" t="n">
-        <v>2160.437041238699</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="Y11" t="n">
-        <v>2160.437041238699</v>
+        <v>2105.249208454303</v>
       </c>
     </row>
     <row r="12">
@@ -5111,55 +5111,55 @@
         <v>302.143664128281</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4125782904604</v>
+        <v>165.4125782904605</v>
       </c>
       <c r="H12" t="n">
-        <v>71.35671705856504</v>
+        <v>71.35671705856505</v>
       </c>
       <c r="I12" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J12" t="n">
-        <v>109.510319166265</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K12" t="n">
-        <v>289.5353923886628</v>
+        <v>562.495500050155</v>
       </c>
       <c r="L12" t="n">
-        <v>577.9238609652473</v>
+        <v>850.8839686267396</v>
       </c>
       <c r="M12" t="n">
-        <v>933.8164695610934</v>
+        <v>1206.776577222586</v>
       </c>
       <c r="N12" t="n">
-        <v>1313.537141430711</v>
+        <v>1586.497249092203</v>
       </c>
       <c r="O12" t="n">
-        <v>1638.687576537945</v>
+        <v>1911.647684199438</v>
       </c>
       <c r="P12" t="n">
-        <v>2153.276507898437</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q12" t="n">
-        <v>2472.856296022416</v>
+        <v>2472.856296022417</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S12" t="n">
-        <v>2359.115481492419</v>
+        <v>2426.738014258465</v>
       </c>
       <c r="T12" t="n">
-        <v>2164.989240682849</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.897184233683</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V12" t="n">
-        <v>1701.74507600194</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W12" t="n">
-        <v>1447.507719273739</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X12" t="n">
         <v>1307.278751834252</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.338389374476</v>
+        <v>809.312374126619</v>
       </c>
       <c r="C13" t="n">
-        <v>918.4022064465696</v>
+        <v>640.3761911987121</v>
       </c>
       <c r="D13" t="n">
-        <v>768.2855670342338</v>
+        <v>512.7221553388428</v>
       </c>
       <c r="E13" t="n">
-        <v>620.3724734518407</v>
+        <v>364.8090617564496</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4825259539304</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4711825039934</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H13" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I13" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J13" t="n">
-        <v>73.65301825917582</v>
+        <v>73.65301825917584</v>
       </c>
       <c r="K13" t="n">
         <v>242.5105907858448</v>
@@ -5229,22 +5229,22 @@
         <v>1610.934019636921</v>
       </c>
       <c r="T13" t="n">
-        <v>1610.934019636921</v>
+        <v>1387.849238682917</v>
       </c>
       <c r="U13" t="n">
-        <v>1610.934019636921</v>
+        <v>1098.72954416358</v>
       </c>
       <c r="V13" t="n">
-        <v>1610.934019636921</v>
+        <v>1098.72954416358</v>
       </c>
       <c r="W13" t="n">
-        <v>1610.934019636921</v>
+        <v>809.312374126619</v>
       </c>
       <c r="X13" t="n">
-        <v>1489.779433348246</v>
+        <v>809.312374126619</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.986854204716</v>
+        <v>809.312374126619</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1635.581178598258</v>
+        <v>790.4777979619737</v>
       </c>
       <c r="C14" t="n">
-        <v>1635.581178598258</v>
+        <v>421.515281021562</v>
       </c>
       <c r="D14" t="n">
-        <v>1635.581178598258</v>
+        <v>63.24958241481147</v>
       </c>
       <c r="E14" t="n">
-        <v>1249.792926000013</v>
+        <v>63.24958241481147</v>
       </c>
       <c r="F14" t="n">
-        <v>838.807021210406</v>
+        <v>63.24958241481147</v>
       </c>
       <c r="G14" t="n">
-        <v>423.0468080109433</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H14" t="n">
-        <v>118.4196543406436</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I14" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J14" t="n">
         <v>181.5754963439895</v>
       </c>
       <c r="K14" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307154</v>
       </c>
       <c r="L14" t="n">
-        <v>774.3096803567475</v>
+        <v>774.309680356748</v>
       </c>
       <c r="M14" t="n">
-        <v>1189.479639284629</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N14" t="n">
-        <v>1615.981290573626</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O14" t="n">
-        <v>2005.379444475429</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P14" t="n">
-        <v>2303.220758926971</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q14" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577521</v>
       </c>
       <c r="R14" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S14" t="n">
-        <v>2369.425471581596</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="T14" t="n">
-        <v>2160.437041238699</v>
+        <v>2160.4370412387</v>
       </c>
       <c r="U14" t="n">
-        <v>2160.437041238699</v>
+        <v>1906.851543468979</v>
       </c>
       <c r="V14" t="n">
-        <v>2160.437041238699</v>
+        <v>1906.851543468979</v>
       </c>
       <c r="W14" t="n">
-        <v>2160.437041238699</v>
+        <v>1554.082888198865</v>
       </c>
       <c r="X14" t="n">
-        <v>2025.72051057407</v>
+        <v>1180.617129937785</v>
       </c>
       <c r="Y14" t="n">
-        <v>1635.581178598258</v>
+        <v>790.4777979619737</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3031160492297</v>
+        <v>863.6805832831849</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500867681028</v>
+        <v>689.2275540020579</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156771068515</v>
+        <v>540.2931443408066</v>
       </c>
       <c r="E15" t="n">
-        <v>448.678222101396</v>
+        <v>381.0556893353511</v>
       </c>
       <c r="F15" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622361</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4125782904605</v>
+        <v>97.79004552441555</v>
       </c>
       <c r="H15" t="n">
-        <v>71.35671705856507</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I15" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J15" t="n">
-        <v>109.510319166265</v>
+        <v>120.6498421853045</v>
       </c>
       <c r="K15" t="n">
-        <v>289.5353923886627</v>
+        <v>562.495500050155</v>
       </c>
       <c r="L15" t="n">
-        <v>577.9238609652472</v>
+        <v>850.8839686267396</v>
       </c>
       <c r="M15" t="n">
-        <v>933.8164695610931</v>
+        <v>1206.776577222586</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.425133317546</v>
+        <v>1586.497249092203</v>
       </c>
       <c r="O15" t="n">
-        <v>1876.57556842478</v>
+        <v>1911.647684199438</v>
       </c>
       <c r="P15" t="n">
-        <v>2153.276507898437</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q15" t="n">
-        <v>2472.856296022416</v>
+        <v>2472.856296022417</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S15" t="n">
-        <v>2359.115481492419</v>
+        <v>2359.11548149242</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.611773448894</v>
+        <v>2164.98924068285</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519716999729</v>
+        <v>1936.897184233684</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367608767986</v>
+        <v>1701.745076001941</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130252039784</v>
+        <v>1447.50771927374</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068207</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303253</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>792.5353482941731</v>
+        <v>197.8208643909954</v>
       </c>
       <c r="C16" t="n">
-        <v>623.5991653662662</v>
+        <v>197.8208643909954</v>
       </c>
       <c r="D16" t="n">
-        <v>473.4825259539305</v>
+        <v>197.8208643909954</v>
       </c>
       <c r="E16" t="n">
-        <v>473.4825259539305</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="F16" t="n">
-        <v>473.4825259539305</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4711825039935</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H16" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I16" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J16" t="n">
-        <v>73.65301825917579</v>
+        <v>73.65301825917584</v>
       </c>
       <c r="K16" t="n">
         <v>242.5105907858448</v>
       </c>
       <c r="L16" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954694</v>
       </c>
       <c r="M16" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831153</v>
       </c>
       <c r="N16" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O16" t="n">
         <v>1362.605360660763</v>
@@ -5460,28 +5460,28 @@
         <v>1610.934019636921</v>
       </c>
       <c r="R16" t="n">
-        <v>1507.231973714919</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S16" t="n">
-        <v>1310.169656970241</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="T16" t="n">
-        <v>1087.084876016237</v>
+        <v>1479.824347194728</v>
       </c>
       <c r="U16" t="n">
-        <v>797.9651814968997</v>
+        <v>1190.70465267539</v>
       </c>
       <c r="V16" t="n">
-        <v>792.5353482941731</v>
+        <v>936.0201644695035</v>
       </c>
       <c r="W16" t="n">
-        <v>792.5353482941731</v>
+        <v>646.6029944325428</v>
       </c>
       <c r="X16" t="n">
-        <v>792.5353482941731</v>
+        <v>418.6134435345255</v>
       </c>
       <c r="Y16" t="n">
-        <v>792.5353482941731</v>
+        <v>197.8208643909954</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1224.59527380865</v>
+        <v>1223.020000855294</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.59527380865</v>
+        <v>854.0574839148828</v>
       </c>
       <c r="D17" t="n">
-        <v>1224.59527380865</v>
+        <v>495.7917853081323</v>
       </c>
       <c r="E17" t="n">
-        <v>838.807021210406</v>
+        <v>495.7917853081323</v>
       </c>
       <c r="F17" t="n">
-        <v>838.807021210406</v>
+        <v>495.7917853081323</v>
       </c>
       <c r="G17" t="n">
-        <v>423.0468080109433</v>
+        <v>80.03157210866965</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4196543406436</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I17" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J17" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K17" t="n">
-        <v>429.6498038307155</v>
+        <v>429.649803830715</v>
       </c>
       <c r="L17" t="n">
         <v>774.3096803567475</v>
@@ -5536,31 +5536,31 @@
         <v>2303.220758926972</v>
       </c>
       <c r="Q17" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577521</v>
       </c>
       <c r="R17" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S17" t="n">
-        <v>2369.425471581596</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="T17" t="n">
-        <v>2160.437041238699</v>
+        <v>2160.4370412387</v>
       </c>
       <c r="U17" t="n">
-        <v>1906.851543468978</v>
+        <v>1906.851543468979</v>
       </c>
       <c r="V17" t="n">
-        <v>1611.195113872772</v>
+        <v>1575.788656125409</v>
       </c>
       <c r="W17" t="n">
-        <v>1611.195113872772</v>
+        <v>1223.020000855294</v>
       </c>
       <c r="X17" t="n">
-        <v>1611.195113872772</v>
+        <v>1223.020000855294</v>
       </c>
       <c r="Y17" t="n">
-        <v>1611.195113872772</v>
+        <v>1223.020000855294</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3031160492297</v>
+        <v>863.6805832831849</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8500867681028</v>
+        <v>689.2275540020579</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9156771068515</v>
+        <v>540.2931443408066</v>
       </c>
       <c r="E18" t="n">
-        <v>448.678222101396</v>
+        <v>381.0556893353511</v>
       </c>
       <c r="F18" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622361</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4125782904604</v>
+        <v>165.4125782904605</v>
       </c>
       <c r="H18" t="n">
-        <v>71.35671705856504</v>
+        <v>71.35671705856505</v>
       </c>
       <c r="I18" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J18" t="n">
-        <v>234.3404441532698</v>
+        <v>109.510319166265</v>
       </c>
       <c r="K18" t="n">
-        <v>414.3655173756675</v>
+        <v>289.5353923886628</v>
       </c>
       <c r="L18" t="n">
-        <v>743.5823425316916</v>
+        <v>577.9238609652473</v>
       </c>
       <c r="M18" t="n">
-        <v>1099.474951127538</v>
+        <v>1176.865100194241</v>
       </c>
       <c r="N18" t="n">
-        <v>1479.195622997155</v>
+        <v>1794.473763950694</v>
       </c>
       <c r="O18" t="n">
-        <v>1804.34605810439</v>
+        <v>2119.624199057928</v>
       </c>
       <c r="P18" t="n">
-        <v>2361.253022756927</v>
+        <v>2361.253022756928</v>
       </c>
       <c r="Q18" t="n">
-        <v>2472.856296022416</v>
+        <v>2472.856296022417</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.738014258465</v>
+        <v>2359.11548149242</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.611773448894</v>
+        <v>2164.98924068285</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.519716999729</v>
+        <v>1936.897184233684</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.367608767986</v>
+        <v>1701.745076001941</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.130252039784</v>
+        <v>1447.50771927374</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068207</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303253</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>831.7749776790854</v>
+        <v>549.7231159767186</v>
       </c>
       <c r="C19" t="n">
-        <v>662.8387947511785</v>
+        <v>380.7869330488118</v>
       </c>
       <c r="D19" t="n">
-        <v>512.7221553388428</v>
+        <v>305.4711825039934</v>
       </c>
       <c r="E19" t="n">
-        <v>364.8090617564496</v>
+        <v>305.4711825039934</v>
       </c>
       <c r="F19" t="n">
-        <v>217.9191142585393</v>
+        <v>305.4711825039934</v>
       </c>
       <c r="G19" t="n">
-        <v>49.90777080860227</v>
+        <v>305.4711825039934</v>
       </c>
       <c r="H19" t="n">
-        <v>49.90777080860227</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="I19" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J19" t="n">
-        <v>73.65301825917582</v>
+        <v>73.65301825917584</v>
       </c>
       <c r="K19" t="n">
         <v>242.5105907858448</v>
@@ -5706,19 +5706,19 @@
         <v>1610.934019636921</v>
       </c>
       <c r="U19" t="n">
-        <v>1610.934019636921</v>
+        <v>1321.814325117584</v>
       </c>
       <c r="V19" t="n">
-        <v>1356.249531431034</v>
+        <v>1067.129836911697</v>
       </c>
       <c r="W19" t="n">
-        <v>1356.249531431034</v>
+        <v>777.712666874736</v>
       </c>
       <c r="X19" t="n">
-        <v>1234.216021652855</v>
+        <v>549.7231159767186</v>
       </c>
       <c r="Y19" t="n">
-        <v>1013.423442509325</v>
+        <v>549.7231159767186</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>992.4149548589869</v>
+        <v>1008.037914428373</v>
       </c>
       <c r="C20" t="n">
-        <v>623.4524379185752</v>
+        <v>1008.037914428373</v>
       </c>
       <c r="D20" t="n">
-        <v>265.1867393118247</v>
+        <v>1008.037914428373</v>
       </c>
       <c r="E20" t="n">
-        <v>265.1867393118247</v>
+        <v>622.2496618301284</v>
       </c>
       <c r="F20" t="n">
-        <v>265.1867393118247</v>
+        <v>211.2637570405208</v>
       </c>
       <c r="G20" t="n">
         <v>49.90777080860229</v>
@@ -5752,22 +5752,22 @@
         <v>49.90777080860229</v>
       </c>
       <c r="J20" t="n">
-        <v>181.5754963439899</v>
+        <v>181.5754963439898</v>
       </c>
       <c r="K20" t="n">
-        <v>429.6498038307159</v>
+        <v>429.6498038307157</v>
       </c>
       <c r="L20" t="n">
-        <v>774.3096803567482</v>
+        <v>774.309680356748</v>
       </c>
       <c r="M20" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.47963928463</v>
       </c>
       <c r="N20" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573627</v>
       </c>
       <c r="O20" t="n">
-        <v>2005.379444475431</v>
+        <v>2005.37944447543</v>
       </c>
       <c r="P20" t="n">
         <v>2303.220758926973</v>
@@ -5779,25 +5779,25 @@
         <v>2495.388540430115</v>
       </c>
       <c r="S20" t="n">
-        <v>2495.388540430115</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="T20" t="n">
-        <v>2495.388540430115</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="U20" t="n">
-        <v>2495.388540430115</v>
+        <v>2115.839973811877</v>
       </c>
       <c r="V20" t="n">
-        <v>2495.388540430115</v>
+        <v>1784.777086468306</v>
       </c>
       <c r="W20" t="n">
-        <v>2142.61988516</v>
+        <v>1784.777086468306</v>
       </c>
       <c r="X20" t="n">
-        <v>1769.15412689892</v>
+        <v>1784.777086468306</v>
       </c>
       <c r="Y20" t="n">
-        <v>1379.014794923109</v>
+        <v>1394.637754492494</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>234.3404441532698</v>
       </c>
       <c r="K21" t="n">
-        <v>676.1861020181203</v>
+        <v>562.4955000501549</v>
       </c>
       <c r="L21" t="n">
-        <v>964.5745705947049</v>
+        <v>850.8839686267395</v>
       </c>
       <c r="M21" t="n">
-        <v>1320.467179190551</v>
+        <v>1206.776577222586</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.187851060169</v>
+        <v>1586.497249092203</v>
       </c>
       <c r="O21" t="n">
-        <v>2025.338286167403</v>
+        <v>1911.647684199438</v>
       </c>
       <c r="P21" t="n">
-        <v>2266.967109866403</v>
+        <v>2153.276507898438</v>
       </c>
       <c r="Q21" t="n">
         <v>2472.856296022417</v>
@@ -5864,16 +5864,16 @@
         <v>2164.98924068285</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.897184233684</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V21" t="n">
-        <v>1701.745076001941</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W21" t="n">
-        <v>1447.50771927374</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X21" t="n">
-        <v>1239.656219068207</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.518453069298</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1340.042342709522</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="C22" t="n">
-        <v>1340.042342709522</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="D22" t="n">
-        <v>1189.925703297187</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="E22" t="n">
-        <v>1189.925703297187</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="F22" t="n">
-        <v>1189.925703297187</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="G22" t="n">
-        <v>1189.925703297187</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H22" t="n">
-        <v>1040.965610383104</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I22" t="n">
-        <v>934.3622916017957</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="J22" t="n">
-        <v>958.1075390523692</v>
+        <v>73.65301825917585</v>
       </c>
       <c r="K22" t="n">
-        <v>1126.965111579038</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L22" t="n">
-        <v>1398.571103388663</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M22" t="n">
-        <v>1695.330662876309</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N22" t="n">
-        <v>1990.468559751421</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O22" t="n">
-        <v>2247.059881453956</v>
+        <v>1362.605360660763</v>
       </c>
       <c r="P22" t="n">
-        <v>2443.097402462181</v>
+        <v>1558.642881668988</v>
       </c>
       <c r="Q22" t="n">
-        <v>2495.388540430115</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R22" t="n">
-        <v>2495.388540430115</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S22" t="n">
-        <v>2495.388540430115</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="T22" t="n">
-        <v>2272.303759476111</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.89010761827</v>
+        <v>1371.329971421147</v>
       </c>
       <c r="V22" t="n">
-        <v>2259.89010761827</v>
+        <v>1116.64548321526</v>
       </c>
       <c r="W22" t="n">
-        <v>1970.472937581309</v>
+        <v>827.2283131782998</v>
       </c>
       <c r="X22" t="n">
-        <v>1742.483386683292</v>
+        <v>599.2387622802825</v>
       </c>
       <c r="Y22" t="n">
-        <v>1521.690807539762</v>
+        <v>378.4461831367523</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>898.3680760706629</v>
+        <v>2142.619885160001</v>
       </c>
       <c r="C23" t="n">
-        <v>529.4055591302512</v>
+        <v>1773.657368219589</v>
       </c>
       <c r="D23" t="n">
-        <v>529.4055591302512</v>
+        <v>1415.391669612839</v>
       </c>
       <c r="E23" t="n">
-        <v>529.4055591302512</v>
+        <v>1181.281042467972</v>
       </c>
       <c r="F23" t="n">
-        <v>118.4196543406436</v>
+        <v>770.2951376783647</v>
       </c>
       <c r="G23" t="n">
-        <v>118.4196543406436</v>
+        <v>354.534924478902</v>
       </c>
       <c r="H23" t="n">
-        <v>118.4196543406436</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I23" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J23" t="n">
         <v>181.5754963439895</v>
       </c>
       <c r="K23" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307155</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567482</v>
       </c>
       <c r="M23" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N23" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O23" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926974</v>
       </c>
       <c r="Q23" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R23" t="n">
         <v>2495.388540430115</v>
@@ -6019,22 +6019,22 @@
         <v>2495.388540430115</v>
       </c>
       <c r="T23" t="n">
-        <v>2342.265217009549</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="U23" t="n">
-        <v>2342.265217009549</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="V23" t="n">
-        <v>2011.202329665979</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="W23" t="n">
-        <v>1658.433674395865</v>
+        <v>2142.619885160001</v>
       </c>
       <c r="X23" t="n">
-        <v>1284.967916134785</v>
+        <v>2142.619885160001</v>
       </c>
       <c r="Y23" t="n">
-        <v>1284.967916134785</v>
+        <v>2142.619885160001</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>863.6805832831849</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C24" t="n">
-        <v>689.2275540020579</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D24" t="n">
-        <v>540.2931443408066</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E24" t="n">
         <v>448.678222101396</v>
@@ -6062,58 +6062,58 @@
         <v>165.4125782904605</v>
       </c>
       <c r="H24" t="n">
-        <v>71.35671705856505</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I24" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J24" t="n">
-        <v>234.3404441532698</v>
+        <v>109.5103191662651</v>
       </c>
       <c r="K24" t="n">
-        <v>562.495500050155</v>
+        <v>289.5353923886628</v>
       </c>
       <c r="L24" t="n">
-        <v>850.8839686267396</v>
+        <v>766.1145869393906</v>
       </c>
       <c r="M24" t="n">
-        <v>1206.776577222586</v>
+        <v>1122.007195535237</v>
       </c>
       <c r="N24" t="n">
-        <v>1586.497249092203</v>
+        <v>1501.727867404855</v>
       </c>
       <c r="O24" t="n">
-        <v>1911.647684199438</v>
+        <v>1826.878302512089</v>
       </c>
       <c r="P24" t="n">
-        <v>2153.276507898438</v>
+        <v>2383.785267164626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R24" t="n">
         <v>2495.388540430115</v>
       </c>
       <c r="S24" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492421</v>
       </c>
       <c r="T24" t="n">
-        <v>2164.98924068285</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U24" t="n">
-        <v>1936.897184233684</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V24" t="n">
-        <v>1701.745076001941</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W24" t="n">
-        <v>1447.50771927374</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X24" t="n">
-        <v>1239.656219068207</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y24" t="n">
-        <v>1031.895920303253</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1971.79291016767</v>
+        <v>101.2021975421565</v>
       </c>
       <c r="C25" t="n">
-        <v>1802.856727239763</v>
+        <v>101.2021975421565</v>
       </c>
       <c r="D25" t="n">
-        <v>1652.740087827427</v>
+        <v>101.2021975421565</v>
       </c>
       <c r="E25" t="n">
-        <v>1504.826994245034</v>
+        <v>101.2021975421565</v>
       </c>
       <c r="F25" t="n">
-        <v>1357.937046747124</v>
+        <v>101.2021975421565</v>
       </c>
       <c r="G25" t="n">
-        <v>1189.925703297187</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="H25" t="n">
-        <v>1040.965610383104</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I25" t="n">
-        <v>934.3622916017957</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J25" t="n">
-        <v>958.1075390523692</v>
+        <v>73.65301825917587</v>
       </c>
       <c r="K25" t="n">
-        <v>1126.965111579038</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L25" t="n">
-        <v>1398.571103388663</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M25" t="n">
-        <v>1695.330662876309</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N25" t="n">
-        <v>1990.468559751421</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O25" t="n">
-        <v>2247.059881453956</v>
+        <v>1362.605360660763</v>
       </c>
       <c r="P25" t="n">
-        <v>2443.097402462181</v>
+        <v>1558.642881668988</v>
       </c>
       <c r="Q25" t="n">
-        <v>2495.388540430115</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R25" t="n">
-        <v>2495.388540430115</v>
+        <v>1507.23197371492</v>
       </c>
       <c r="S25" t="n">
-        <v>2495.388540430115</v>
+        <v>1310.169656970242</v>
       </c>
       <c r="T25" t="n">
-        <v>2495.388540430115</v>
+        <v>1310.169656970242</v>
       </c>
       <c r="U25" t="n">
-        <v>2495.388540430115</v>
+        <v>1021.049962450904</v>
       </c>
       <c r="V25" t="n">
-        <v>2495.388540430115</v>
+        <v>1021.049962450904</v>
       </c>
       <c r="W25" t="n">
-        <v>2495.388540430115</v>
+        <v>731.6327924139437</v>
       </c>
       <c r="X25" t="n">
-        <v>2374.233954141439</v>
+        <v>503.6432415159263</v>
       </c>
       <c r="Y25" t="n">
-        <v>2153.441374997909</v>
+        <v>282.8506623723962</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1345.183610129101</v>
+        <v>1565.197890767835</v>
       </c>
       <c r="C26" t="n">
-        <v>1345.183610129101</v>
+        <v>1565.197890767835</v>
       </c>
       <c r="D26" t="n">
-        <v>1262.442141395917</v>
+        <v>1565.197890767835</v>
       </c>
       <c r="E26" t="n">
-        <v>876.6538887976726</v>
+        <v>1179.409638169591</v>
       </c>
       <c r="F26" t="n">
-        <v>465.667984008065</v>
+        <v>768.4237333799836</v>
       </c>
       <c r="G26" t="n">
-        <v>49.90777080860229</v>
+        <v>354.534924478902</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I26" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J26" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439903</v>
       </c>
       <c r="K26" t="n">
-        <v>429.6498038307155</v>
+        <v>429.6498038307162</v>
       </c>
       <c r="L26" t="n">
-        <v>774.309680356748</v>
+        <v>774.3096803567489</v>
       </c>
       <c r="M26" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N26" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O26" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P26" t="n">
-        <v>2303.220758926973</v>
+        <v>2303.220758926974</v>
       </c>
       <c r="Q26" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R26" t="n">
         <v>2495.388540430115</v>
@@ -6256,22 +6256,22 @@
         <v>2495.388540430115</v>
       </c>
       <c r="T26" t="n">
-        <v>2495.388540430115</v>
+        <v>2286.400110087218</v>
       </c>
       <c r="U26" t="n">
-        <v>2495.388540430115</v>
+        <v>2286.400110087218</v>
       </c>
       <c r="V26" t="n">
-        <v>2495.388540430115</v>
+        <v>1955.337222743647</v>
       </c>
       <c r="W26" t="n">
-        <v>2495.388540430115</v>
+        <v>1955.337222743647</v>
       </c>
       <c r="X26" t="n">
-        <v>2121.922782169035</v>
+        <v>1955.337222743647</v>
       </c>
       <c r="Y26" t="n">
-        <v>1731.783450193223</v>
+        <v>1565.197890767835</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>863.6805832831849</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C27" t="n">
-        <v>689.2275540020579</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D27" t="n">
-        <v>540.2931443408066</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E27" t="n">
-        <v>381.0556893353511</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F27" t="n">
-        <v>234.5211313622361</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G27" t="n">
         <v>165.4125782904605</v>
       </c>
       <c r="H27" t="n">
-        <v>71.35671705856505</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I27" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J27" t="n">
-        <v>109.510319166265</v>
+        <v>109.5103191662651</v>
       </c>
       <c r="K27" t="n">
-        <v>289.5353923886628</v>
+        <v>551.3559770311157</v>
       </c>
       <c r="L27" t="n">
-        <v>581.7886808454848</v>
+        <v>839.7444456077003</v>
       </c>
       <c r="M27" t="n">
-        <v>1199.397344601938</v>
+        <v>1195.637054203547</v>
       </c>
       <c r="N27" t="n">
-        <v>1817.006008358391</v>
+        <v>1575.357726073164</v>
       </c>
       <c r="O27" t="n">
-        <v>2142.156443465626</v>
+        <v>1900.508161180398</v>
       </c>
       <c r="P27" t="n">
-        <v>2383.785267164626</v>
+        <v>2175.808752306136</v>
       </c>
       <c r="Q27" t="n">
         <v>2495.388540430115</v>
@@ -6332,25 +6332,25 @@
         <v>2495.388540430115</v>
       </c>
       <c r="S27" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492421</v>
       </c>
       <c r="T27" t="n">
-        <v>2164.98924068285</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U27" t="n">
-        <v>1936.897184233684</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V27" t="n">
-        <v>1701.745076001941</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W27" t="n">
-        <v>1447.50771927374</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X27" t="n">
-        <v>1239.656219068207</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y27" t="n">
-        <v>1031.895920303253</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>198.8678637226855</v>
+        <v>399.0018852998193</v>
       </c>
       <c r="C28" t="n">
-        <v>198.8678637226855</v>
+        <v>346.7809573050786</v>
       </c>
       <c r="D28" t="n">
-        <v>198.8678637226855</v>
+        <v>346.7809573050786</v>
       </c>
       <c r="E28" t="n">
         <v>198.8678637226855</v>
@@ -6378,22 +6378,22 @@
         <v>198.8678637226855</v>
       </c>
       <c r="H28" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I28" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J28" t="n">
-        <v>73.65301825917584</v>
+        <v>73.65301825917587</v>
       </c>
       <c r="K28" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L28" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M28" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N28" t="n">
         <v>1106.014038958228</v>
@@ -6405,31 +6405,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q28" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="U28" t="n">
-        <v>1321.814325117584</v>
+        <v>1124.752008372906</v>
       </c>
       <c r="V28" t="n">
-        <v>1118.715628631433</v>
+        <v>870.0675201670196</v>
       </c>
       <c r="W28" t="n">
-        <v>829.2984585944727</v>
+        <v>580.650350130059</v>
       </c>
       <c r="X28" t="n">
-        <v>601.3089076964553</v>
+        <v>580.650350130059</v>
       </c>
       <c r="Y28" t="n">
-        <v>380.5163285529252</v>
+        <v>580.650350130059</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1520.600823341012</v>
+        <v>1345.183610129102</v>
       </c>
       <c r="C29" t="n">
-        <v>1520.600823341012</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="D29" t="n">
-        <v>1162.335124734261</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="E29" t="n">
-        <v>776.5468721360169</v>
+        <v>876.6538887976726</v>
       </c>
       <c r="F29" t="n">
-        <v>365.5609673464093</v>
+        <v>465.667984008065</v>
       </c>
       <c r="G29" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I29" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J29" t="n">
         <v>181.5754963439896</v>
@@ -6478,13 +6478,13 @@
         <v>1615.981290573628</v>
       </c>
       <c r="O29" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P29" t="n">
-        <v>2303.220758926973</v>
+        <v>2303.220758926974</v>
       </c>
       <c r="Q29" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R29" t="n">
         <v>2495.388540430115</v>
@@ -6496,19 +6496,19 @@
         <v>2495.388540430115</v>
       </c>
       <c r="U29" t="n">
-        <v>2241.803042660394</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="V29" t="n">
-        <v>1910.740155316823</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="W29" t="n">
-        <v>1910.740155316823</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="X29" t="n">
-        <v>1910.740155316823</v>
+        <v>2121.922782169036</v>
       </c>
       <c r="Y29" t="n">
-        <v>1520.600823341012</v>
+        <v>1731.783450193224</v>
       </c>
     </row>
     <row r="30">
@@ -6536,58 +6536,58 @@
         <v>165.4125782904605</v>
       </c>
       <c r="H30" t="n">
-        <v>71.35671705856505</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I30" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J30" t="n">
-        <v>109.510319166265</v>
+        <v>109.5103191662651</v>
       </c>
       <c r="K30" t="n">
         <v>289.5353923886628</v>
       </c>
       <c r="L30" t="n">
-        <v>577.9238609652473</v>
+        <v>907.1440561451163</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.865100194241</v>
+        <v>1263.036664740963</v>
       </c>
       <c r="N30" t="n">
-        <v>1794.473763950694</v>
+        <v>1642.75733661058</v>
       </c>
       <c r="O30" t="n">
-        <v>2119.624199057928</v>
+        <v>2142.156443465627</v>
       </c>
       <c r="P30" t="n">
-        <v>2361.253022756928</v>
+        <v>2383.785267164626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R30" t="n">
         <v>2495.388540430115</v>
       </c>
       <c r="S30" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492421</v>
       </c>
       <c r="T30" t="n">
-        <v>2232.611773448894</v>
+        <v>2164.989240682851</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.519716999729</v>
+        <v>1936.897184233685</v>
       </c>
       <c r="V30" t="n">
-        <v>1769.367608767986</v>
+        <v>1701.745076001942</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.130252039784</v>
+        <v>1447.507719273741</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068208</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303254</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>839.1402860136793</v>
+        <v>305.671838860566</v>
       </c>
       <c r="C31" t="n">
-        <v>839.1402860136793</v>
+        <v>136.7356559326591</v>
       </c>
       <c r="D31" t="n">
-        <v>689.0236466013436</v>
+        <v>136.7356559326591</v>
       </c>
       <c r="E31" t="n">
-        <v>541.1105530189504</v>
+        <v>136.7356559326591</v>
       </c>
       <c r="F31" t="n">
-        <v>394.2206055210401</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="G31" t="n">
-        <v>226.2092620711031</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="H31" t="n">
-        <v>77.24916915701985</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J31" t="n">
-        <v>73.65301825917584</v>
+        <v>73.65301825917587</v>
       </c>
       <c r="K31" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L31" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M31" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N31" t="n">
         <v>1106.014038958228</v>
@@ -6642,31 +6642,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.934019636921</v>
+        <v>1190.78692193824</v>
       </c>
       <c r="U31" t="n">
-        <v>1321.814325117584</v>
+        <v>1190.78692193824</v>
       </c>
       <c r="V31" t="n">
-        <v>1067.129836911697</v>
+        <v>936.1024337323532</v>
       </c>
       <c r="W31" t="n">
-        <v>1067.129836911697</v>
+        <v>936.1024337323532</v>
       </c>
       <c r="X31" t="n">
-        <v>839.1402860136793</v>
+        <v>708.1128828343359</v>
       </c>
       <c r="Y31" t="n">
-        <v>839.1402860136793</v>
+        <v>487.3203036908058</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1345.183610129101</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="C32" t="n">
-        <v>976.2210931886896</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="D32" t="n">
-        <v>976.2210931886896</v>
+        <v>1262.442141395917</v>
       </c>
       <c r="E32" t="n">
-        <v>590.4328405904453</v>
+        <v>876.6538887976726</v>
       </c>
       <c r="F32" t="n">
-        <v>179.4469358008377</v>
+        <v>465.667984008065</v>
       </c>
       <c r="G32" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I32" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J32" t="n">
         <v>181.5754963439896</v>
@@ -6706,46 +6706,46 @@
         <v>429.6498038307155</v>
       </c>
       <c r="L32" t="n">
-        <v>774.309680356748</v>
+        <v>774.3096803567482</v>
       </c>
       <c r="M32" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N32" t="n">
         <v>1615.981290573628</v>
       </c>
       <c r="O32" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P32" t="n">
         <v>2303.220758926973</v>
       </c>
       <c r="Q32" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R32" t="n">
         <v>2495.388540430115</v>
       </c>
       <c r="S32" t="n">
-        <v>2495.388540430115</v>
+        <v>2412.64707169693</v>
       </c>
       <c r="T32" t="n">
-        <v>2495.388540430115</v>
+        <v>2412.64707169693</v>
       </c>
       <c r="U32" t="n">
-        <v>2495.388540430115</v>
+        <v>2412.64707169693</v>
       </c>
       <c r="V32" t="n">
-        <v>2495.388540430115</v>
+        <v>2412.64707169693</v>
       </c>
       <c r="W32" t="n">
-        <v>2495.388540430115</v>
+        <v>2412.64707169693</v>
       </c>
       <c r="X32" t="n">
-        <v>2121.922782169035</v>
+        <v>2039.18131343585</v>
       </c>
       <c r="Y32" t="n">
-        <v>1731.783450193223</v>
+        <v>1649.041981460039</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>863.6805832831849</v>
+        <v>863.6805832831858</v>
       </c>
       <c r="C33" t="n">
-        <v>689.2275540020579</v>
+        <v>689.2275540020588</v>
       </c>
       <c r="D33" t="n">
-        <v>540.2931443408066</v>
+        <v>540.2931443408075</v>
       </c>
       <c r="E33" t="n">
-        <v>381.0556893353511</v>
+        <v>381.055689335352</v>
       </c>
       <c r="F33" t="n">
-        <v>234.5211313622361</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G33" t="n">
-        <v>97.79004552441555</v>
+        <v>165.4125782904605</v>
       </c>
       <c r="H33" t="n">
-        <v>71.35671705856505</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I33" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J33" t="n">
-        <v>109.510319166265</v>
+        <v>109.5103191662651</v>
       </c>
       <c r="K33" t="n">
         <v>289.5353923886628</v>
       </c>
       <c r="L33" t="n">
-        <v>577.9238609652473</v>
+        <v>766.1145869393906</v>
       </c>
       <c r="M33" t="n">
-        <v>1195.532524721701</v>
+        <v>1122.007195535237</v>
       </c>
       <c r="N33" t="n">
-        <v>1813.141188478154</v>
+        <v>1501.727867404855</v>
       </c>
       <c r="O33" t="n">
-        <v>2138.291623585388</v>
+        <v>1826.878302512089</v>
       </c>
       <c r="P33" t="n">
         <v>2383.785267164626</v>
@@ -6806,25 +6806,25 @@
         <v>2495.388540430115</v>
       </c>
       <c r="S33" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492421</v>
       </c>
       <c r="T33" t="n">
-        <v>2164.98924068285</v>
+        <v>2164.989240682851</v>
       </c>
       <c r="U33" t="n">
-        <v>1936.897184233684</v>
+        <v>1936.897184233685</v>
       </c>
       <c r="V33" t="n">
-        <v>1701.745076001941</v>
+        <v>1701.745076001942</v>
       </c>
       <c r="W33" t="n">
-        <v>1447.50771927374</v>
+        <v>1447.507719273741</v>
       </c>
       <c r="X33" t="n">
-        <v>1239.656219068207</v>
+        <v>1239.656219068208</v>
       </c>
       <c r="Y33" t="n">
-        <v>1031.895920303253</v>
+        <v>1031.895920303254</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1504.826994245034</v>
+        <v>940.4484418765661</v>
       </c>
       <c r="C34" t="n">
-        <v>1504.826994245034</v>
+        <v>771.5122589486592</v>
       </c>
       <c r="D34" t="n">
-        <v>1504.826994245034</v>
+        <v>621.3956195363235</v>
       </c>
       <c r="E34" t="n">
-        <v>1504.826994245034</v>
+        <v>473.4825259539304</v>
       </c>
       <c r="F34" t="n">
-        <v>1357.937046747124</v>
+        <v>473.4825259539304</v>
       </c>
       <c r="G34" t="n">
-        <v>1189.925703297187</v>
+        <v>305.4711825039934</v>
       </c>
       <c r="H34" t="n">
-        <v>1040.965610383104</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="I34" t="n">
-        <v>934.3622916017957</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J34" t="n">
-        <v>958.1075390523692</v>
+        <v>73.65301825917587</v>
       </c>
       <c r="K34" t="n">
-        <v>1126.965111579038</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L34" t="n">
-        <v>1398.571103388663</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M34" t="n">
-        <v>1695.330662876309</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N34" t="n">
-        <v>1990.468559751421</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O34" t="n">
-        <v>2247.059881453956</v>
+        <v>1362.605360660763</v>
       </c>
       <c r="P34" t="n">
-        <v>2443.097402462181</v>
+        <v>1558.642881668988</v>
       </c>
       <c r="Q34" t="n">
-        <v>2495.388540430115</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R34" t="n">
-        <v>2391.686494508112</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S34" t="n">
-        <v>2194.624177763435</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T34" t="n">
-        <v>1971.539396809431</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.511482450921</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.826994245034</v>
+        <v>1159.187214686357</v>
       </c>
       <c r="W34" t="n">
-        <v>1504.826994245034</v>
+        <v>1122.096906706806</v>
       </c>
       <c r="X34" t="n">
-        <v>1504.826994245034</v>
+        <v>1122.096906706806</v>
       </c>
       <c r="Y34" t="n">
-        <v>1504.826994245034</v>
+        <v>1122.096906706806</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>829.8561925386216</v>
+        <v>1608.058624606764</v>
       </c>
       <c r="C35" t="n">
-        <v>460.8936755982098</v>
+        <v>1608.058624606764</v>
       </c>
       <c r="D35" t="n">
-        <v>460.8936755982098</v>
+        <v>1249.792926000013</v>
       </c>
       <c r="E35" t="n">
-        <v>460.8936755982098</v>
+        <v>1249.792926000013</v>
       </c>
       <c r="F35" t="n">
-        <v>49.90777080860227</v>
+        <v>838.807021210406</v>
       </c>
       <c r="G35" t="n">
-        <v>49.90777080860227</v>
+        <v>423.0468080109433</v>
       </c>
       <c r="H35" t="n">
-        <v>49.90777080860227</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="I35" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J35" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K35" t="n">
         <v>429.6498038307155</v>
       </c>
       <c r="L35" t="n">
-        <v>774.3096803567478</v>
+        <v>774.3096803567482</v>
       </c>
       <c r="M35" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N35" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O35" t="n">
-        <v>2005.379444475429</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P35" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926974</v>
       </c>
       <c r="Q35" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R35" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S35" t="n">
-        <v>2495.388540430114</v>
+        <v>2369.425471581598</v>
       </c>
       <c r="T35" t="n">
-        <v>2495.388540430114</v>
+        <v>2369.425471581598</v>
       </c>
       <c r="U35" t="n">
-        <v>2495.388540430114</v>
+        <v>2369.425471581598</v>
       </c>
       <c r="V35" t="n">
-        <v>2332.829778109749</v>
+        <v>2334.293038137958</v>
       </c>
       <c r="W35" t="n">
-        <v>1980.061122839635</v>
+        <v>1981.524382867844</v>
       </c>
       <c r="X35" t="n">
-        <v>1606.595364578555</v>
+        <v>1608.058624606764</v>
       </c>
       <c r="Y35" t="n">
-        <v>1216.456032602743</v>
+        <v>1608.058624606764</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3031160492297</v>
+        <v>909.854169799267</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8500867681028</v>
+        <v>735.40114051814</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9156771068515</v>
+        <v>586.4667308568887</v>
       </c>
       <c r="E36" t="n">
-        <v>448.678222101396</v>
+        <v>427.2292758514333</v>
       </c>
       <c r="F36" t="n">
-        <v>302.143664128281</v>
+        <v>280.6947178783183</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4125782904604</v>
+        <v>143.9636320404977</v>
       </c>
       <c r="H36" t="n">
-        <v>71.35671705856504</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I36" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J36" t="n">
-        <v>234.3404441532698</v>
+        <v>109.5103191662651</v>
       </c>
       <c r="K36" t="n">
-        <v>414.3655173756675</v>
+        <v>289.5353923886628</v>
       </c>
       <c r="L36" t="n">
-        <v>702.7539859522522</v>
+        <v>907.1440561451163</v>
       </c>
       <c r="M36" t="n">
-        <v>1058.646594548098</v>
+        <v>1263.036664740963</v>
       </c>
       <c r="N36" t="n">
-        <v>1438.367266417716</v>
+        <v>1642.75733661058</v>
       </c>
       <c r="O36" t="n">
-        <v>1763.51770152495</v>
+        <v>1967.907771717815</v>
       </c>
       <c r="P36" t="n">
-        <v>2153.276507898437</v>
+        <v>2383.785267164626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2472.856296022416</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S36" t="n">
-        <v>2359.115481492419</v>
+        <v>2359.115481492421</v>
       </c>
       <c r="T36" t="n">
-        <v>2164.989240682849</v>
+        <v>2164.989240682851</v>
       </c>
       <c r="U36" t="n">
-        <v>1936.897184233683</v>
+        <v>1936.897184233685</v>
       </c>
       <c r="V36" t="n">
-        <v>1701.74507600194</v>
+        <v>1701.745076001942</v>
       </c>
       <c r="W36" t="n">
-        <v>1447.507719273739</v>
+        <v>1447.507719273741</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068208</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303254</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>305.4711825039934</v>
+        <v>222.9362891007133</v>
       </c>
       <c r="C37" t="n">
-        <v>305.4711825039934</v>
+        <v>222.9362891007133</v>
       </c>
       <c r="D37" t="n">
-        <v>305.4711825039934</v>
+        <v>222.9362891007133</v>
       </c>
       <c r="E37" t="n">
-        <v>305.4711825039934</v>
+        <v>222.9362891007133</v>
       </c>
       <c r="F37" t="n">
-        <v>305.4711825039934</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="G37" t="n">
-        <v>305.4711825039934</v>
+        <v>156.5110895899102</v>
       </c>
       <c r="H37" t="n">
         <v>156.5110895899102</v>
       </c>
       <c r="I37" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J37" t="n">
-        <v>73.65301825917582</v>
+        <v>73.65301825917587</v>
       </c>
       <c r="K37" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L37" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M37" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N37" t="n">
         <v>1106.014038958228</v>
@@ -7116,31 +7116,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q37" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R37" t="n">
-        <v>1507.231973714919</v>
+        <v>1507.23197371492</v>
       </c>
       <c r="S37" t="n">
-        <v>1310.169656970241</v>
+        <v>1507.23197371492</v>
       </c>
       <c r="T37" t="n">
-        <v>1087.084876016238</v>
+        <v>1284.147192760916</v>
       </c>
       <c r="U37" t="n">
-        <v>815.6809316844842</v>
+        <v>995.0274982415781</v>
       </c>
       <c r="V37" t="n">
-        <v>815.6809316844842</v>
+        <v>740.3430100356912</v>
       </c>
       <c r="W37" t="n">
-        <v>526.2637616475236</v>
+        <v>450.9258399987306</v>
       </c>
       <c r="X37" t="n">
-        <v>526.2637616475236</v>
+        <v>222.9362891007133</v>
       </c>
       <c r="Y37" t="n">
-        <v>305.4711825039934</v>
+        <v>222.9362891007133</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>903.1423844805181</v>
+        <v>1525.045907217021</v>
       </c>
       <c r="C38" t="n">
-        <v>534.1798675401063</v>
+        <v>1156.083390276609</v>
       </c>
       <c r="D38" t="n">
-        <v>534.1798675401063</v>
+        <v>1156.083390276609</v>
       </c>
       <c r="E38" t="n">
-        <v>534.1798675401063</v>
+        <v>770.2951376783647</v>
       </c>
       <c r="F38" t="n">
-        <v>534.1798675401063</v>
+        <v>770.2951376783647</v>
       </c>
       <c r="G38" t="n">
-        <v>118.4196543406436</v>
+        <v>354.534924478902</v>
       </c>
       <c r="H38" t="n">
-        <v>118.4196543406436</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I38" t="n">
         <v>49.90777080860229</v>
       </c>
       <c r="J38" t="n">
-        <v>181.5754963439895</v>
+        <v>181.5754963439898</v>
       </c>
       <c r="K38" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307157</v>
       </c>
       <c r="L38" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567482</v>
       </c>
       <c r="M38" t="n">
         <v>1189.47963928463</v>
       </c>
       <c r="N38" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O38" t="n">
         <v>2005.37944447543</v>
       </c>
       <c r="P38" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q38" t="n">
         <v>2478.714435577521</v>
@@ -7207,19 +7207,19 @@
         <v>2369.425471581597</v>
       </c>
       <c r="U38" t="n">
-        <v>2115.839973811877</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="V38" t="n">
-        <v>2115.839973811877</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="W38" t="n">
-        <v>2053.347314781532</v>
+        <v>2016.656816311483</v>
       </c>
       <c r="X38" t="n">
-        <v>1679.881556520452</v>
+        <v>2016.656816311483</v>
       </c>
       <c r="Y38" t="n">
-        <v>1289.74222454464</v>
+        <v>1911.645747281142</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>234.3404441532698</v>
       </c>
       <c r="K39" t="n">
-        <v>414.3655173756675</v>
+        <v>585.0277444578522</v>
       </c>
       <c r="L39" t="n">
-        <v>702.7539859522522</v>
+        <v>873.4162130344369</v>
       </c>
       <c r="M39" t="n">
-        <v>1058.646594548098</v>
+        <v>1229.308821630283</v>
       </c>
       <c r="N39" t="n">
-        <v>1676.255258304551</v>
+        <v>1609.029493499901</v>
       </c>
       <c r="O39" t="n">
-        <v>2001.405693411786</v>
+        <v>1934.179928607135</v>
       </c>
       <c r="P39" t="n">
-        <v>2243.034517110786</v>
+        <v>2175.808752306135</v>
       </c>
       <c r="Q39" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R39" t="n">
         <v>2495.388540430115</v>
@@ -7292,10 +7292,10 @@
         <v>1701.745076001941</v>
       </c>
       <c r="W39" t="n">
-        <v>1447.50771927374</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X39" t="n">
-        <v>1239.656219068207</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.518453069298</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.90777080860229</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="C40" t="n">
-        <v>49.90777080860229</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="D40" t="n">
-        <v>49.90777080860229</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="E40" t="n">
-        <v>49.90777080860229</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="F40" t="n">
-        <v>49.90777080860229</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="G40" t="n">
         <v>49.90777080860229</v>
@@ -7332,16 +7332,16 @@
         <v>49.90777080860229</v>
       </c>
       <c r="J40" t="n">
-        <v>73.65301825917584</v>
+        <v>73.65301825917585</v>
       </c>
       <c r="K40" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L40" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M40" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N40" t="n">
         <v>1106.014038958228</v>
@@ -7353,31 +7353,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q40" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R40" t="n">
-        <v>1507.231973714919</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S40" t="n">
-        <v>1310.169656970241</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T40" t="n">
-        <v>1087.084876016238</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="U40" t="n">
-        <v>797.9651814969</v>
+        <v>1124.752008372906</v>
       </c>
       <c r="V40" t="n">
-        <v>543.2806932910131</v>
+        <v>870.0675201670196</v>
       </c>
       <c r="W40" t="n">
-        <v>253.8635232540525</v>
+        <v>580.650350130059</v>
       </c>
       <c r="X40" t="n">
-        <v>49.90777080860229</v>
+        <v>438.7116934020694</v>
       </c>
       <c r="Y40" t="n">
-        <v>49.90777080860229</v>
+        <v>217.9191142585393</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.81507055428023</v>
+        <v>945.1657723297139</v>
       </c>
       <c r="C41" t="n">
-        <v>49.90777080860227</v>
+        <v>945.1657723297139</v>
       </c>
       <c r="D41" t="n">
-        <v>49.90777080860227</v>
+        <v>945.1657723297139</v>
       </c>
       <c r="E41" t="n">
-        <v>49.90777080860227</v>
+        <v>945.1657723297139</v>
       </c>
       <c r="F41" t="n">
-        <v>49.90777080860227</v>
+        <v>534.1798675401063</v>
       </c>
       <c r="G41" t="n">
-        <v>49.90777080860227</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="H41" t="n">
-        <v>49.90777080860227</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="I41" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J41" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439904</v>
       </c>
       <c r="K41" t="n">
-        <v>429.6498038307154</v>
+        <v>429.6498038307163</v>
       </c>
       <c r="L41" t="n">
-        <v>774.3096803567482</v>
+        <v>774.3096803567494</v>
       </c>
       <c r="M41" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284632</v>
       </c>
       <c r="N41" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573629</v>
       </c>
       <c r="O41" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P41" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926974</v>
       </c>
       <c r="Q41" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577522</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S41" t="n">
-        <v>2369.425471581596</v>
+        <v>2465.037001317096</v>
       </c>
       <c r="T41" t="n">
-        <v>2160.437041238699</v>
+        <v>2256.048570974199</v>
       </c>
       <c r="U41" t="n">
-        <v>1906.851543468978</v>
+        <v>2002.463073204478</v>
       </c>
       <c r="V41" t="n">
-        <v>1575.788656125408</v>
+        <v>1671.400185860908</v>
       </c>
       <c r="W41" t="n">
-        <v>1223.020000855294</v>
+        <v>1318.631530590794</v>
       </c>
       <c r="X41" t="n">
-        <v>849.5542425942137</v>
+        <v>945.1657723297139</v>
       </c>
       <c r="Y41" t="n">
-        <v>459.414910618402</v>
+        <v>945.1657723297139</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>863.6805832831835</v>
+        <v>931.3031160492297</v>
       </c>
       <c r="C42" t="n">
-        <v>689.2275540020565</v>
+        <v>756.8500867681028</v>
       </c>
       <c r="D42" t="n">
-        <v>540.2931443408053</v>
+        <v>607.9156771068515</v>
       </c>
       <c r="E42" t="n">
-        <v>381.0556893353498</v>
+        <v>448.678222101396</v>
       </c>
       <c r="F42" t="n">
-        <v>234.5211313622347</v>
+        <v>302.143664128281</v>
       </c>
       <c r="G42" t="n">
-        <v>97.79004552441418</v>
+        <v>165.4125782904605</v>
       </c>
       <c r="H42" t="n">
-        <v>49.90777080860227</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I42" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J42" t="n">
-        <v>113.3751390465023</v>
+        <v>109.5103191662651</v>
       </c>
       <c r="K42" t="n">
-        <v>293.4002122689</v>
+        <v>289.5353923886628</v>
       </c>
       <c r="L42" t="n">
-        <v>581.7886808454846</v>
+        <v>907.1440561451163</v>
       </c>
       <c r="M42" t="n">
-        <v>1199.397344601938</v>
+        <v>1263.036664740963</v>
       </c>
       <c r="N42" t="n">
-        <v>1817.006008358391</v>
+        <v>1642.75733661058</v>
       </c>
       <c r="O42" t="n">
-        <v>2142.156443465625</v>
+        <v>2142.156443465627</v>
       </c>
       <c r="P42" t="n">
-        <v>2383.785267164625</v>
+        <v>2383.785267164626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="S42" t="n">
-        <v>2359.115481492419</v>
+        <v>2426.738014258465</v>
       </c>
       <c r="T42" t="n">
-        <v>2164.989240682849</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U42" t="n">
-        <v>1936.897184233683</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V42" t="n">
-        <v>1701.74507600194</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W42" t="n">
-        <v>1447.507719273738</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X42" t="n">
-        <v>1239.656219068205</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y42" t="n">
-        <v>1031.895920303252</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.90777080860227</v>
+        <v>515.7171402329856</v>
       </c>
       <c r="C43" t="n">
-        <v>49.90777080860227</v>
+        <v>346.7809573050786</v>
       </c>
       <c r="D43" t="n">
-        <v>49.90777080860227</v>
+        <v>346.7809573050786</v>
       </c>
       <c r="E43" t="n">
-        <v>49.90777080860227</v>
+        <v>198.8678637226855</v>
       </c>
       <c r="F43" t="n">
-        <v>49.90777080860227</v>
+        <v>198.8678637226855</v>
       </c>
       <c r="G43" t="n">
-        <v>49.90777080860227</v>
+        <v>198.8678637226855</v>
       </c>
       <c r="H43" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860231</v>
       </c>
       <c r="J43" t="n">
-        <v>73.65301825917581</v>
+        <v>73.65301825917587</v>
       </c>
       <c r="K43" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L43" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954695</v>
       </c>
       <c r="M43" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831154</v>
       </c>
       <c r="N43" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O43" t="n">
         <v>1362.605360660763</v>
@@ -7590,31 +7590,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q43" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R43" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="S43" t="n">
-        <v>1554.996034566339</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T43" t="n">
-        <v>1331.911253612335</v>
+        <v>1190.78692193824</v>
       </c>
       <c r="U43" t="n">
-        <v>1042.791559092997</v>
+        <v>986.782775100186</v>
       </c>
       <c r="V43" t="n">
-        <v>788.1070708871104</v>
+        <v>986.782775100186</v>
       </c>
       <c r="W43" t="n">
-        <v>498.6899008501497</v>
+        <v>697.3656050632253</v>
       </c>
       <c r="X43" t="n">
-        <v>270.7003499521324</v>
+        <v>697.3656050632253</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.90777080860227</v>
+        <v>697.3656050632253</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1192.896199555227</v>
+        <v>823.9336826148154</v>
       </c>
       <c r="C44" t="n">
         <v>823.9336826148154</v>
@@ -7639,22 +7639,22 @@
         <v>465.6679840080649</v>
       </c>
       <c r="G44" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860228</v>
       </c>
       <c r="H44" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860228</v>
       </c>
       <c r="I44" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860228</v>
       </c>
       <c r="J44" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439897</v>
       </c>
       <c r="K44" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307156</v>
       </c>
       <c r="L44" t="n">
-        <v>774.3096803567475</v>
+        <v>774.309680356748</v>
       </c>
       <c r="M44" t="n">
         <v>1189.47963928463</v>
@@ -7663,10 +7663,10 @@
         <v>1615.981290573627</v>
       </c>
       <c r="O44" t="n">
-        <v>2005.379444475429</v>
+        <v>2005.37944447543</v>
       </c>
       <c r="P44" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q44" t="n">
         <v>2478.71443557752</v>
@@ -7675,25 +7675,25 @@
         <v>2495.388540430114</v>
       </c>
       <c r="S44" t="n">
-        <v>2495.388540430114</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="T44" t="n">
-        <v>2495.388540430114</v>
+        <v>2160.437041238699</v>
       </c>
       <c r="U44" t="n">
-        <v>2250.193500429992</v>
+        <v>1906.851543468979</v>
       </c>
       <c r="V44" t="n">
-        <v>1919.130613086421</v>
+        <v>1575.788656125408</v>
       </c>
       <c r="W44" t="n">
-        <v>1566.361957816307</v>
+        <v>1575.788656125408</v>
       </c>
       <c r="X44" t="n">
-        <v>1192.896199555227</v>
+        <v>1210.533522678937</v>
       </c>
       <c r="Y44" t="n">
-        <v>1192.896199555227</v>
+        <v>1210.533522678937</v>
       </c>
     </row>
     <row r="45">
@@ -7703,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>863.6805832831835</v>
+        <v>863.6805832831844</v>
       </c>
       <c r="C45" t="n">
-        <v>689.2275540020565</v>
+        <v>689.2275540020574</v>
       </c>
       <c r="D45" t="n">
-        <v>540.2931443408053</v>
+        <v>540.2931443408062</v>
       </c>
       <c r="E45" t="n">
-        <v>381.0556893353498</v>
+        <v>381.0556893353507</v>
       </c>
       <c r="F45" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622356</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4125782904604</v>
+        <v>97.79004552441509</v>
       </c>
       <c r="H45" t="n">
         <v>71.35671705856504</v>
       </c>
       <c r="I45" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860228</v>
       </c>
       <c r="J45" t="n">
         <v>234.3404441532698</v>
       </c>
       <c r="K45" t="n">
-        <v>414.3655173756675</v>
+        <v>676.1861020181204</v>
       </c>
       <c r="L45" t="n">
-        <v>702.7539859522522</v>
+        <v>964.5745705947051</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.646594548098</v>
+        <v>1320.467179190551</v>
       </c>
       <c r="N45" t="n">
-        <v>1438.367266417716</v>
+        <v>1700.187851060169</v>
       </c>
       <c r="O45" t="n">
-        <v>1763.51770152495</v>
+        <v>2025.338286167403</v>
       </c>
       <c r="P45" t="n">
-        <v>2320.424666177487</v>
+        <v>2266.967109866403</v>
       </c>
       <c r="Q45" t="n">
-        <v>2472.856296022416</v>
+        <v>2472.856296022417</v>
       </c>
       <c r="R45" t="n">
         <v>2495.388540430114</v>
       </c>
       <c r="S45" t="n">
-        <v>2359.115481492419</v>
+        <v>2359.11548149242</v>
       </c>
       <c r="T45" t="n">
         <v>2164.989240682849</v>
@@ -7763,16 +7763,16 @@
         <v>1936.897184233683</v>
       </c>
       <c r="V45" t="n">
-        <v>1701.74507600194</v>
+        <v>1701.745076001941</v>
       </c>
       <c r="W45" t="n">
-        <v>1447.507719273738</v>
+        <v>1447.507719273739</v>
       </c>
       <c r="X45" t="n">
-        <v>1239.656219068205</v>
+        <v>1239.656219068206</v>
       </c>
       <c r="Y45" t="n">
-        <v>1031.895920303252</v>
+        <v>1031.895920303253</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>357.5655691760543</v>
+        <v>616.3167166666607</v>
       </c>
       <c r="C46" t="n">
-        <v>346.9143577188484</v>
+        <v>616.3167166666607</v>
       </c>
       <c r="D46" t="n">
-        <v>196.7977183065126</v>
+        <v>616.3167166666607</v>
       </c>
       <c r="E46" t="n">
-        <v>196.7977183065126</v>
+        <v>616.3167166666607</v>
       </c>
       <c r="F46" t="n">
-        <v>49.90777080860227</v>
+        <v>469.4267691687503</v>
       </c>
       <c r="G46" t="n">
-        <v>49.90777080860227</v>
+        <v>301.4154257188133</v>
       </c>
       <c r="H46" t="n">
-        <v>49.90777080860227</v>
+        <v>152.4553328047301</v>
       </c>
       <c r="I46" t="n">
-        <v>49.90777080860227</v>
+        <v>49.90777080860228</v>
       </c>
       <c r="J46" t="n">
-        <v>73.65301825917581</v>
+        <v>73.65301825917584</v>
       </c>
       <c r="K46" t="n">
-        <v>242.5105907858448</v>
+        <v>242.5105907858449</v>
       </c>
       <c r="L46" t="n">
-        <v>514.1165825954693</v>
+        <v>514.1165825954694</v>
       </c>
       <c r="M46" t="n">
-        <v>810.8761420831152</v>
+        <v>810.8761420831153</v>
       </c>
       <c r="N46" t="n">
-        <v>1106.014038958227</v>
+        <v>1106.014038958228</v>
       </c>
       <c r="O46" t="n">
         <v>1362.605360660763</v>
@@ -7827,31 +7827,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q46" t="n">
-        <v>1610.934019636921</v>
+        <v>1610.934019636922</v>
       </c>
       <c r="R46" t="n">
-        <v>1610.934019636921</v>
+        <v>1507.23197371492</v>
       </c>
       <c r="S46" t="n">
-        <v>1413.871702892243</v>
+        <v>1310.169656970242</v>
       </c>
       <c r="T46" t="n">
-        <v>1190.786921938239</v>
+        <v>1087.084876016238</v>
       </c>
       <c r="U46" t="n">
-        <v>901.6672274189018</v>
+        <v>797.9651814969004</v>
       </c>
       <c r="V46" t="n">
-        <v>646.982739213015</v>
+        <v>797.9651814969004</v>
       </c>
       <c r="W46" t="n">
-        <v>357.5655691760543</v>
+        <v>797.9651814969004</v>
       </c>
       <c r="X46" t="n">
-        <v>357.5655691760543</v>
+        <v>797.9651814969004</v>
       </c>
       <c r="Y46" t="n">
-        <v>357.5655691760543</v>
+        <v>797.9651814969004</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>149.6262451257449</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>275.7172804661531</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>11.25204345357518</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>240.2909008957936</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>35.42637957036033</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>41.24076422165598</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>245.5036673062095</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>240.2909008957937</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>149.6262451257447</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.2382958490158</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>149.6262451257449</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>190.0916423981244</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526281</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>3.903858464886298</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>264.359651677381</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>240.2909008957937</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>34.01188628963382</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.76182697526282</v>
+        <v>22.76182697526281</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>332.5456516968373</v>
       </c>
       <c r="M30" t="n">
-        <v>245.5036673062095</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>240.2909008957937</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>176.0087593412243</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526281</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>190.0916423981244</v>
       </c>
       <c r="M33" t="n">
-        <v>264.359651677381</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>240.2909008957937</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.903858464886468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.76182697526282</v>
+        <v>22.76182697526281</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>332.5456516968373</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>149.6262451257444</v>
+        <v>176.0087593412243</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526281</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>172.3860879618027</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>240.2909008957937</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.4126319658006</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526281</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,22 +11138,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>3.903858464886127</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>332.5456516968373</v>
       </c>
       <c r="M42" t="n">
-        <v>264.3596516773808</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>240.2909008957935</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>176.0087593412243</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.76182697526284</v>
+        <v>22.76182697526281</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.24076422165655</v>
+        <v>95.23829584901483</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3486293776538</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.0353838770035</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U11" t="n">
         <v>251.0496427920231</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>66.94630743838404</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>66.94630743838519</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>22.23797751694167</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>195.0916935772309</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>105.7666149632488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3942175773209</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.82676469672091</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>236.361735320486</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>45.71185065092132</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>66.94630743838519</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>91.05535742669258</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>246.7621084531286</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>271.7583188465301</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.82676469672091</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>35.05239316989059</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>66.94630743838447</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>66.94630743838493</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>74.0528799788422</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H19" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>220.8539331444638</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>104.89648070864</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>198.4764322492778</v>
+        <v>251.8601846978686</v>
       </c>
       <c r="H20" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I20" t="n">
-        <v>67.82676469672091</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>206.8985460394687</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>66.94630743838428</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>66.94630743838434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.3312300154376</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>195.0916935772309</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U22" t="n">
-        <v>273.938982234882</v>
+        <v>49.02048984052769</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>150.1608491988436</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T23" t="n">
-        <v>55.30645585310924</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U23" t="n">
         <v>251.0496427920231</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24293,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>66.94630743838447</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>66.94630743838336</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>115.549747549219</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>105.7666149632488</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>272.7689875748305</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.852690255397306</v>
       </c>
       <c r="H26" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.82676469672091</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T26" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.0496427920231</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>66.94630743838447</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>66.94630743838336</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>115.5481023838346</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5372855934949</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>102.665025462782</v>
       </c>
       <c r="S28" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.8539331444638</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>51.06993380253911</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>283.3588377251542</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>99.10594649503901</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I29" t="n">
-        <v>67.82676469672091</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>206.8985460394687</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>66.94630743838344</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>66.94630743838425</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>59.46144175011501</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I31" t="n">
-        <v>78.46930122856148</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>102.665025462782</v>
       </c>
       <c r="S31" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>283.3588377251549</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I32" t="n">
-        <v>67.82676469672091</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7034381600318</v>
+        <v>42.78938411417843</v>
       </c>
       <c r="T32" t="n">
         <v>206.8985460394687</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>66.9463074383836</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>66.94630743838445</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U34" t="n">
-        <v>76.32086235921977</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>249.8035934368353</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>206.8985460394687</v>
@@ -25213,7 +25213,7 @@
         <v>251.0496427920231</v>
       </c>
       <c r="V35" t="n">
-        <v>166.8190837729739</v>
+        <v>292.971149360931</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>45.7118506509203</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>66.94630743838519</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>79.66010050723622</v>
       </c>
       <c r="G37" t="n">
         <v>166.3312300154376</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>17.53859268570852</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>206.8985460394687</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>287.3732362773712</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>282.2769803160161</v>
       </c>
     </row>
     <row r="39">
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>66.94630743838434</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>66.94630743838434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.4704919849424</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5372855934949</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>23.79346046804147</v>
+        <v>85.19038522832744</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>342.5946650227864</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I41" t="n">
-        <v>67.82676469672094</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>94.65541443814296</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>45.71185065092265</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.23445678746315</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>66.94630743838313</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.3312300154376</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5372855934949</v>
+        <v>105.5372855934948</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>102.665025462782</v>
       </c>
       <c r="S43" t="n">
-        <v>139.7130883573545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>84.26439220447074</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>301.5808821335967</v>
       </c>
       <c r="I44" t="n">
-        <v>67.82676469672094</v>
+        <v>67.82676469672089</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.306553191902424</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>8.128518566462901</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>66.94630743838579</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>66.94630743838489</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>156.7021217559939</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5372855934949</v>
+        <v>4.015199217328316</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639343.8479465418</v>
+        <v>639343.847946542</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639343.8479465418</v>
+        <v>639343.8479465421</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>639343.847946542</v>
+        <v>639343.8479465421</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639343.847946542</v>
+        <v>639343.8479465422</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>639343.8479465421</v>
+        <v>639343.847946542</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>639343.847946542</v>
+        <v>639343.8479465423</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>639343.847946542</v>
+        <v>639343.8479465421</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639343.847946542</v>
+        <v>639343.8479465422</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>639343.8479465421</v>
+        <v>639343.8479465422</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>639343.847946542</v>
+        <v>639343.8479465422</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698524</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="E2" t="n">
-        <v>437146.1014995973</v>
+        <v>437146.1014995975</v>
       </c>
       <c r="F2" t="n">
-        <v>437146.1014995973</v>
+        <v>437146.1014995974</v>
       </c>
       <c r="G2" t="n">
         <v>437146.1014995975</v>
       </c>
       <c r="H2" t="n">
-        <v>437146.1014995973</v>
+        <v>437146.1014995974</v>
       </c>
       <c r="I2" t="n">
-        <v>437146.1014995974</v>
+        <v>437146.1014995976</v>
       </c>
       <c r="J2" t="n">
-        <v>437146.1014995973</v>
+        <v>437146.1014995975</v>
       </c>
       <c r="K2" t="n">
         <v>437146.1014995974</v>
@@ -26346,16 +26346,16 @@
         <v>437146.1014995973</v>
       </c>
       <c r="M2" t="n">
-        <v>437146.1014995973</v>
+        <v>437146.1014995976</v>
       </c>
       <c r="N2" t="n">
+        <v>437146.1014995974</v>
+      </c>
+      <c r="O2" t="n">
         <v>437146.1014995975</v>
       </c>
-      <c r="O2" t="n">
-        <v>437146.1014995973</v>
-      </c>
       <c r="P2" t="n">
-        <v>437146.1014995974</v>
+        <v>437146.1014995977</v>
       </c>
     </row>
     <row r="3">
@@ -26426,37 +26426,37 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>21818.51245296787</v>
+        <v>21818.51245296788</v>
       </c>
       <c r="F4" t="n">
         <v>21818.51245296788</v>
       </c>
       <c r="G4" t="n">
-        <v>21818.51245296787</v>
+        <v>21818.51245296789</v>
       </c>
       <c r="H4" t="n">
+        <v>21818.51245296788</v>
+      </c>
+      <c r="I4" t="n">
         <v>21818.51245296789</v>
       </c>
-      <c r="I4" t="n">
-        <v>21818.51245296788</v>
-      </c>
       <c r="J4" t="n">
-        <v>21818.51245296788</v>
+        <v>21818.51245296789</v>
       </c>
       <c r="K4" t="n">
         <v>21818.51245296789</v>
       </c>
       <c r="L4" t="n">
-        <v>21818.51245296788</v>
+        <v>21818.51245296789</v>
       </c>
       <c r="M4" t="n">
+        <v>21818.51245296789</v>
+      </c>
+      <c r="N4" t="n">
         <v>21818.51245296787</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>21818.51245296789</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21818.51245296787</v>
       </c>
       <c r="P4" t="n">
         <v>21818.51245296787</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862438</v>
       </c>
       <c r="F5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862438</v>
       </c>
       <c r="G5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862438</v>
       </c>
       <c r="H5" t="n">
         <v>57994.76650862438</v>
       </c>
       <c r="I5" t="n">
-        <v>57994.76650862438</v>
+        <v>57994.76650862439</v>
       </c>
       <c r="J5" t="n">
-        <v>57994.76650862438</v>
+        <v>57994.76650862439</v>
       </c>
       <c r="K5" t="n">
-        <v>57994.76650862438</v>
+        <v>57994.76650862439</v>
       </c>
       <c r="L5" t="n">
-        <v>57994.76650862438</v>
+        <v>57994.76650862439</v>
       </c>
       <c r="M5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862439</v>
       </c>
       <c r="N5" t="n">
         <v>57994.76650862438</v>
       </c>
       <c r="O5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862439</v>
       </c>
       <c r="P5" t="n">
-        <v>57994.76650862437</v>
+        <v>57994.76650862438</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118698.4955740319</v>
+        <v>118654.3597953511</v>
       </c>
       <c r="C6" t="n">
-        <v>118698.495574032</v>
+        <v>118654.3597953511</v>
       </c>
       <c r="D6" t="n">
-        <v>118698.495574032</v>
+        <v>118654.359795351</v>
       </c>
       <c r="E6" t="n">
-        <v>-568391.5136163548</v>
+        <v>-573843.5543629756</v>
       </c>
       <c r="F6" t="n">
-        <v>357332.8225380051</v>
+        <v>351880.7817913842</v>
       </c>
       <c r="G6" t="n">
-        <v>357332.8225380052</v>
+        <v>351880.7817913843</v>
       </c>
       <c r="H6" t="n">
-        <v>357332.8225380051</v>
+        <v>351880.7817913842</v>
       </c>
       <c r="I6" t="n">
-        <v>357332.8225380051</v>
+        <v>351880.7817913843</v>
       </c>
       <c r="J6" t="n">
-        <v>357332.822538005</v>
+        <v>351880.7817913843</v>
       </c>
       <c r="K6" t="n">
-        <v>357332.8225380051</v>
+        <v>351880.7817913842</v>
       </c>
       <c r="L6" t="n">
-        <v>357332.8225380051</v>
+        <v>351880.7817913841</v>
       </c>
       <c r="M6" t="n">
-        <v>201867.6210806686</v>
+        <v>196415.5803340478</v>
       </c>
       <c r="N6" t="n">
-        <v>357332.8225380053</v>
+        <v>351880.7817913842</v>
       </c>
       <c r="O6" t="n">
-        <v>357332.8225380051</v>
+        <v>351880.7817913843</v>
       </c>
       <c r="P6" t="n">
-        <v>357332.8225380051</v>
+        <v>351880.7817913844</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>920.4064538571853</v>
       </c>
       <c r="F3" t="n">
-        <v>920.4064538571851</v>
+        <v>920.4064538571853</v>
       </c>
       <c r="G3" t="n">
         <v>920.4064538571853</v>
       </c>
       <c r="H3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="I3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="J3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="K3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="L3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="M3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="N3" t="n">
-        <v>920.4064538571853</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="O3" t="n">
-        <v>920.4064538571852</v>
+        <v>920.4064538571854</v>
       </c>
       <c r="P3" t="n">
-        <v>920.4064538571852</v>
+        <v>920.4064538571854</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="F4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="G4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="H4" t="n">
         <v>623.8471351075286</v>
       </c>
       <c r="I4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="J4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="K4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="L4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="M4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="N4" t="n">
         <v>623.8471351075286</v>
       </c>
       <c r="O4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="P4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075285</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.8471351075283</v>
+        <v>623.8471351075285</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>623.8471351075284</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H14" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I14" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J14" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K14" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L14" t="n">
-        <v>583.9077043902221</v>
+        <v>583.9077043902222</v>
       </c>
       <c r="M14" t="n">
-        <v>649.7098281039214</v>
+        <v>649.7098281039215</v>
       </c>
       <c r="N14" t="n">
-        <v>660.2228123733555</v>
+        <v>660.2228123733556</v>
       </c>
       <c r="O14" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093662</v>
       </c>
       <c r="P14" t="n">
-        <v>532.082808332585</v>
+        <v>532.0828083325852</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R14" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S14" t="n">
-        <v>84.3166314262135</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T14" t="n">
         <v>16.19730352466262</v>
@@ -32074,7 +32074,7 @@
         <v>19.12014161692002</v>
       </c>
       <c r="I15" t="n">
-        <v>68.16217606395192</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J15" t="n">
         <v>187.0422209673361</v>
@@ -32083,34 +32083,34 @@
         <v>319.6849472798112</v>
       </c>
       <c r="L15" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M15" t="n">
-        <v>501.6215173521658</v>
+        <v>501.6215173521659</v>
       </c>
       <c r="N15" t="n">
-        <v>514.8979462950681</v>
+        <v>514.8979462950682</v>
       </c>
       <c r="O15" t="n">
-        <v>471.0310273810445</v>
+        <v>471.0310273810446</v>
       </c>
       <c r="P15" t="n">
         <v>378.0439263022088</v>
       </c>
       <c r="Q15" t="n">
-        <v>252.7123531420709</v>
+        <v>252.712353142071</v>
       </c>
       <c r="R15" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S15" t="n">
-        <v>36.77284275552053</v>
+        <v>36.77284275552054</v>
       </c>
       <c r="T15" t="n">
-        <v>7.979750293346724</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H16" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I16" t="n">
-        <v>49.91318933376342</v>
+        <v>49.91318933376343</v>
       </c>
       <c r="J16" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K16" t="n">
-        <v>192.8326963982757</v>
+        <v>192.8326963982758</v>
       </c>
       <c r="L16" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M16" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N16" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O16" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P16" t="n">
-        <v>200.7391387232128</v>
+        <v>200.7391387232129</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.9813745324349</v>
+        <v>138.981374532435</v>
       </c>
       <c r="R16" t="n">
-        <v>74.62836591438747</v>
+        <v>74.62836591438749</v>
       </c>
       <c r="S16" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T16" t="n">
-        <v>7.091656283817652</v>
+        <v>7.091656283817654</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09053178234660846</v>
+        <v>0.09053178234660848</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32478,19 +32478,19 @@
         <v>470.6699596174309</v>
       </c>
       <c r="L20" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M20" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N20" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O20" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P20" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q20" t="n">
         <v>399.572029925508</v>
@@ -32502,10 +32502,10 @@
         <v>84.31663142621353</v>
       </c>
       <c r="T20" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H21" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I21" t="n">
         <v>68.16217606395195</v>
       </c>
       <c r="J21" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K21" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L21" t="n">
         <v>429.8558631905657</v>
       </c>
       <c r="M21" t="n">
-        <v>501.6215173521659</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N21" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O21" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P21" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q21" t="n">
         <v>252.712353142071</v>
@@ -32627,7 +32627,7 @@
         <v>14.75668052249718</v>
       </c>
       <c r="I22" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J22" t="n">
         <v>117.3442785515956</v>
@@ -32654,16 +32654,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R22" t="n">
-        <v>74.62836591438749</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S22" t="n">
         <v>28.92490445974137</v>
       </c>
       <c r="T22" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32715,19 +32715,19 @@
         <v>470.6699596174309</v>
       </c>
       <c r="L23" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M23" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N23" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O23" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P23" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q23" t="n">
         <v>399.572029925508</v>
@@ -32739,10 +32739,10 @@
         <v>84.31663142621353</v>
       </c>
       <c r="T23" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H24" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I24" t="n">
         <v>68.16217606395195</v>
       </c>
       <c r="J24" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K24" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L24" t="n">
         <v>429.8558631905657</v>
       </c>
       <c r="M24" t="n">
-        <v>501.6215173521659</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N24" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O24" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P24" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q24" t="n">
         <v>252.712353142071</v>
@@ -32864,7 +32864,7 @@
         <v>14.75668052249718</v>
       </c>
       <c r="I25" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J25" t="n">
         <v>117.3442785515956</v>
@@ -32891,16 +32891,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R25" t="n">
-        <v>74.62836591438749</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S25" t="n">
         <v>28.92490445974137</v>
       </c>
       <c r="T25" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32952,19 +32952,19 @@
         <v>470.6699596174309</v>
       </c>
       <c r="L26" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M26" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N26" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O26" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P26" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q26" t="n">
         <v>399.572029925508</v>
@@ -32976,10 +32976,10 @@
         <v>84.31663142621353</v>
       </c>
       <c r="T26" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H27" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I27" t="n">
         <v>68.16217606395195</v>
       </c>
       <c r="J27" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K27" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L27" t="n">
         <v>429.8558631905657</v>
       </c>
       <c r="M27" t="n">
-        <v>501.6215173521659</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N27" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O27" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P27" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q27" t="n">
         <v>252.712353142071</v>
@@ -33101,7 +33101,7 @@
         <v>14.75668052249718</v>
       </c>
       <c r="I28" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J28" t="n">
         <v>117.3442785515956</v>
@@ -33128,16 +33128,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R28" t="n">
-        <v>74.62836591438749</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S28" t="n">
         <v>28.92490445974137</v>
       </c>
       <c r="T28" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33189,19 +33189,19 @@
         <v>470.6699596174309</v>
       </c>
       <c r="L29" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M29" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N29" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O29" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P29" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q29" t="n">
         <v>399.572029925508</v>
@@ -33213,10 +33213,10 @@
         <v>84.31663142621353</v>
       </c>
       <c r="T29" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H30" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I30" t="n">
         <v>68.16217606395195</v>
       </c>
       <c r="J30" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K30" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L30" t="n">
         <v>429.8558631905657</v>
       </c>
       <c r="M30" t="n">
-        <v>501.6215173521659</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N30" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O30" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P30" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q30" t="n">
         <v>252.712353142071</v>
@@ -33338,7 +33338,7 @@
         <v>14.75668052249718</v>
       </c>
       <c r="I31" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J31" t="n">
         <v>117.3442785515956</v>
@@ -33365,16 +33365,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R31" t="n">
-        <v>74.62836591438749</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S31" t="n">
         <v>28.92490445974137</v>
       </c>
       <c r="T31" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33426,19 +33426,19 @@
         <v>470.6699596174309</v>
       </c>
       <c r="L32" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M32" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N32" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O32" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P32" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q32" t="n">
         <v>399.572029925508</v>
@@ -33450,10 +33450,10 @@
         <v>84.31663142621353</v>
       </c>
       <c r="T32" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H33" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I33" t="n">
         <v>68.16217606395195</v>
       </c>
       <c r="J33" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K33" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L33" t="n">
         <v>429.8558631905657</v>
       </c>
       <c r="M33" t="n">
-        <v>501.6215173521659</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N33" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O33" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P33" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q33" t="n">
         <v>252.712353142071</v>
@@ -33575,7 +33575,7 @@
         <v>14.75668052249718</v>
       </c>
       <c r="I34" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J34" t="n">
         <v>117.3442785515956</v>
@@ -33602,16 +33602,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R34" t="n">
-        <v>74.62836591438749</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S34" t="n">
         <v>28.92490445974137</v>
       </c>
       <c r="T34" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33663,19 +33663,19 @@
         <v>470.6699596174309</v>
       </c>
       <c r="L35" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M35" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N35" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O35" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P35" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q35" t="n">
         <v>399.572029925508</v>
@@ -33687,10 +33687,10 @@
         <v>84.31663142621353</v>
       </c>
       <c r="T35" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H36" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I36" t="n">
         <v>68.16217606395195</v>
       </c>
       <c r="J36" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K36" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L36" t="n">
         <v>429.8558631905657</v>
       </c>
       <c r="M36" t="n">
-        <v>501.6215173521659</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N36" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O36" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P36" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q36" t="n">
         <v>252.712353142071</v>
@@ -33812,7 +33812,7 @@
         <v>14.75668052249718</v>
       </c>
       <c r="I37" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J37" t="n">
         <v>117.3442785515956</v>
@@ -33839,16 +33839,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R37" t="n">
-        <v>74.62836591438749</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S37" t="n">
         <v>28.92490445974137</v>
       </c>
       <c r="T37" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33900,19 +33900,19 @@
         <v>470.6699596174309</v>
       </c>
       <c r="L38" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M38" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N38" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O38" t="n">
-        <v>623.4296800093662</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P38" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q38" t="n">
         <v>399.572029925508</v>
@@ -33924,10 +33924,10 @@
         <v>84.31663142621353</v>
       </c>
       <c r="T38" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H39" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I39" t="n">
         <v>68.16217606395195</v>
       </c>
       <c r="J39" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K39" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L39" t="n">
         <v>429.8558631905657</v>
       </c>
       <c r="M39" t="n">
-        <v>501.6215173521659</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N39" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O39" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P39" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q39" t="n">
         <v>252.712353142071</v>
@@ -34049,7 +34049,7 @@
         <v>14.75668052249718</v>
       </c>
       <c r="I40" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J40" t="n">
         <v>117.3442785515956</v>
@@ -34076,16 +34076,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R40" t="n">
-        <v>74.62836591438749</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S40" t="n">
         <v>28.92490445974137</v>
       </c>
       <c r="T40" t="n">
-        <v>7.091656283817654</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09053178234660848</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H41" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I41" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J41" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K41" t="n">
-        <v>470.6699596174308</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L41" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M41" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N41" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O41" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P41" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R41" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S41" t="n">
-        <v>84.31663142621352</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T41" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H42" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I42" t="n">
-        <v>68.16217606395193</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J42" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K42" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L42" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M42" t="n">
-        <v>501.6215173521658</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N42" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O42" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P42" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q42" t="n">
         <v>252.712353142071</v>
@@ -34240,10 +34240,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T42" t="n">
-        <v>7.979750293346725</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,28 +34280,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H43" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I43" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J43" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K43" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L43" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M43" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N43" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O43" t="n">
         <v>234.5980253208446</v>
@@ -34313,16 +34313,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R43" t="n">
-        <v>74.62836591438747</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S43" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T43" t="n">
-        <v>7.091656283817653</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09053178234660847</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.700126447667073</v>
+        <v>3.700126447667074</v>
       </c>
       <c r="H44" t="n">
-        <v>37.89391998217042</v>
+        <v>37.89391998217043</v>
       </c>
       <c r="I44" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J44" t="n">
-        <v>314.0436070876835</v>
+        <v>314.0436070876836</v>
       </c>
       <c r="K44" t="n">
-        <v>470.6699596174304</v>
+        <v>470.6699596174309</v>
       </c>
       <c r="L44" t="n">
-        <v>583.9077043902222</v>
+        <v>583.9077043902223</v>
       </c>
       <c r="M44" t="n">
-        <v>649.7098281039215</v>
+        <v>649.7098281039216</v>
       </c>
       <c r="N44" t="n">
-        <v>660.2228123733556</v>
+        <v>660.2228123733557</v>
       </c>
       <c r="O44" t="n">
-        <v>623.4296800093661</v>
+        <v>623.4296800093663</v>
       </c>
       <c r="P44" t="n">
-        <v>532.0828083325852</v>
+        <v>532.0828083325853</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.5720299255079</v>
+        <v>399.572029925508</v>
       </c>
       <c r="R44" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S44" t="n">
-        <v>84.31663142621352</v>
+        <v>84.31663142621353</v>
       </c>
       <c r="T44" t="n">
-        <v>16.19730352466262</v>
+        <v>16.19730352466263</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2960101158133658</v>
+        <v>0.2960101158133659</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.979742183768285</v>
+        <v>1.979742183768286</v>
       </c>
       <c r="H45" t="n">
-        <v>19.12014161692002</v>
+        <v>19.12014161692003</v>
       </c>
       <c r="I45" t="n">
-        <v>68.16217606395193</v>
+        <v>68.16217606395195</v>
       </c>
       <c r="J45" t="n">
-        <v>187.0422209673361</v>
+        <v>187.0422209673362</v>
       </c>
       <c r="K45" t="n">
-        <v>319.6849472798112</v>
+        <v>319.6849472798113</v>
       </c>
       <c r="L45" t="n">
-        <v>429.8558631905656</v>
+        <v>429.8558631905657</v>
       </c>
       <c r="M45" t="n">
-        <v>501.6215173521658</v>
+        <v>501.621517352166</v>
       </c>
       <c r="N45" t="n">
-        <v>514.8979462950682</v>
+        <v>514.8979462950683</v>
       </c>
       <c r="O45" t="n">
-        <v>471.0310273810446</v>
+        <v>471.0310273810447</v>
       </c>
       <c r="P45" t="n">
-        <v>378.0439263022088</v>
+        <v>378.0439263022089</v>
       </c>
       <c r="Q45" t="n">
         <v>252.712353142071</v>
@@ -34477,10 +34477,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T45" t="n">
-        <v>7.979750293346725</v>
+        <v>7.979750293346727</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1302461963005451</v>
+        <v>0.1302461963005452</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,28 +34517,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.659749343021153</v>
+        <v>1.659749343021154</v>
       </c>
       <c r="H46" t="n">
-        <v>14.75668052249717</v>
+        <v>14.75668052249718</v>
       </c>
       <c r="I46" t="n">
-        <v>49.91318933376343</v>
+        <v>49.91318933376344</v>
       </c>
       <c r="J46" t="n">
-        <v>117.3442785515955</v>
+        <v>117.3442785515956</v>
       </c>
       <c r="K46" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L46" t="n">
-        <v>246.7594614160722</v>
+        <v>246.7594614160723</v>
       </c>
       <c r="M46" t="n">
-        <v>260.1732538337613</v>
+        <v>260.1732538337614</v>
       </c>
       <c r="N46" t="n">
-        <v>253.9869153734099</v>
+        <v>253.98691537341</v>
       </c>
       <c r="O46" t="n">
         <v>234.5980253208446</v>
@@ -34550,16 +34550,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R46" t="n">
-        <v>74.62836591438747</v>
+        <v>74.6283659143875</v>
       </c>
       <c r="S46" t="n">
-        <v>28.92490445974136</v>
+        <v>28.92490445974137</v>
       </c>
       <c r="T46" t="n">
-        <v>7.091656283817653</v>
+        <v>7.091656283817655</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09053178234660847</v>
+        <v>0.0905317823466085</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.20459430066944</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K12" t="n">
-        <v>181.8435083054522</v>
+        <v>331.4697534311971</v>
       </c>
       <c r="L12" t="n">
         <v>291.3014834106915</v>
@@ -35506,7 +35506,7 @@
         <v>328.4347829366002</v>
       </c>
       <c r="P12" t="n">
-        <v>519.7867993540317</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q12" t="n">
         <v>322.8078667918986</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>132.9977025609972</v>
+        <v>132.9977025609973</v>
       </c>
       <c r="K14" t="n">
-        <v>250.5801085724502</v>
+        <v>250.5801085724503</v>
       </c>
       <c r="L14" t="n">
-        <v>348.1412894202348</v>
+        <v>348.141289420235</v>
       </c>
       <c r="M14" t="n">
-        <v>419.3635948766487</v>
+        <v>419.3635948766488</v>
       </c>
       <c r="N14" t="n">
-        <v>430.8097487767646</v>
+        <v>430.8097487767647</v>
       </c>
       <c r="O14" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876794</v>
       </c>
       <c r="P14" t="n">
-        <v>300.8498125773155</v>
+        <v>300.8498125773156</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510585</v>
       </c>
       <c r="R14" t="n">
-        <v>16.84253015413483</v>
+        <v>16.84253015413489</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.20459430066941</v>
+        <v>71.45663775424462</v>
       </c>
       <c r="K15" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L15" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106915</v>
       </c>
       <c r="M15" t="n">
-        <v>359.4874834301474</v>
+        <v>359.4874834301476</v>
       </c>
       <c r="N15" t="n">
-        <v>623.8471351075284</v>
+        <v>383.5562342117349</v>
       </c>
       <c r="O15" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P15" t="n">
-        <v>279.4958984582389</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.8078667918985</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R15" t="n">
-        <v>22.75984283605797</v>
+        <v>22.759842836058</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.98509843492275</v>
+        <v>23.98509843492278</v>
       </c>
       <c r="K16" t="n">
         <v>170.5632045723929</v>
       </c>
       <c r="L16" t="n">
-        <v>274.3494866763883</v>
+        <v>274.3494866763884</v>
       </c>
       <c r="M16" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N16" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O16" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P16" t="n">
-        <v>198.0176979881063</v>
+        <v>198.0176979881064</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.81933128074054</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.2956296410783</v>
+        <v>60.20459430066944</v>
       </c>
       <c r="K18" t="n">
         <v>181.8435083054522</v>
       </c>
       <c r="L18" t="n">
-        <v>332.5422476323475</v>
+        <v>291.3014834106915</v>
       </c>
       <c r="M18" t="n">
-        <v>359.4874834301476</v>
+        <v>604.9911507363571</v>
       </c>
       <c r="N18" t="n">
-        <v>383.5562342117349</v>
+        <v>623.8471351075286</v>
       </c>
       <c r="O18" t="n">
         <v>328.4347829366002</v>
       </c>
       <c r="P18" t="n">
-        <v>562.5322875278157</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q18" t="n">
         <v>112.7305790560495</v>
@@ -36123,28 +36123,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K20" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L20" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M20" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N20" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O20" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P20" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R20" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>186.2956296410783</v>
       </c>
       <c r="K21" t="n">
-        <v>446.3087453180308</v>
+        <v>331.469753431197</v>
       </c>
       <c r="L21" t="n">
-        <v>291.3014834106915</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M21" t="n">
-        <v>359.4874834301476</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N21" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O21" t="n">
         <v>328.4347829366002</v>
@@ -36220,10 +36220,10 @@
         <v>244.0695188878786</v>
       </c>
       <c r="Q21" t="n">
-        <v>207.9688749050653</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R21" t="n">
-        <v>22.759842836058</v>
+        <v>22.75984283605801</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K22" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L22" t="n">
         <v>274.3494866763884</v>
@@ -36360,28 +36360,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K23" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L23" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M23" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N23" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O23" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P23" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R23" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>186.2956296410783</v>
+        <v>60.20459430066947</v>
       </c>
       <c r="K24" t="n">
-        <v>331.4697534311971</v>
+        <v>181.8435083054523</v>
       </c>
       <c r="L24" t="n">
-        <v>291.3014834106915</v>
+        <v>481.393125808816</v>
       </c>
       <c r="M24" t="n">
-        <v>359.4874834301476</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N24" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O24" t="n">
         <v>328.4347829366002</v>
       </c>
       <c r="P24" t="n">
-        <v>244.0695188878786</v>
+        <v>562.5322875278158</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.8078667918986</v>
+        <v>112.7305790560495</v>
       </c>
       <c r="R24" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K25" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L25" t="n">
         <v>274.3494866763884</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.9977025609973</v>
+        <v>132.997702560998</v>
       </c>
       <c r="K26" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L26" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M26" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N26" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O26" t="n">
-        <v>393.3314685876798</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P26" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R26" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.20459430066944</v>
+        <v>60.20459430066947</v>
       </c>
       <c r="K27" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180309</v>
       </c>
       <c r="L27" t="n">
-        <v>295.2053418755778</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M27" t="n">
-        <v>623.8471351075286</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N27" t="n">
-        <v>623.8471351075286</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O27" t="n">
         <v>328.4347829366002</v>
       </c>
       <c r="P27" t="n">
-        <v>244.0695188878786</v>
+        <v>278.0814051775125</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.7305790560495</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K28" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L28" t="n">
         <v>274.3494866763884</v>
@@ -36834,28 +36834,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K29" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L29" t="n">
         <v>348.1412894202351</v>
       </c>
       <c r="M29" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N29" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767656</v>
       </c>
       <c r="O29" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P29" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R29" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.20459430066944</v>
+        <v>60.20459430066947</v>
       </c>
       <c r="K30" t="n">
-        <v>181.8435083054522</v>
+        <v>181.8435083054523</v>
       </c>
       <c r="L30" t="n">
-        <v>291.3014834106915</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="M30" t="n">
-        <v>604.9911507363571</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N30" t="n">
-        <v>623.8471351075286</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O30" t="n">
-        <v>328.4347829366002</v>
+        <v>504.4435422778245</v>
       </c>
       <c r="P30" t="n">
         <v>244.0695188878786</v>
@@ -36934,7 +36934,7 @@
         <v>112.7305790560495</v>
       </c>
       <c r="R30" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K31" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L31" t="n">
         <v>274.3494866763884</v>
@@ -37071,28 +37071,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K32" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L32" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M32" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N32" t="n">
-        <v>430.8097487767649</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O32" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P32" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.2663400510585</v>
+        <v>177.266340051059</v>
       </c>
       <c r="R32" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.20459430066944</v>
+        <v>60.20459430066947</v>
       </c>
       <c r="K33" t="n">
-        <v>181.8435083054522</v>
+        <v>181.8435083054523</v>
       </c>
       <c r="L33" t="n">
-        <v>291.3014834106915</v>
+        <v>481.393125808816</v>
       </c>
       <c r="M33" t="n">
-        <v>623.8471351075286</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N33" t="n">
-        <v>623.8471351075286</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O33" t="n">
         <v>328.4347829366002</v>
       </c>
       <c r="P33" t="n">
-        <v>247.9733773527651</v>
+        <v>562.5322875278158</v>
       </c>
       <c r="Q33" t="n">
         <v>112.7305790560495</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K34" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L34" t="n">
         <v>274.3494866763884</v>
@@ -37308,28 +37308,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K35" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L35" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M35" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N35" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O35" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P35" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R35" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.2956296410783</v>
+        <v>60.20459430066947</v>
       </c>
       <c r="K36" t="n">
-        <v>181.8435083054522</v>
+        <v>181.8435083054523</v>
       </c>
       <c r="L36" t="n">
-        <v>291.3014834106915</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="M36" t="n">
-        <v>359.4874834301476</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N36" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O36" t="n">
         <v>328.4347829366002</v>
       </c>
       <c r="P36" t="n">
-        <v>393.695764013623</v>
+        <v>420.078278229103</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.8078667918986</v>
+        <v>112.7305790560495</v>
       </c>
       <c r="R36" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K37" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L37" t="n">
         <v>274.3494866763884</v>
@@ -37545,28 +37545,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K38" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L38" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M38" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N38" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O38" t="n">
-        <v>393.3314685876794</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P38" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2663400510585</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R38" t="n">
-        <v>16.84253015413489</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>186.2956296410783</v>
       </c>
       <c r="K39" t="n">
-        <v>181.8435083054522</v>
+        <v>354.229596267255</v>
       </c>
       <c r="L39" t="n">
-        <v>291.3014834106915</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M39" t="n">
-        <v>359.4874834301476</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N39" t="n">
-        <v>623.8471351075286</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O39" t="n">
         <v>328.4347829366002</v>
@@ -37642,10 +37642,10 @@
         <v>244.0695188878786</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.14321102185</v>
+        <v>322.8078667918986</v>
       </c>
       <c r="R39" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.98509843492278</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K40" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L40" t="n">
         <v>274.3494866763884</v>
@@ -37782,28 +37782,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K41" t="n">
-        <v>250.5801085724503</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L41" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M41" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N41" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O41" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P41" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R41" t="n">
-        <v>16.84253015413486</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.10845276555557</v>
+        <v>60.20459430066947</v>
       </c>
       <c r="K42" t="n">
-        <v>181.8435083054522</v>
+        <v>181.8435083054523</v>
       </c>
       <c r="L42" t="n">
-        <v>291.3014834106914</v>
+        <v>623.8471351075289</v>
       </c>
       <c r="M42" t="n">
-        <v>623.8471351075284</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N42" t="n">
-        <v>623.8471351075284</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O42" t="n">
-        <v>328.4347829366001</v>
+        <v>504.4435422778245</v>
       </c>
       <c r="P42" t="n">
-        <v>244.0695188878785</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.7305790560494</v>
+        <v>112.7305790560495</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.98509843492276</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K43" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L43" t="n">
         <v>274.3494866763884</v>
@@ -37949,16 +37949,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N43" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O43" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P43" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.81933128074057</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K44" t="n">
-        <v>250.5801085724499</v>
+        <v>250.5801085724504</v>
       </c>
       <c r="L44" t="n">
-        <v>348.141289420235</v>
+        <v>348.1412894202351</v>
       </c>
       <c r="M44" t="n">
-        <v>419.3635948766488</v>
+        <v>419.3635948766489</v>
       </c>
       <c r="N44" t="n">
-        <v>430.8097487767647</v>
+        <v>430.8097487767648</v>
       </c>
       <c r="O44" t="n">
-        <v>393.3314685876793</v>
+        <v>393.3314685876795</v>
       </c>
       <c r="P44" t="n">
-        <v>300.8498125773156</v>
+        <v>300.8498125773157</v>
       </c>
       <c r="Q44" t="n">
-        <v>177.2663400510584</v>
+        <v>177.2663400510586</v>
       </c>
       <c r="R44" t="n">
-        <v>16.84253015413486</v>
+        <v>16.84253015413492</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>186.2956296410783</v>
       </c>
       <c r="K45" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180309</v>
       </c>
       <c r="L45" t="n">
-        <v>291.3014834106914</v>
+        <v>291.3014834106916</v>
       </c>
       <c r="M45" t="n">
-        <v>359.4874834301475</v>
+        <v>359.4874834301477</v>
       </c>
       <c r="N45" t="n">
-        <v>383.5562342117349</v>
+        <v>383.556234211735</v>
       </c>
       <c r="O45" t="n">
-        <v>328.4347829366001</v>
+        <v>328.4347829366002</v>
       </c>
       <c r="P45" t="n">
-        <v>562.5322875278157</v>
+        <v>244.0695188878786</v>
       </c>
       <c r="Q45" t="n">
-        <v>153.971343277706</v>
+        <v>207.9688749050643</v>
       </c>
       <c r="R45" t="n">
-        <v>22.75984283605798</v>
+        <v>22.75984283605801</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.98509843492276</v>
+        <v>23.98509843492279</v>
       </c>
       <c r="K46" t="n">
-        <v>170.5632045723929</v>
+        <v>170.563204572393</v>
       </c>
       <c r="L46" t="n">
         <v>274.3494866763884</v>
@@ -38186,16 +38186,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N46" t="n">
-        <v>298.1190877526385</v>
+        <v>298.1190877526386</v>
       </c>
       <c r="O46" t="n">
-        <v>259.1831532348842</v>
+        <v>259.1831532348843</v>
       </c>
       <c r="P46" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.81933128074057</v>
+        <v>52.8193312807406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1648211.44567987</v>
+        <v>1675951.241872188</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6555689.629549492</v>
+        <v>6555689.629549498</v>
       </c>
     </row>
     <row r="9">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>18.54549825659318</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I11" t="n">
         <v>67.82676469672091</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>162.2381347619715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>67.96402090993324</v>
+        <v>134.9103283483173</v>
       </c>
       <c r="T12" t="n">
         <v>192.1849784014749</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8111358846743</v>
+        <v>158.86482844629</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>126.3774955012707</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.3312300154376</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.93685237150971</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T13" t="n">
         <v>220.8539331444638</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>13.20839349014708</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>152.2801748328948</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.82676469672091</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T14" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.0496427920231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T16" t="n">
-        <v>129.7985757177713</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U16" t="n">
         <v>286.2284975741443</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>192.6875851863367</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>39.43952753074483</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.602611067468</v>
       </c>
       <c r="H17" t="n">
-        <v>29.82256328706668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T17" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>68.41746754105789</v>
+        <v>135.3637749794424</v>
       </c>
       <c r="H18" t="n">
         <v>93.11530261957644</v>
       </c>
       <c r="I18" t="n">
-        <v>21.23445678746313</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9103283483173</v>
+        <v>89.19847769739593</v>
       </c>
       <c r="T18" t="n">
         <v>192.1849784014749</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>74.56259303937016</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H19" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5372855934949</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.50063292632571</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>159.7424263695993</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>298.0570886927379</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U20" t="n">
         <v>251.0496427920231</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I21" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746315</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9103283483173</v>
+        <v>67.96402090993189</v>
       </c>
       <c r="T21" t="n">
         <v>192.1849784014749</v>
       </c>
       <c r="U21" t="n">
-        <v>158.86482844629</v>
+        <v>225.8111358846743</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>237.2080077336166</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>36.63095103149691</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>231.7695208734181</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>266.2283383052756</v>
       </c>
       <c r="G23" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>301.5808821335967</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I24" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746316</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>134.9103283483173</v>
       </c>
       <c r="T24" t="n">
-        <v>125.2386709630915</v>
+        <v>192.1849784014749</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8111358846743</v>
+        <v>158.8648284462886</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>50.78148246621863</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>195.0916935772309</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2284975741443</v>
+        <v>69.11866231032943</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>8.39670656764388</v>
       </c>
       <c r="G26" t="n">
-        <v>409.7499208120707</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T26" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H27" t="n">
-        <v>93.11530261957644</v>
+        <v>47.40345196865379</v>
       </c>
       <c r="I27" t="n">
-        <v>21.23445678746313</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>134.9103283483173</v>
       </c>
       <c r="T27" t="n">
-        <v>125.2386709630915</v>
+        <v>192.1849784014749</v>
       </c>
       <c r="U27" t="n">
         <v>225.8111358846743</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>51.69871871479322</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>152.8676757105441</v>
       </c>
       <c r="U28" t="n">
         <v>286.2284975741443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>304.0790689663242</v>
       </c>
       <c r="C29" t="n">
-        <v>81.91405404585338</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.5868762114839</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2891,7 +2891,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I30" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746316</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>134.9103283483173</v>
+        <v>67.96402090993189</v>
       </c>
       <c r="T30" t="n">
         <v>192.1849784014749</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>85.95960627281623</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>129.5840247140675</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.91405404585338</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>109.9114509054344</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>78.12290495500028</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>135.3637749794424</v>
       </c>
       <c r="H33" t="n">
-        <v>93.11530261957644</v>
+        <v>47.4034519686529</v>
       </c>
       <c r="I33" t="n">
-        <v>21.23445678746313</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.3312300154376</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5372855934948</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>36.71940489975569</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>86.42781966763378</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.602611067468</v>
       </c>
       <c r="H35" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>67.82676469672089</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>108.5814751271134</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V35" t="n">
-        <v>34.78110910920396</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.821332998947</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3637749794424</v>
+        <v>89.6519243285188</v>
       </c>
       <c r="H36" t="n">
         <v>93.11530261957644</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>65.76094751569502</v>
+        <v>87.57962009176524</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5372855934948</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2284975741443</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>14.13018533260488</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.602611067468</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.5808821335967</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>103.9609583400375</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I39" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746316</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>134.9103283483173</v>
+        <v>67.96402090993189</v>
       </c>
       <c r="T39" t="n">
         <v>192.1849784014749</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>184.7486757225353</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.3312300154376</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U40" t="n">
         <v>286.2284975741443</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>100.118505851981</v>
       </c>
       <c r="X40" t="n">
-        <v>140.5192701607097</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>22.96555829178795</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.602611067468</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.82676469672089</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>30.04802372188885</v>
+        <v>124.7034381600318</v>
       </c>
       <c r="T41" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>93.11530261957644</v>
       </c>
       <c r="I42" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746316</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>67.96402090993415</v>
+        <v>67.96402090993099</v>
       </c>
       <c r="T42" t="n">
         <v>192.1849784014749</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>84.00085026941429</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>220.8539331444638</v>
       </c>
       <c r="U43" t="n">
-        <v>201.9641053696735</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>52.77358741959544</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.602611067468</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T44" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.0496427920231</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>361.6025821120061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>135.3637749794424</v>
       </c>
       <c r="H45" t="n">
-        <v>26.16899518119155</v>
+        <v>26.16899518118975</v>
       </c>
       <c r="I45" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746316</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>101.5220863761665</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.665025462782</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>195.0916935772309</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2284975741443</v>
+        <v>264.9146616999636</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1718.649368390181</v>
+        <v>1219.820965398795</v>
       </c>
       <c r="C11" t="n">
-        <v>1349.686851449769</v>
+        <v>1219.820965398795</v>
       </c>
       <c r="D11" t="n">
-        <v>1349.686851449769</v>
+        <v>1219.820965398795</v>
       </c>
       <c r="E11" t="n">
-        <v>963.8985988515251</v>
+        <v>834.0327128005508</v>
       </c>
       <c r="F11" t="n">
-        <v>552.9126940619176</v>
+        <v>423.0468080109433</v>
       </c>
       <c r="G11" t="n">
-        <v>137.1524808624549</v>
+        <v>423.0468080109433</v>
       </c>
       <c r="H11" t="n">
         <v>118.4196543406436</v>
@@ -5041,25 +5041,25 @@
         <v>49.90777080860229</v>
       </c>
       <c r="J11" t="n">
-        <v>181.5754963439895</v>
+        <v>181.5754963439899</v>
       </c>
       <c r="K11" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307159</v>
       </c>
       <c r="L11" t="n">
-        <v>774.3096803567475</v>
+        <v>774.3096803567482</v>
       </c>
       <c r="M11" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284631</v>
       </c>
       <c r="N11" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573628</v>
       </c>
       <c r="O11" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475431</v>
       </c>
       <c r="P11" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q11" t="n">
         <v>2478.714435577521</v>
@@ -5068,25 +5068,25 @@
         <v>2495.388540430115</v>
       </c>
       <c r="S11" t="n">
-        <v>2495.388540430115</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="T11" t="n">
-        <v>2495.388540430115</v>
+        <v>2160.4370412387</v>
       </c>
       <c r="U11" t="n">
-        <v>2495.388540430115</v>
+        <v>1996.560137438729</v>
       </c>
       <c r="V11" t="n">
-        <v>2495.388540430115</v>
+        <v>1996.560137438729</v>
       </c>
       <c r="W11" t="n">
-        <v>2495.388540430115</v>
+        <v>1996.560137438729</v>
       </c>
       <c r="X11" t="n">
-        <v>2495.388540430115</v>
+        <v>1996.560137438729</v>
       </c>
       <c r="Y11" t="n">
-        <v>2105.249208454303</v>
+        <v>1606.420805462917</v>
       </c>
     </row>
     <row r="12">
@@ -5123,34 +5123,34 @@
         <v>234.3404441532698</v>
       </c>
       <c r="K12" t="n">
-        <v>562.495500050155</v>
+        <v>676.1861020181203</v>
       </c>
       <c r="L12" t="n">
-        <v>850.8839686267396</v>
+        <v>964.5745705947049</v>
       </c>
       <c r="M12" t="n">
-        <v>1206.776577222586</v>
+        <v>1320.467179190551</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.497249092203</v>
+        <v>1700.187851060169</v>
       </c>
       <c r="O12" t="n">
-        <v>1911.647684199438</v>
+        <v>2025.338286167403</v>
       </c>
       <c r="P12" t="n">
-        <v>2153.276507898438</v>
+        <v>2266.967109866403</v>
       </c>
       <c r="Q12" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R12" t="n">
         <v>2495.388540430115</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.738014258465</v>
+        <v>2359.11548149242</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.611773448894</v>
+        <v>2164.98924068285</v>
       </c>
       <c r="U12" t="n">
         <v>2004.519716999729</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.312374126619</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="C13" t="n">
-        <v>640.3761911987121</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="D13" t="n">
-        <v>512.7221553388428</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="E13" t="n">
-        <v>364.8090617564496</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="F13" t="n">
         <v>217.9191142585393</v>
@@ -5223,28 +5223,28 @@
         <v>1610.934019636921</v>
       </c>
       <c r="R13" t="n">
-        <v>1610.934019636921</v>
+        <v>1591.805885928326</v>
       </c>
       <c r="S13" t="n">
-        <v>1610.934019636921</v>
+        <v>1394.743569183648</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.849238682917</v>
+        <v>1171.658788229644</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.72954416358</v>
+        <v>1171.658788229644</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.72954416358</v>
+        <v>916.974300023757</v>
       </c>
       <c r="W13" t="n">
-        <v>809.312374126619</v>
+        <v>627.5571299867963</v>
       </c>
       <c r="X13" t="n">
-        <v>809.312374126619</v>
+        <v>399.567579088779</v>
       </c>
       <c r="Y13" t="n">
-        <v>809.312374126619</v>
+        <v>399.567579088779</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>790.4777979619737</v>
+        <v>999.4662283048713</v>
       </c>
       <c r="C14" t="n">
-        <v>421.515281021562</v>
+        <v>630.5037113644596</v>
       </c>
       <c r="D14" t="n">
-        <v>63.24958241481147</v>
+        <v>272.2380127577091</v>
       </c>
       <c r="E14" t="n">
-        <v>63.24958241481147</v>
+        <v>272.2380127577091</v>
       </c>
       <c r="F14" t="n">
-        <v>63.24958241481147</v>
+        <v>272.2380127577091</v>
       </c>
       <c r="G14" t="n">
-        <v>49.90777080860229</v>
+        <v>272.2380127577091</v>
       </c>
       <c r="H14" t="n">
-        <v>49.90777080860229</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="I14" t="n">
         <v>49.90777080860229</v>
@@ -5308,22 +5308,22 @@
         <v>2369.425471581597</v>
       </c>
       <c r="T14" t="n">
-        <v>2160.4370412387</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="U14" t="n">
-        <v>1906.851543468979</v>
+        <v>2115.839973811877</v>
       </c>
       <c r="V14" t="n">
-        <v>1906.851543468979</v>
+        <v>2115.839973811877</v>
       </c>
       <c r="W14" t="n">
-        <v>1554.082888198865</v>
+        <v>1763.071318541763</v>
       </c>
       <c r="X14" t="n">
-        <v>1180.617129937785</v>
+        <v>1389.605560280683</v>
       </c>
       <c r="Y14" t="n">
-        <v>790.4777979619737</v>
+        <v>999.4662283048713</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>49.90777080860229</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6498421853045</v>
+        <v>109.510319166265</v>
       </c>
       <c r="K15" t="n">
-        <v>562.495500050155</v>
+        <v>551.3559770311156</v>
       </c>
       <c r="L15" t="n">
-        <v>850.8839686267396</v>
+        <v>839.7444456077001</v>
       </c>
       <c r="M15" t="n">
-        <v>1206.776577222586</v>
+        <v>1195.637054203546</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.497249092203</v>
+        <v>1575.357726073164</v>
       </c>
       <c r="O15" t="n">
-        <v>1911.647684199438</v>
+        <v>1934.179928607135</v>
       </c>
       <c r="P15" t="n">
-        <v>2153.276507898438</v>
+        <v>2175.808752306135</v>
       </c>
       <c r="Q15" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R15" t="n">
         <v>2495.388540430115</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197.8208643909954</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="C16" t="n">
-        <v>197.8208643909954</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="D16" t="n">
-        <v>197.8208643909954</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="E16" t="n">
         <v>49.90777080860229</v>
@@ -5463,25 +5463,25 @@
         <v>1610.934019636921</v>
       </c>
       <c r="S16" t="n">
-        <v>1610.934019636921</v>
+        <v>1413.871702892244</v>
       </c>
       <c r="T16" t="n">
-        <v>1479.824347194728</v>
+        <v>1190.78692193824</v>
       </c>
       <c r="U16" t="n">
-        <v>1190.70465267539</v>
+        <v>901.667227418902</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0201644695035</v>
+        <v>646.9827392130152</v>
       </c>
       <c r="W16" t="n">
-        <v>646.6029944325428</v>
+        <v>452.3488147823721</v>
       </c>
       <c r="X16" t="n">
-        <v>418.6134435345255</v>
+        <v>452.3488147823721</v>
       </c>
       <c r="Y16" t="n">
-        <v>197.8208643909954</v>
+        <v>231.556235638842</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1223.020000855294</v>
+        <v>1274.757494001135</v>
       </c>
       <c r="C17" t="n">
-        <v>854.0574839148828</v>
+        <v>1234.919587404423</v>
       </c>
       <c r="D17" t="n">
-        <v>495.7917853081323</v>
+        <v>876.6538887976726</v>
       </c>
       <c r="E17" t="n">
-        <v>495.7917853081323</v>
+        <v>876.6538887976726</v>
       </c>
       <c r="F17" t="n">
-        <v>495.7917853081323</v>
+        <v>465.667984008065</v>
       </c>
       <c r="G17" t="n">
-        <v>80.03157210866965</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H17" t="n">
         <v>49.90777080860229</v>
@@ -5515,13 +5515,13 @@
         <v>49.90777080860229</v>
       </c>
       <c r="J17" t="n">
-        <v>181.5754963439895</v>
+        <v>181.5754963439899</v>
       </c>
       <c r="K17" t="n">
-        <v>429.649803830715</v>
+        <v>429.6498038307154</v>
       </c>
       <c r="L17" t="n">
-        <v>774.3096803567475</v>
+        <v>774.309680356748</v>
       </c>
       <c r="M17" t="n">
         <v>1189.47963928463</v>
@@ -5533,7 +5533,7 @@
         <v>2005.37944447543</v>
       </c>
       <c r="P17" t="n">
-        <v>2303.220758926972</v>
+        <v>2303.220758926973</v>
       </c>
       <c r="Q17" t="n">
         <v>2478.714435577521</v>
@@ -5545,22 +5545,22 @@
         <v>2369.425471581597</v>
       </c>
       <c r="T17" t="n">
-        <v>2160.4370412387</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="U17" t="n">
-        <v>1906.851543468979</v>
+        <v>2369.425471581597</v>
       </c>
       <c r="V17" t="n">
-        <v>1575.788656125409</v>
+        <v>2038.362584238027</v>
       </c>
       <c r="W17" t="n">
-        <v>1223.020000855294</v>
+        <v>2038.362584238027</v>
       </c>
       <c r="X17" t="n">
-        <v>1223.020000855294</v>
+        <v>1664.896825976947</v>
       </c>
       <c r="Y17" t="n">
-        <v>1223.020000855294</v>
+        <v>1274.757494001135</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>863.6805832831849</v>
+        <v>909.854169799267</v>
       </c>
       <c r="C18" t="n">
-        <v>689.2275540020579</v>
+        <v>735.40114051814</v>
       </c>
       <c r="D18" t="n">
-        <v>540.2931443408066</v>
+        <v>586.4667308568887</v>
       </c>
       <c r="E18" t="n">
-        <v>381.0556893353511</v>
+        <v>427.2292758514333</v>
       </c>
       <c r="F18" t="n">
-        <v>234.5211313622361</v>
+        <v>280.6947178783183</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4125782904605</v>
+        <v>143.9636320404977</v>
       </c>
       <c r="H18" t="n">
-        <v>71.35671705856505</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I18" t="n">
         <v>49.90777080860229</v>
       </c>
       <c r="J18" t="n">
-        <v>109.510319166265</v>
+        <v>234.3404441532698</v>
       </c>
       <c r="K18" t="n">
-        <v>289.5353923886628</v>
+        <v>676.1861020181203</v>
       </c>
       <c r="L18" t="n">
-        <v>577.9238609652473</v>
+        <v>1081.392727892928</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.865100194241</v>
+        <v>1437.285336488774</v>
       </c>
       <c r="N18" t="n">
-        <v>1794.473763950694</v>
+        <v>1817.006008358391</v>
       </c>
       <c r="O18" t="n">
-        <v>2119.624199057928</v>
+        <v>2142.156443465626</v>
       </c>
       <c r="P18" t="n">
-        <v>2361.253022756928</v>
+        <v>2383.785267164626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430115</v>
       </c>
       <c r="R18" t="n">
         <v>2495.388540430115</v>
       </c>
       <c r="S18" t="n">
-        <v>2359.11548149242</v>
+        <v>2405.289068008502</v>
       </c>
       <c r="T18" t="n">
-        <v>2164.98924068285</v>
+        <v>2211.162827198932</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.897184233684</v>
+        <v>1983.070770749766</v>
       </c>
       <c r="V18" t="n">
-        <v>1701.745076001941</v>
+        <v>1747.918662518023</v>
       </c>
       <c r="W18" t="n">
-        <v>1447.50771927374</v>
+        <v>1493.681305789822</v>
       </c>
       <c r="X18" t="n">
-        <v>1239.656219068207</v>
+        <v>1285.829805584289</v>
       </c>
       <c r="Y18" t="n">
-        <v>1031.895920303253</v>
+        <v>1078.069506819335</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>549.7231159767186</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="C19" t="n">
-        <v>380.7869330488118</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="D19" t="n">
-        <v>305.4711825039934</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="E19" t="n">
-        <v>305.4711825039934</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="F19" t="n">
-        <v>305.4711825039934</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="G19" t="n">
-        <v>305.4711825039934</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="H19" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860229</v>
       </c>
       <c r="I19" t="n">
         <v>49.90777080860229</v>
@@ -5697,28 +5697,28 @@
         <v>1610.934019636921</v>
       </c>
       <c r="R19" t="n">
-        <v>1610.934019636921</v>
+        <v>1589.216208600229</v>
       </c>
       <c r="S19" t="n">
-        <v>1610.934019636921</v>
+        <v>1392.153891855551</v>
       </c>
       <c r="T19" t="n">
-        <v>1610.934019636921</v>
+        <v>1392.153891855551</v>
       </c>
       <c r="U19" t="n">
-        <v>1321.814325117584</v>
+        <v>1103.034197336213</v>
       </c>
       <c r="V19" t="n">
-        <v>1067.129836911697</v>
+        <v>848.3497091303265</v>
       </c>
       <c r="W19" t="n">
-        <v>777.712666874736</v>
+        <v>848.3497091303265</v>
       </c>
       <c r="X19" t="n">
-        <v>549.7231159767186</v>
+        <v>620.3601582323091</v>
       </c>
       <c r="Y19" t="n">
-        <v>549.7231159767186</v>
+        <v>399.567579088779</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1008.037914428373</v>
+        <v>1516.712211493167</v>
       </c>
       <c r="C20" t="n">
-        <v>1008.037914428373</v>
+        <v>1147.749694552755</v>
       </c>
       <c r="D20" t="n">
-        <v>1008.037914428373</v>
+        <v>1147.749694552755</v>
       </c>
       <c r="E20" t="n">
-        <v>622.2496618301284</v>
+        <v>761.9614419545107</v>
       </c>
       <c r="F20" t="n">
-        <v>211.2637570405208</v>
+        <v>350.9755371649032</v>
       </c>
       <c r="G20" t="n">
-        <v>49.90777080860229</v>
+        <v>350.9755371649032</v>
       </c>
       <c r="H20" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I20" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J20" t="n">
-        <v>181.5754963439898</v>
+        <v>181.5754963439896</v>
       </c>
       <c r="K20" t="n">
-        <v>429.6498038307157</v>
+        <v>429.6498038307154</v>
       </c>
       <c r="L20" t="n">
-        <v>774.309680356748</v>
+        <v>774.3096803567475</v>
       </c>
       <c r="M20" t="n">
         <v>1189.47963928463</v>
@@ -5767,37 +5767,37 @@
         <v>1615.981290573627</v>
       </c>
       <c r="O20" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P20" t="n">
-        <v>2303.220758926973</v>
+        <v>2303.220758926972</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R20" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S20" t="n">
-        <v>2369.425471581597</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="T20" t="n">
-        <v>2369.425471581597</v>
+        <v>2160.437041238699</v>
       </c>
       <c r="U20" t="n">
-        <v>2115.839973811877</v>
+        <v>1906.851543468978</v>
       </c>
       <c r="V20" t="n">
-        <v>1784.777086468306</v>
+        <v>1906.851543468978</v>
       </c>
       <c r="W20" t="n">
-        <v>1784.777086468306</v>
+        <v>1906.851543468978</v>
       </c>
       <c r="X20" t="n">
-        <v>1784.777086468306</v>
+        <v>1906.851543468978</v>
       </c>
       <c r="Y20" t="n">
-        <v>1394.637754492494</v>
+        <v>1516.712211493167</v>
       </c>
     </row>
     <row r="21">
@@ -5822,46 +5822,46 @@
         <v>302.143664128281</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4125782904605</v>
+        <v>165.4125782904604</v>
       </c>
       <c r="H21" t="n">
-        <v>71.35671705856505</v>
+        <v>71.35671705856504</v>
       </c>
       <c r="I21" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J21" t="n">
-        <v>234.3404441532698</v>
+        <v>109.510319166265</v>
       </c>
       <c r="K21" t="n">
-        <v>562.4955000501549</v>
+        <v>289.5353923886628</v>
       </c>
       <c r="L21" t="n">
-        <v>850.8839686267395</v>
+        <v>788.9344992437082</v>
       </c>
       <c r="M21" t="n">
-        <v>1206.776577222586</v>
+        <v>1144.827107839554</v>
       </c>
       <c r="N21" t="n">
-        <v>1586.497249092203</v>
+        <v>1524.547779709172</v>
       </c>
       <c r="O21" t="n">
-        <v>1911.647684199438</v>
+        <v>2142.156443465625</v>
       </c>
       <c r="P21" t="n">
-        <v>2153.276507898438</v>
+        <v>2383.785267164625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2472.856296022417</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S21" t="n">
-        <v>2359.11548149242</v>
+        <v>2426.738014258465</v>
       </c>
       <c r="T21" t="n">
-        <v>2164.98924068285</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U21" t="n">
         <v>2004.519716999729</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>196.7977183065126</v>
+        <v>512.7221553388428</v>
       </c>
       <c r="C22" t="n">
-        <v>196.7977183065126</v>
+        <v>512.7221553388428</v>
       </c>
       <c r="D22" t="n">
-        <v>196.7977183065126</v>
+        <v>512.7221553388428</v>
       </c>
       <c r="E22" t="n">
-        <v>196.7977183065126</v>
+        <v>364.8090617564496</v>
       </c>
       <c r="F22" t="n">
-        <v>49.90777080860229</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="G22" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H22" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I22" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J22" t="n">
-        <v>73.65301825917585</v>
+        <v>73.65301825917581</v>
       </c>
       <c r="K22" t="n">
-        <v>242.5105907858449</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L22" t="n">
-        <v>514.1165825954695</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M22" t="n">
-        <v>810.8761420831154</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N22" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O22" t="n">
         <v>1362.605360660763</v>
@@ -5931,31 +5931,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q22" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R22" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S22" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="T22" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="U22" t="n">
-        <v>1371.329971421147</v>
+        <v>1321.814325117583</v>
       </c>
       <c r="V22" t="n">
-        <v>1116.64548321526</v>
+        <v>1067.129836911696</v>
       </c>
       <c r="W22" t="n">
-        <v>827.2283131782998</v>
+        <v>777.7126668747358</v>
       </c>
       <c r="X22" t="n">
-        <v>599.2387622802825</v>
+        <v>549.7231159767184</v>
       </c>
       <c r="Y22" t="n">
-        <v>378.4461831367523</v>
+        <v>512.7221553388428</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2142.619885160001</v>
+        <v>992.414954858986</v>
       </c>
       <c r="C23" t="n">
-        <v>1773.657368219589</v>
+        <v>623.4524379185743</v>
       </c>
       <c r="D23" t="n">
-        <v>1415.391669612839</v>
+        <v>623.4524379185743</v>
       </c>
       <c r="E23" t="n">
-        <v>1181.281042467972</v>
+        <v>623.4524379185743</v>
       </c>
       <c r="F23" t="n">
-        <v>770.2951376783647</v>
+        <v>354.534924478902</v>
       </c>
       <c r="G23" t="n">
         <v>354.534924478902</v>
       </c>
       <c r="H23" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I23" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J23" t="n">
         <v>181.5754963439895</v>
       </c>
       <c r="K23" t="n">
-        <v>429.6498038307155</v>
+        <v>429.649803830715</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3096803567482</v>
+        <v>774.3096803567475</v>
       </c>
       <c r="M23" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.479639284629</v>
       </c>
       <c r="N23" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573626</v>
       </c>
       <c r="O23" t="n">
-        <v>2005.379444475431</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.220758926974</v>
+        <v>2303.220758926971</v>
       </c>
       <c r="Q23" t="n">
-        <v>2478.714435577522</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R23" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S23" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="T23" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="U23" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="V23" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="W23" t="n">
-        <v>2142.619885160001</v>
+        <v>2142.619885159999</v>
       </c>
       <c r="X23" t="n">
-        <v>2142.619885160001</v>
+        <v>1769.154126898919</v>
       </c>
       <c r="Y23" t="n">
-        <v>2142.619885160001</v>
+        <v>1379.014794923108</v>
       </c>
     </row>
     <row r="24">
@@ -6065,40 +6065,40 @@
         <v>71.35671705856507</v>
       </c>
       <c r="I24" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J24" t="n">
-        <v>109.5103191662651</v>
+        <v>234.3404441532697</v>
       </c>
       <c r="K24" t="n">
-        <v>289.5353923886628</v>
+        <v>585.0277444578524</v>
       </c>
       <c r="L24" t="n">
-        <v>766.1145869393906</v>
+        <v>873.4162130344369</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.007195535237</v>
+        <v>1229.308821630283</v>
       </c>
       <c r="N24" t="n">
-        <v>1501.727867404855</v>
+        <v>1609.0294934999</v>
       </c>
       <c r="O24" t="n">
-        <v>1826.878302512089</v>
+        <v>1934.179928607134</v>
       </c>
       <c r="P24" t="n">
-        <v>2383.785267164626</v>
+        <v>2175.808752306134</v>
       </c>
       <c r="Q24" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S24" t="n">
-        <v>2359.115481492421</v>
+        <v>2359.115481492419</v>
       </c>
       <c r="T24" t="n">
-        <v>2232.611773448894</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U24" t="n">
         <v>2004.519716999729</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.2021975421565</v>
+        <v>833.8451230952583</v>
       </c>
       <c r="C25" t="n">
-        <v>101.2021975421565</v>
+        <v>664.9089401673514</v>
       </c>
       <c r="D25" t="n">
-        <v>101.2021975421565</v>
+        <v>514.7923007550156</v>
       </c>
       <c r="E25" t="n">
-        <v>101.2021975421565</v>
+        <v>366.8792071726225</v>
       </c>
       <c r="F25" t="n">
-        <v>101.2021975421565</v>
+        <v>366.8792071726225</v>
       </c>
       <c r="G25" t="n">
-        <v>49.90777080860231</v>
+        <v>198.8678637226855</v>
       </c>
       <c r="H25" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I25" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J25" t="n">
-        <v>73.65301825917587</v>
+        <v>73.65301825917579</v>
       </c>
       <c r="K25" t="n">
-        <v>242.5105907858449</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L25" t="n">
-        <v>514.1165825954695</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M25" t="n">
-        <v>810.8761420831154</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O25" t="n">
         <v>1362.605360660763</v>
@@ -6168,31 +6168,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q25" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R25" t="n">
-        <v>1507.23197371492</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S25" t="n">
-        <v>1310.169656970242</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="T25" t="n">
-        <v>1310.169656970242</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="U25" t="n">
-        <v>1021.049962450904</v>
+        <v>1344.054872275749</v>
       </c>
       <c r="V25" t="n">
-        <v>1021.049962450904</v>
+        <v>1344.054872275749</v>
       </c>
       <c r="W25" t="n">
-        <v>731.6327924139437</v>
+        <v>1054.637702238788</v>
       </c>
       <c r="X25" t="n">
-        <v>503.6432415159263</v>
+        <v>1054.637702238788</v>
       </c>
       <c r="Y25" t="n">
-        <v>282.8506623723962</v>
+        <v>833.8451230952583</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1565.197890767835</v>
+        <v>1239.917644271549</v>
       </c>
       <c r="C26" t="n">
-        <v>1565.197890767835</v>
+        <v>870.9551273311372</v>
       </c>
       <c r="D26" t="n">
-        <v>1565.197890767835</v>
+        <v>512.6894287243867</v>
       </c>
       <c r="E26" t="n">
-        <v>1179.409638169591</v>
+        <v>126.9011761261425</v>
       </c>
       <c r="F26" t="n">
-        <v>768.4237333799836</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="G26" t="n">
-        <v>354.534924478902</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90777080860231</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="I26" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J26" t="n">
-        <v>181.5754963439903</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K26" t="n">
-        <v>429.6498038307162</v>
+        <v>429.6498038307152</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3096803567489</v>
+        <v>774.3096803567477</v>
       </c>
       <c r="M26" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.47963928463</v>
       </c>
       <c r="N26" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573627</v>
       </c>
       <c r="O26" t="n">
-        <v>2005.379444475431</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P26" t="n">
-        <v>2303.220758926974</v>
+        <v>2303.220758926972</v>
       </c>
       <c r="Q26" t="n">
-        <v>2478.714435577522</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R26" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S26" t="n">
-        <v>2495.388540430115</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="T26" t="n">
-        <v>2286.400110087218</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="U26" t="n">
-        <v>2286.400110087218</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="V26" t="n">
-        <v>1955.337222743647</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="W26" t="n">
-        <v>1955.337222743647</v>
+        <v>2016.656816311482</v>
       </c>
       <c r="X26" t="n">
-        <v>1955.337222743647</v>
+        <v>2016.656816311482</v>
       </c>
       <c r="Y26" t="n">
-        <v>1565.197890767835</v>
+        <v>1626.517484335671</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3031160492297</v>
+        <v>863.6805832831835</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8500867681028</v>
+        <v>689.2275540020565</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9156771068515</v>
+        <v>540.2931443408053</v>
       </c>
       <c r="E27" t="n">
-        <v>448.678222101396</v>
+        <v>381.0556893353498</v>
       </c>
       <c r="F27" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622347</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4125782904605</v>
+        <v>97.79004552441418</v>
       </c>
       <c r="H27" t="n">
-        <v>71.35671705856507</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I27" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J27" t="n">
-        <v>109.5103191662651</v>
+        <v>234.3404441532697</v>
       </c>
       <c r="K27" t="n">
-        <v>551.3559770311157</v>
+        <v>585.0277444578524</v>
       </c>
       <c r="L27" t="n">
-        <v>839.7444456077003</v>
+        <v>873.4162130344369</v>
       </c>
       <c r="M27" t="n">
-        <v>1195.637054203547</v>
+        <v>1229.308821630283</v>
       </c>
       <c r="N27" t="n">
-        <v>1575.357726073164</v>
+        <v>1609.0294934999</v>
       </c>
       <c r="O27" t="n">
-        <v>1900.508161180398</v>
+        <v>1934.179928607134</v>
       </c>
       <c r="P27" t="n">
-        <v>2175.808752306136</v>
+        <v>2175.808752306134</v>
       </c>
       <c r="Q27" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R27" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S27" t="n">
-        <v>2359.115481492421</v>
+        <v>2359.115481492419</v>
       </c>
       <c r="T27" t="n">
-        <v>2232.611773448894</v>
+        <v>2164.989240682849</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.519716999729</v>
+        <v>1936.897184233683</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.367608767986</v>
+        <v>1701.74507600194</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.130252039784</v>
+        <v>1447.507719273738</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.278751834252</v>
+        <v>1239.656219068205</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.518453069298</v>
+        <v>1031.895920303252</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>399.0018852998193</v>
+        <v>536.9719365987819</v>
       </c>
       <c r="C28" t="n">
-        <v>346.7809573050786</v>
+        <v>368.035753670875</v>
       </c>
       <c r="D28" t="n">
-        <v>346.7809573050786</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="E28" t="n">
-        <v>198.8678637226855</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="F28" t="n">
-        <v>198.8678637226855</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="G28" t="n">
-        <v>198.8678637226855</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H28" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I28" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J28" t="n">
-        <v>73.65301825917587</v>
+        <v>73.65301825917579</v>
       </c>
       <c r="K28" t="n">
-        <v>242.5105907858449</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L28" t="n">
-        <v>514.1165825954695</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M28" t="n">
-        <v>810.8761420831154</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O28" t="n">
         <v>1362.605360660763</v>
@@ -6405,31 +6405,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q28" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.871702892244</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="T28" t="n">
-        <v>1413.871702892244</v>
+        <v>1456.522225989907</v>
       </c>
       <c r="U28" t="n">
-        <v>1124.752008372906</v>
+        <v>1167.402531470569</v>
       </c>
       <c r="V28" t="n">
-        <v>870.0675201670196</v>
+        <v>1167.402531470569</v>
       </c>
       <c r="W28" t="n">
-        <v>580.650350130059</v>
+        <v>1167.402531470569</v>
       </c>
       <c r="X28" t="n">
-        <v>580.650350130059</v>
+        <v>939.4129805725518</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.650350130059</v>
+        <v>718.6204014290216</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1345.183610129102</v>
+        <v>1215.644445136866</v>
       </c>
       <c r="C29" t="n">
-        <v>1262.442141395917</v>
+        <v>846.681928196454</v>
       </c>
       <c r="D29" t="n">
-        <v>1262.442141395917</v>
+        <v>846.681928196454</v>
       </c>
       <c r="E29" t="n">
-        <v>876.6538887976726</v>
+        <v>460.8936755982098</v>
       </c>
       <c r="F29" t="n">
-        <v>465.667984008065</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="G29" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I29" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J29" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K29" t="n">
-        <v>429.6498038307155</v>
+        <v>429.6498038307152</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3096803567482</v>
+        <v>774.3096803567477</v>
       </c>
       <c r="M29" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.47963928463</v>
       </c>
       <c r="N29" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573627</v>
       </c>
       <c r="O29" t="n">
-        <v>2005.379444475431</v>
+        <v>2005.37944447543</v>
       </c>
       <c r="P29" t="n">
-        <v>2303.220758926974</v>
+        <v>2303.220758926972</v>
       </c>
       <c r="Q29" t="n">
-        <v>2478.714435577522</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R29" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S29" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="T29" t="n">
-        <v>2495.388540430115</v>
+        <v>2286.400110087216</v>
       </c>
       <c r="U29" t="n">
-        <v>2495.388540430115</v>
+        <v>2286.400110087216</v>
       </c>
       <c r="V29" t="n">
-        <v>2495.388540430115</v>
+        <v>2286.400110087216</v>
       </c>
       <c r="W29" t="n">
-        <v>2495.388540430115</v>
+        <v>2286.400110087216</v>
       </c>
       <c r="X29" t="n">
-        <v>2121.922782169036</v>
+        <v>1912.934351826136</v>
       </c>
       <c r="Y29" t="n">
-        <v>1731.783450193224</v>
+        <v>1522.795019850324</v>
       </c>
     </row>
     <row r="30">
@@ -6539,55 +6539,55 @@
         <v>71.35671705856507</v>
       </c>
       <c r="I30" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J30" t="n">
-        <v>109.5103191662651</v>
+        <v>234.3404441532697</v>
       </c>
       <c r="K30" t="n">
-        <v>289.5353923886628</v>
+        <v>676.1861020181202</v>
       </c>
       <c r="L30" t="n">
-        <v>907.1440561451163</v>
+        <v>964.5745705947047</v>
       </c>
       <c r="M30" t="n">
-        <v>1263.036664740963</v>
+        <v>1320.467179190551</v>
       </c>
       <c r="N30" t="n">
-        <v>1642.75733661058</v>
+        <v>1700.187851060168</v>
       </c>
       <c r="O30" t="n">
-        <v>2142.156443465627</v>
+        <v>2025.338286167402</v>
       </c>
       <c r="P30" t="n">
-        <v>2383.785267164626</v>
+        <v>2266.967109866402</v>
       </c>
       <c r="Q30" t="n">
-        <v>2495.388540430115</v>
+        <v>2472.856296022416</v>
       </c>
       <c r="R30" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S30" t="n">
-        <v>2359.115481492421</v>
+        <v>2426.738014258465</v>
       </c>
       <c r="T30" t="n">
-        <v>2164.989240682851</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U30" t="n">
-        <v>1936.897184233685</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V30" t="n">
-        <v>1701.745076001942</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W30" t="n">
-        <v>1447.507719273741</v>
+        <v>1515.130252039784</v>
       </c>
       <c r="X30" t="n">
-        <v>1239.656219068208</v>
+        <v>1307.278751834252</v>
       </c>
       <c r="Y30" t="n">
-        <v>1031.895920303254</v>
+        <v>1099.518453069298</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>305.671838860566</v>
+        <v>368.035753670875</v>
       </c>
       <c r="C31" t="n">
-        <v>136.7356559326591</v>
+        <v>368.035753670875</v>
       </c>
       <c r="D31" t="n">
-        <v>136.7356559326591</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="E31" t="n">
-        <v>136.7356559326591</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="F31" t="n">
-        <v>49.90777080860231</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="G31" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H31" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J31" t="n">
-        <v>73.65301825917587</v>
+        <v>73.65301825917579</v>
       </c>
       <c r="K31" t="n">
-        <v>242.5105907858449</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L31" t="n">
-        <v>514.1165825954695</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M31" t="n">
-        <v>810.8761420831154</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N31" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O31" t="n">
         <v>1362.605360660763</v>
@@ -6642,31 +6642,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q31" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.871702892244</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="T31" t="n">
-        <v>1190.78692193824</v>
+        <v>1190.786921938239</v>
       </c>
       <c r="U31" t="n">
-        <v>1190.78692193824</v>
+        <v>1190.786921938239</v>
       </c>
       <c r="V31" t="n">
-        <v>936.1024337323532</v>
+        <v>1059.893967681606</v>
       </c>
       <c r="W31" t="n">
-        <v>936.1024337323532</v>
+        <v>770.4767976446449</v>
       </c>
       <c r="X31" t="n">
-        <v>708.1128828343359</v>
+        <v>770.4767976446449</v>
       </c>
       <c r="Y31" t="n">
-        <v>487.3203036908058</v>
+        <v>549.6842185011147</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1262.442141395917</v>
+        <v>777.1359863557645</v>
       </c>
       <c r="C32" t="n">
-        <v>1262.442141395917</v>
+        <v>408.1734694153528</v>
       </c>
       <c r="D32" t="n">
-        <v>1262.442141395917</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="E32" t="n">
-        <v>876.6538887976726</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="F32" t="n">
-        <v>465.667984008065</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="G32" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I32" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J32" t="n">
-        <v>181.5754963439896</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K32" t="n">
-        <v>429.6498038307155</v>
+        <v>429.6498038307153</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3096803567482</v>
+        <v>774.3096803567471</v>
       </c>
       <c r="M32" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.479639284629</v>
       </c>
       <c r="N32" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573626</v>
       </c>
       <c r="O32" t="n">
-        <v>2005.379444475431</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P32" t="n">
-        <v>2303.220758926973</v>
+        <v>2303.220758926971</v>
       </c>
       <c r="Q32" t="n">
-        <v>2478.714435577522</v>
+        <v>2478.714435577519</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S32" t="n">
-        <v>2412.64707169693</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="T32" t="n">
-        <v>2412.64707169693</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="U32" t="n">
-        <v>2412.64707169693</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="V32" t="n">
-        <v>2412.64707169693</v>
+        <v>2038.362584238025</v>
       </c>
       <c r="W32" t="n">
-        <v>2412.64707169693</v>
+        <v>1927.340916656778</v>
       </c>
       <c r="X32" t="n">
-        <v>2039.18131343585</v>
+        <v>1553.875158395698</v>
       </c>
       <c r="Y32" t="n">
-        <v>1649.041981460039</v>
+        <v>1163.735826419886</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>863.6805832831858</v>
+        <v>863.6805832831826</v>
       </c>
       <c r="C33" t="n">
-        <v>689.2275540020588</v>
+        <v>689.2275540020556</v>
       </c>
       <c r="D33" t="n">
-        <v>540.2931443408075</v>
+        <v>540.2931443408044</v>
       </c>
       <c r="E33" t="n">
-        <v>381.055689335352</v>
+        <v>381.0556893353489</v>
       </c>
       <c r="F33" t="n">
-        <v>302.143664128281</v>
+        <v>234.5211313622338</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4125782904605</v>
+        <v>97.79004552441327</v>
       </c>
       <c r="H33" t="n">
-        <v>71.35671705856507</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I33" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J33" t="n">
-        <v>109.5103191662651</v>
+        <v>234.3404441532697</v>
       </c>
       <c r="K33" t="n">
-        <v>289.5353923886628</v>
+        <v>585.0277444578514</v>
       </c>
       <c r="L33" t="n">
-        <v>766.1145869393906</v>
+        <v>873.4162130344359</v>
       </c>
       <c r="M33" t="n">
-        <v>1122.007195535237</v>
+        <v>1229.308821630282</v>
       </c>
       <c r="N33" t="n">
-        <v>1501.727867404855</v>
+        <v>1609.029493499899</v>
       </c>
       <c r="O33" t="n">
-        <v>1826.878302512089</v>
+        <v>1934.179928607133</v>
       </c>
       <c r="P33" t="n">
-        <v>2383.785267164626</v>
+        <v>2175.808752306133</v>
       </c>
       <c r="Q33" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="R33" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S33" t="n">
-        <v>2359.115481492421</v>
+        <v>2359.115481492418</v>
       </c>
       <c r="T33" t="n">
-        <v>2164.989240682851</v>
+        <v>2164.989240682848</v>
       </c>
       <c r="U33" t="n">
-        <v>1936.897184233685</v>
+        <v>1936.897184233682</v>
       </c>
       <c r="V33" t="n">
-        <v>1701.745076001942</v>
+        <v>1701.745076001939</v>
       </c>
       <c r="W33" t="n">
-        <v>1447.507719273741</v>
+        <v>1447.507719273737</v>
       </c>
       <c r="X33" t="n">
-        <v>1239.656219068208</v>
+        <v>1239.656219068205</v>
       </c>
       <c r="Y33" t="n">
-        <v>1031.895920303254</v>
+        <v>1031.895920303251</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>940.4484418765661</v>
+        <v>831.7749776790854</v>
       </c>
       <c r="C34" t="n">
-        <v>771.5122589486592</v>
+        <v>662.8387947511785</v>
       </c>
       <c r="D34" t="n">
-        <v>621.3956195363235</v>
+        <v>512.7221553388428</v>
       </c>
       <c r="E34" t="n">
-        <v>473.4825259539304</v>
+        <v>364.8090617564496</v>
       </c>
       <c r="F34" t="n">
-        <v>473.4825259539304</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="G34" t="n">
-        <v>305.4711825039934</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="H34" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I34" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J34" t="n">
-        <v>73.65301825917587</v>
+        <v>73.65301825917578</v>
       </c>
       <c r="K34" t="n">
-        <v>242.5105907858449</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L34" t="n">
-        <v>514.1165825954695</v>
+        <v>514.1165825954691</v>
       </c>
       <c r="M34" t="n">
-        <v>810.8761420831154</v>
+        <v>810.8761420831149</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.605360660763</v>
+        <v>1362.605360660762</v>
       </c>
       <c r="P34" t="n">
         <v>1558.642881668988</v>
       </c>
       <c r="Q34" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R34" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.871702892244</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="T34" t="n">
-        <v>1413.871702892244</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="U34" t="n">
-        <v>1413.871702892244</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="V34" t="n">
-        <v>1159.187214686357</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="W34" t="n">
-        <v>1122.096906706806</v>
+        <v>1321.51684959996</v>
       </c>
       <c r="X34" t="n">
-        <v>1122.096906706806</v>
+        <v>1234.216021652855</v>
       </c>
       <c r="Y34" t="n">
-        <v>1122.096906706806</v>
+        <v>1013.423442509325</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1608.058624606764</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="C35" t="n">
-        <v>1608.058624606764</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="D35" t="n">
-        <v>1249.792926000013</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="E35" t="n">
-        <v>1249.792926000013</v>
+        <v>876.6538887976725</v>
       </c>
       <c r="F35" t="n">
-        <v>838.807021210406</v>
+        <v>465.6679840080649</v>
       </c>
       <c r="G35" t="n">
-        <v>423.0468080109433</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="H35" t="n">
-        <v>118.4196543406436</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I35" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J35" t="n">
         <v>181.5754963439895</v>
       </c>
       <c r="K35" t="n">
-        <v>429.6498038307155</v>
+        <v>429.6498038307153</v>
       </c>
       <c r="L35" t="n">
-        <v>774.3096803567482</v>
+        <v>774.3096803567475</v>
       </c>
       <c r="M35" t="n">
-        <v>1189.479639284631</v>
+        <v>1189.479639284629</v>
       </c>
       <c r="N35" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573626</v>
       </c>
       <c r="O35" t="n">
-        <v>2005.379444475431</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P35" t="n">
-        <v>2303.220758926974</v>
+        <v>2303.220758926971</v>
       </c>
       <c r="Q35" t="n">
-        <v>2478.714435577522</v>
+        <v>2478.714435577519</v>
       </c>
       <c r="R35" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S35" t="n">
-        <v>2369.425471581598</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="T35" t="n">
-        <v>2369.425471581598</v>
+        <v>2259.747213877441</v>
       </c>
       <c r="U35" t="n">
-        <v>2369.425471581598</v>
+        <v>2006.16171610772</v>
       </c>
       <c r="V35" t="n">
-        <v>2334.293038137958</v>
+        <v>2006.16171610772</v>
       </c>
       <c r="W35" t="n">
-        <v>1981.524382867844</v>
+        <v>1653.393060837606</v>
       </c>
       <c r="X35" t="n">
-        <v>1608.058624606764</v>
+        <v>1653.393060837606</v>
       </c>
       <c r="Y35" t="n">
-        <v>1608.058624606764</v>
+        <v>1263.253728861794</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>909.854169799267</v>
+        <v>863.6805832831826</v>
       </c>
       <c r="C36" t="n">
-        <v>735.40114051814</v>
+        <v>689.2275540020556</v>
       </c>
       <c r="D36" t="n">
-        <v>586.4667308568887</v>
+        <v>540.2931443408044</v>
       </c>
       <c r="E36" t="n">
-        <v>427.2292758514333</v>
+        <v>381.0556893353489</v>
       </c>
       <c r="F36" t="n">
-        <v>280.6947178783183</v>
+        <v>234.5211313622338</v>
       </c>
       <c r="G36" t="n">
         <v>143.9636320404977</v>
       </c>
       <c r="H36" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I36" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J36" t="n">
-        <v>109.5103191662651</v>
+        <v>143.182086593001</v>
       </c>
       <c r="K36" t="n">
-        <v>289.5353923886628</v>
+        <v>585.0277444578514</v>
       </c>
       <c r="L36" t="n">
-        <v>907.1440561451163</v>
+        <v>873.4162130344359</v>
       </c>
       <c r="M36" t="n">
-        <v>1263.036664740963</v>
+        <v>1229.308821630282</v>
       </c>
       <c r="N36" t="n">
-        <v>1642.75733661058</v>
+        <v>1609.029493499899</v>
       </c>
       <c r="O36" t="n">
-        <v>1967.907771717815</v>
+        <v>1934.179928607133</v>
       </c>
       <c r="P36" t="n">
-        <v>2383.785267164626</v>
+        <v>2175.808752306133</v>
       </c>
       <c r="Q36" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S36" t="n">
-        <v>2359.115481492421</v>
+        <v>2359.115481492418</v>
       </c>
       <c r="T36" t="n">
-        <v>2164.989240682851</v>
+        <v>2164.989240682848</v>
       </c>
       <c r="U36" t="n">
-        <v>1936.897184233685</v>
+        <v>1936.897184233682</v>
       </c>
       <c r="V36" t="n">
-        <v>1701.745076001942</v>
+        <v>1701.745076001939</v>
       </c>
       <c r="W36" t="n">
-        <v>1447.507719273741</v>
+        <v>1447.507719273737</v>
       </c>
       <c r="X36" t="n">
-        <v>1239.656219068208</v>
+        <v>1239.656219068205</v>
       </c>
       <c r="Y36" t="n">
-        <v>1031.895920303254</v>
+        <v>1031.895920303251</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>222.9362891007133</v>
+        <v>436.4017665222859</v>
       </c>
       <c r="C37" t="n">
-        <v>222.9362891007133</v>
+        <v>436.4017665222859</v>
       </c>
       <c r="D37" t="n">
-        <v>222.9362891007133</v>
+        <v>286.2851271099502</v>
       </c>
       <c r="E37" t="n">
-        <v>222.9362891007133</v>
+        <v>138.3720335275571</v>
       </c>
       <c r="F37" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="G37" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="H37" t="n">
-        <v>156.5110895899102</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I37" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J37" t="n">
-        <v>73.65301825917587</v>
+        <v>73.65301825917578</v>
       </c>
       <c r="K37" t="n">
-        <v>242.5105907858449</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L37" t="n">
-        <v>514.1165825954695</v>
+        <v>514.1165825954691</v>
       </c>
       <c r="M37" t="n">
-        <v>810.8761420831154</v>
+        <v>810.8761420831149</v>
       </c>
       <c r="N37" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O37" t="n">
-        <v>1362.605360660763</v>
+        <v>1362.605360660762</v>
       </c>
       <c r="P37" t="n">
         <v>1558.642881668988</v>
       </c>
       <c r="Q37" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R37" t="n">
-        <v>1507.23197371492</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S37" t="n">
-        <v>1507.23197371492</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="T37" t="n">
-        <v>1284.147192760916</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="U37" t="n">
-        <v>995.0274982415781</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="V37" t="n">
-        <v>740.3430100356912</v>
+        <v>1356.249531431034</v>
       </c>
       <c r="W37" t="n">
-        <v>450.9258399987306</v>
+        <v>1066.832361394073</v>
       </c>
       <c r="X37" t="n">
-        <v>222.9362891007133</v>
+        <v>838.8428104960558</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.9362891007133</v>
+        <v>618.0502313525257</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1525.045907217021</v>
+        <v>1219.220541280583</v>
       </c>
       <c r="C38" t="n">
-        <v>1156.083390276609</v>
+        <v>1204.947626803204</v>
       </c>
       <c r="D38" t="n">
-        <v>1156.083390276609</v>
+        <v>846.681928196454</v>
       </c>
       <c r="E38" t="n">
-        <v>770.2951376783647</v>
+        <v>460.8936755982098</v>
       </c>
       <c r="F38" t="n">
-        <v>770.2951376783647</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="G38" t="n">
-        <v>354.534924478902</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H38" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I38" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J38" t="n">
-        <v>181.5754963439898</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K38" t="n">
-        <v>429.6498038307157</v>
+        <v>429.649803830715</v>
       </c>
       <c r="L38" t="n">
-        <v>774.3096803567482</v>
+        <v>774.3096803567475</v>
       </c>
       <c r="M38" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284629</v>
       </c>
       <c r="N38" t="n">
-        <v>1615.981290573628</v>
+        <v>1615.981290573626</v>
       </c>
       <c r="O38" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P38" t="n">
-        <v>2303.220758926973</v>
+        <v>2303.220758926971</v>
       </c>
       <c r="Q38" t="n">
-        <v>2478.714435577521</v>
+        <v>2478.71443557752</v>
       </c>
       <c r="R38" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S38" t="n">
-        <v>2369.425471581597</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="T38" t="n">
-        <v>2369.425471581597</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="U38" t="n">
-        <v>2369.425471581597</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="V38" t="n">
-        <v>2369.425471581597</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="W38" t="n">
-        <v>2016.656816311483</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="X38" t="n">
-        <v>2016.656816311483</v>
+        <v>1995.959713320517</v>
       </c>
       <c r="Y38" t="n">
-        <v>1911.645747281142</v>
+        <v>1605.820381344705</v>
       </c>
     </row>
     <row r="39">
@@ -7247,49 +7247,49 @@
         <v>165.4125782904605</v>
       </c>
       <c r="H39" t="n">
-        <v>71.35671705856505</v>
+        <v>71.35671705856507</v>
       </c>
       <c r="I39" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J39" t="n">
-        <v>234.3404441532698</v>
+        <v>234.3404441532697</v>
       </c>
       <c r="K39" t="n">
-        <v>585.0277444578522</v>
+        <v>676.1861020181202</v>
       </c>
       <c r="L39" t="n">
-        <v>873.4162130344369</v>
+        <v>964.5745705947047</v>
       </c>
       <c r="M39" t="n">
-        <v>1229.308821630283</v>
+        <v>1320.467179190551</v>
       </c>
       <c r="N39" t="n">
-        <v>1609.029493499901</v>
+        <v>1700.187851060168</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.179928607135</v>
+        <v>2025.338286167402</v>
       </c>
       <c r="P39" t="n">
-        <v>2175.808752306135</v>
+        <v>2266.967109866402</v>
       </c>
       <c r="Q39" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430114</v>
       </c>
       <c r="S39" t="n">
-        <v>2359.11548149242</v>
+        <v>2426.738014258465</v>
       </c>
       <c r="T39" t="n">
-        <v>2164.98924068285</v>
+        <v>2232.611773448894</v>
       </c>
       <c r="U39" t="n">
-        <v>1936.897184233684</v>
+        <v>2004.519716999729</v>
       </c>
       <c r="V39" t="n">
-        <v>1701.745076001941</v>
+        <v>1769.367608767986</v>
       </c>
       <c r="W39" t="n">
         <v>1515.130252039784</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.9191142585393</v>
+        <v>514.9257011687854</v>
       </c>
       <c r="C40" t="n">
-        <v>217.9191142585393</v>
+        <v>514.9257011687854</v>
       </c>
       <c r="D40" t="n">
-        <v>217.9191142585393</v>
+        <v>364.8090617564496</v>
       </c>
       <c r="E40" t="n">
-        <v>217.9191142585393</v>
+        <v>364.8090617564496</v>
       </c>
       <c r="F40" t="n">
         <v>217.9191142585393</v>
       </c>
       <c r="G40" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="H40" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="I40" t="n">
-        <v>49.90777080860229</v>
+        <v>49.90777080860227</v>
       </c>
       <c r="J40" t="n">
-        <v>73.65301825917585</v>
+        <v>73.65301825917579</v>
       </c>
       <c r="K40" t="n">
-        <v>242.5105907858449</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L40" t="n">
-        <v>514.1165825954695</v>
+        <v>514.1165825954693</v>
       </c>
       <c r="M40" t="n">
-        <v>810.8761420831154</v>
+        <v>810.8761420831152</v>
       </c>
       <c r="N40" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O40" t="n">
         <v>1362.605360660763</v>
@@ -7353,31 +7353,31 @@
         <v>1558.642881668988</v>
       </c>
       <c r="Q40" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R40" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S40" t="n">
-        <v>1413.871702892244</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="T40" t="n">
-        <v>1413.871702892244</v>
+        <v>1387.849238682917</v>
       </c>
       <c r="U40" t="n">
-        <v>1124.752008372906</v>
+        <v>1098.729544163579</v>
       </c>
       <c r="V40" t="n">
-        <v>870.0675201670196</v>
+        <v>844.0450559576926</v>
       </c>
       <c r="W40" t="n">
-        <v>580.650350130059</v>
+        <v>742.9152520668027</v>
       </c>
       <c r="X40" t="n">
-        <v>438.7116934020694</v>
+        <v>514.9257011687854</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.9191142585393</v>
+        <v>514.9257011687854</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>945.1657723297139</v>
+        <v>1312.128170706831</v>
       </c>
       <c r="C41" t="n">
-        <v>945.1657723297139</v>
+        <v>943.1656537664192</v>
       </c>
       <c r="D41" t="n">
-        <v>945.1657723297139</v>
+        <v>919.9681201383505</v>
       </c>
       <c r="E41" t="n">
-        <v>945.1657723297139</v>
+        <v>534.1798675401063</v>
       </c>
       <c r="F41" t="n">
         <v>534.1798675401063</v>
@@ -7408,55 +7408,55 @@
         <v>118.4196543406436</v>
       </c>
       <c r="I41" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J41" t="n">
-        <v>181.5754963439904</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K41" t="n">
-        <v>429.6498038307163</v>
+        <v>429.6498038307153</v>
       </c>
       <c r="L41" t="n">
-        <v>774.3096803567494</v>
+        <v>774.3096803567478</v>
       </c>
       <c r="M41" t="n">
-        <v>1189.479639284632</v>
+        <v>1189.47963928463</v>
       </c>
       <c r="N41" t="n">
-        <v>1615.981290573629</v>
+        <v>1615.981290573627</v>
       </c>
       <c r="O41" t="n">
-        <v>2005.379444475431</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P41" t="n">
-        <v>2303.220758926974</v>
+        <v>2303.220758926971</v>
       </c>
       <c r="Q41" t="n">
-        <v>2478.714435577522</v>
+        <v>2478.714435577519</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.037001317096</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="T41" t="n">
-        <v>2256.048570974199</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="U41" t="n">
-        <v>2002.463073204478</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="V41" t="n">
-        <v>1671.400185860908</v>
+        <v>2038.362584238025</v>
       </c>
       <c r="W41" t="n">
-        <v>1318.631530590794</v>
+        <v>1685.593928967911</v>
       </c>
       <c r="X41" t="n">
-        <v>945.1657723297139</v>
+        <v>1312.128170706831</v>
       </c>
       <c r="Y41" t="n">
-        <v>945.1657723297139</v>
+        <v>1312.128170706831</v>
       </c>
     </row>
     <row r="42">
@@ -7481,40 +7481,40 @@
         <v>302.143664128281</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4125782904605</v>
+        <v>165.4125782904604</v>
       </c>
       <c r="H42" t="n">
-        <v>71.35671705856507</v>
+        <v>71.35671705856504</v>
       </c>
       <c r="I42" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J42" t="n">
-        <v>109.5103191662651</v>
+        <v>234.3404441532697</v>
       </c>
       <c r="K42" t="n">
-        <v>289.5353923886628</v>
+        <v>585.0277444578514</v>
       </c>
       <c r="L42" t="n">
-        <v>907.1440561451163</v>
+        <v>873.4162130344359</v>
       </c>
       <c r="M42" t="n">
-        <v>1263.036664740963</v>
+        <v>1229.308821630282</v>
       </c>
       <c r="N42" t="n">
-        <v>1642.75733661058</v>
+        <v>1609.029493499899</v>
       </c>
       <c r="O42" t="n">
-        <v>2142.156443465627</v>
+        <v>1934.179928607133</v>
       </c>
       <c r="P42" t="n">
-        <v>2383.785267164626</v>
+        <v>2175.808752306133</v>
       </c>
       <c r="Q42" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.388540430115</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S42" t="n">
         <v>2426.738014258465</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>515.7171402329856</v>
+        <v>368.035753670875</v>
       </c>
       <c r="C43" t="n">
-        <v>346.7809573050786</v>
+        <v>368.035753670875</v>
       </c>
       <c r="D43" t="n">
-        <v>346.7809573050786</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="E43" t="n">
-        <v>198.8678637226855</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="F43" t="n">
-        <v>198.8678637226855</v>
+        <v>217.9191142585393</v>
       </c>
       <c r="G43" t="n">
-        <v>198.8678637226855</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="H43" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90777080860231</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J43" t="n">
-        <v>73.65301825917587</v>
+        <v>73.65301825917578</v>
       </c>
       <c r="K43" t="n">
-        <v>242.5105907858449</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L43" t="n">
-        <v>514.1165825954695</v>
+        <v>514.1165825954691</v>
       </c>
       <c r="M43" t="n">
-        <v>810.8761420831154</v>
+        <v>810.8761420831149</v>
       </c>
       <c r="N43" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O43" t="n">
-        <v>1362.605360660763</v>
+        <v>1362.605360660762</v>
       </c>
       <c r="P43" t="n">
         <v>1558.642881668988</v>
       </c>
       <c r="Q43" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R43" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S43" t="n">
-        <v>1413.871702892244</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="T43" t="n">
-        <v>1190.78692193824</v>
+        <v>1190.786921938239</v>
       </c>
       <c r="U43" t="n">
-        <v>986.782775100186</v>
+        <v>901.6672274189016</v>
       </c>
       <c r="V43" t="n">
-        <v>986.782775100186</v>
+        <v>901.6672274189016</v>
       </c>
       <c r="W43" t="n">
-        <v>697.3656050632253</v>
+        <v>901.6672274189016</v>
       </c>
       <c r="X43" t="n">
-        <v>697.3656050632253</v>
+        <v>673.6776765208842</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.3656050632253</v>
+        <v>452.8850973773541</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>823.9336826148154</v>
+        <v>1672.393987876876</v>
       </c>
       <c r="C44" t="n">
-        <v>823.9336826148154</v>
+        <v>1303.431470936464</v>
       </c>
       <c r="D44" t="n">
-        <v>465.6679840080649</v>
+        <v>945.1657723297139</v>
       </c>
       <c r="E44" t="n">
-        <v>465.6679840080649</v>
+        <v>945.1657723297139</v>
       </c>
       <c r="F44" t="n">
-        <v>465.6679840080649</v>
+        <v>534.1798675401063</v>
       </c>
       <c r="G44" t="n">
-        <v>49.90777080860228</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="H44" t="n">
-        <v>49.90777080860228</v>
+        <v>118.4196543406436</v>
       </c>
       <c r="I44" t="n">
-        <v>49.90777080860228</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J44" t="n">
-        <v>181.5754963439897</v>
+        <v>181.5754963439895</v>
       </c>
       <c r="K44" t="n">
-        <v>429.6498038307156</v>
+        <v>429.6498038307146</v>
       </c>
       <c r="L44" t="n">
-        <v>774.309680356748</v>
+        <v>774.3096803567471</v>
       </c>
       <c r="M44" t="n">
-        <v>1189.47963928463</v>
+        <v>1189.479639284629</v>
       </c>
       <c r="N44" t="n">
-        <v>1615.981290573627</v>
+        <v>1615.981290573626</v>
       </c>
       <c r="O44" t="n">
-        <v>2005.37944447543</v>
+        <v>2005.379444475429</v>
       </c>
       <c r="P44" t="n">
-        <v>2303.220758926973</v>
+        <v>2303.220758926971</v>
       </c>
       <c r="Q44" t="n">
-        <v>2478.71443557752</v>
+        <v>2478.714435577519</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S44" t="n">
-        <v>2369.425471581597</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="T44" t="n">
-        <v>2160.437041238699</v>
+        <v>2369.425471581596</v>
       </c>
       <c r="U44" t="n">
-        <v>1906.851543468979</v>
+        <v>2115.839973811875</v>
       </c>
       <c r="V44" t="n">
-        <v>1575.788656125408</v>
+        <v>2115.839973811875</v>
       </c>
       <c r="W44" t="n">
-        <v>1575.788656125408</v>
+        <v>2115.839973811875</v>
       </c>
       <c r="X44" t="n">
-        <v>1210.533522678937</v>
+        <v>2115.839973811875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1210.533522678937</v>
+        <v>1725.700641836063</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>863.6805832831844</v>
+        <v>863.6805832831826</v>
       </c>
       <c r="C45" t="n">
-        <v>689.2275540020574</v>
+        <v>689.2275540020556</v>
       </c>
       <c r="D45" t="n">
-        <v>540.2931443408062</v>
+        <v>540.2931443408044</v>
       </c>
       <c r="E45" t="n">
-        <v>381.0556893353507</v>
+        <v>381.0556893353489</v>
       </c>
       <c r="F45" t="n">
-        <v>234.5211313622356</v>
+        <v>234.5211313622338</v>
       </c>
       <c r="G45" t="n">
-        <v>97.79004552441509</v>
+        <v>97.79004552441327</v>
       </c>
       <c r="H45" t="n">
         <v>71.35671705856504</v>
       </c>
       <c r="I45" t="n">
-        <v>49.90777080860228</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J45" t="n">
-        <v>234.3404441532698</v>
+        <v>234.3404441532697</v>
       </c>
       <c r="K45" t="n">
-        <v>676.1861020181204</v>
+        <v>562.4955000501541</v>
       </c>
       <c r="L45" t="n">
-        <v>964.5745705947051</v>
+        <v>850.8839686267386</v>
       </c>
       <c r="M45" t="n">
-        <v>1320.467179190551</v>
+        <v>1206.776577222585</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.187851060169</v>
+        <v>1586.497249092202</v>
       </c>
       <c r="O45" t="n">
-        <v>2025.338286167403</v>
+        <v>1911.647684199436</v>
       </c>
       <c r="P45" t="n">
-        <v>2266.967109866403</v>
+        <v>2153.276507898436</v>
       </c>
       <c r="Q45" t="n">
-        <v>2472.856296022417</v>
+        <v>2472.856296022415</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.388540430114</v>
+        <v>2495.388540430113</v>
       </c>
       <c r="S45" t="n">
-        <v>2359.11548149242</v>
+        <v>2359.115481492418</v>
       </c>
       <c r="T45" t="n">
-        <v>2164.989240682849</v>
+        <v>2164.989240682848</v>
       </c>
       <c r="U45" t="n">
-        <v>1936.897184233683</v>
+        <v>1936.897184233682</v>
       </c>
       <c r="V45" t="n">
-        <v>1701.745076001941</v>
+        <v>1701.745076001939</v>
       </c>
       <c r="W45" t="n">
-        <v>1447.507719273739</v>
+        <v>1447.507719273737</v>
       </c>
       <c r="X45" t="n">
-        <v>1239.656219068206</v>
+        <v>1239.656219068205</v>
       </c>
       <c r="Y45" t="n">
-        <v>1031.895920303253</v>
+        <v>1031.895920303251</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.3167166666607</v>
+        <v>515.8505406467552</v>
       </c>
       <c r="C46" t="n">
-        <v>616.3167166666607</v>
+        <v>346.9143577188484</v>
       </c>
       <c r="D46" t="n">
-        <v>616.3167166666607</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="E46" t="n">
-        <v>616.3167166666607</v>
+        <v>196.7977183065126</v>
       </c>
       <c r="F46" t="n">
-        <v>469.4267691687503</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="G46" t="n">
-        <v>301.4154257188133</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="H46" t="n">
-        <v>152.4553328047301</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="I46" t="n">
-        <v>49.90777080860228</v>
+        <v>49.90777080860226</v>
       </c>
       <c r="J46" t="n">
-        <v>73.65301825917584</v>
+        <v>73.65301825917578</v>
       </c>
       <c r="K46" t="n">
-        <v>242.5105907858449</v>
+        <v>242.5105907858448</v>
       </c>
       <c r="L46" t="n">
-        <v>514.1165825954694</v>
+        <v>514.1165825954691</v>
       </c>
       <c r="M46" t="n">
-        <v>810.8761420831153</v>
+        <v>810.8761420831149</v>
       </c>
       <c r="N46" t="n">
-        <v>1106.014038958228</v>
+        <v>1106.014038958227</v>
       </c>
       <c r="O46" t="n">
-        <v>1362.605360660763</v>
+        <v>1362.605360660762</v>
       </c>
       <c r="P46" t="n">
         <v>1558.642881668988</v>
       </c>
       <c r="Q46" t="n">
-        <v>1610.934019636922</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="R46" t="n">
-        <v>1507.23197371492</v>
+        <v>1610.934019636921</v>
       </c>
       <c r="S46" t="n">
-        <v>1310.169656970242</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="T46" t="n">
-        <v>1087.084876016238</v>
+        <v>1413.871702892243</v>
       </c>
       <c r="U46" t="n">
-        <v>797.9651814969004</v>
+        <v>1146.281135518542</v>
       </c>
       <c r="V46" t="n">
-        <v>797.9651814969004</v>
+        <v>1146.281135518542</v>
       </c>
       <c r="W46" t="n">
-        <v>797.9651814969004</v>
+        <v>1146.281135518542</v>
       </c>
       <c r="X46" t="n">
-        <v>797.9651814969004</v>
+        <v>918.2915846205251</v>
       </c>
       <c r="Y46" t="n">
-        <v>797.9651814969004</v>
+        <v>697.499005476995</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>149.6262451257449</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>117.9981386850737</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>11.25204345357518</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>34.01188628963359</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>117.9981386850736</v>
       </c>
       <c r="M18" t="n">
-        <v>245.5036673062095</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>240.2909008957937</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>149.6262451257447</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>213.1420588671322</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>295.4123521709283</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.76182697526284</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>172.386087961803</v>
       </c>
       <c r="L24" t="n">
-        <v>190.0916423981244</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>22.76182697526281</v>
+        <v>22.76182697526285</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>172.386087961803</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>34.01188628963382</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>22.76182697526281</v>
+        <v>22.76182697526285</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>332.5456516968373</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>176.0087593412243</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>95.2382958490154</v>
       </c>
       <c r="R30" t="n">
-        <v>22.76182697526281</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>172.386087961802</v>
       </c>
       <c r="L33" t="n">
-        <v>190.0916423981244</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.76182697526281</v>
+        <v>22.76182697526285</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>34.01188628963232</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>332.5456516968373</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>176.0087593412243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.76182697526281</v>
+        <v>22.76182697526285</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>172.3860879618027</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>117.9981386850733</v>
       </c>
       <c r="R39" t="n">
-        <v>22.76182697526281</v>
+        <v>22.76182697526285</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>172.386087961802</v>
       </c>
       <c r="L42" t="n">
-        <v>332.5456516968373</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>176.0087593412243</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>22.76182697526281</v>
+        <v>22.76182697526285</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>149.6262451257441</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>95.23829584901483</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H11" t="n">
-        <v>283.0353838770035</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0496427920231</v>
+        <v>88.81150803005167</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>66.94630743838404</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>66.94630743838428</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>22.23797751694167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.665025462782</v>
+        <v>83.72817309127228</v>
       </c>
       <c r="S13" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3942175773209</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H14" t="n">
-        <v>301.5808821335967</v>
+        <v>149.3007073007019</v>
       </c>
       <c r="I14" t="n">
-        <v>67.82676469672091</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23703,10 +23703,10 @@
         <v>102.665025462782</v>
       </c>
       <c r="S16" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>91.05535742669258</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>93.83541315025434</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>325.8333642402627</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>271.7583188465301</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I17" t="n">
         <v>67.82676469672091</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>66.94630743838447</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.23445678746313</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>45.71185065092135</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>74.0528799788422</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.665025462782</v>
+        <v>81.16439253645629</v>
       </c>
       <c r="S19" t="n">
-        <v>195.0916935772309</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.8539331444638</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>251.8601846978686</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H20" t="n">
-        <v>301.5808821335967</v>
+        <v>3.52379344085881</v>
       </c>
       <c r="I20" t="n">
-        <v>67.82676469672089</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>66.94630743838539</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>66.94630743838428</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>147.4704919849424</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5372855934948</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>220.8539331444638</v>
       </c>
       <c r="U22" t="n">
-        <v>49.02048984052769</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>181.9537023205979</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>150.1608491988436</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>140.6477074364358</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.82676469672089</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>66.94630743838336</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>66.94630743838565</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>115.549747549219</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4704919849424</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5372855934948</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>220.8539331444638</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>217.1098352638149</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>398.4793391740675</v>
       </c>
       <c r="G26" t="n">
-        <v>1.852690255397306</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I26" t="n">
-        <v>67.82676469672089</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7034381600318</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U26" t="n">
         <v>251.0496427920231</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>45.71185065092265</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>21.23445678746316</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>66.94630743838336</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>115.5481023838346</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5372855934948</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>102.665025462782</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8539331444638</v>
+        <v>67.98625743391969</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>78.65477269715637</v>
       </c>
       <c r="C29" t="n">
-        <v>283.3588377251542</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H29" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I29" t="n">
-        <v>67.82676469672089</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>124.7034381600318</v>
       </c>
       <c r="T29" t="n">
-        <v>206.8985460394687</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.0496427920231</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>66.94630743838344</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>66.94630743838542</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>59.46144175011501</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.4704919849424</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5372855934948</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>286.2284975741443</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>122.5536186097605</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H32" t="n">
         <v>301.5808821335967</v>
       </c>
       <c r="I32" t="n">
-        <v>67.82676469672089</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>42.78938411417843</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>206.8985460394687</v>
@@ -24976,10 +24976,10 @@
         <v>251.0496427920231</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>239.3295178119786</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>66.9463074383836</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>45.71185065092354</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>21.23445678746316</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>102.665025462782</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T34" t="n">
         <v>220.8539331444638</v>
@@ -25134,16 +25134,16 @@
         <v>286.2284975741443</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>249.8035934368353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>139.2818357214034</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.8985460394687</v>
+        <v>98.31707091235535</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0496427920231</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>292.971149360931</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>45.7118506509203</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>45.71185065092355</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.23445678746313</v>
+        <v>21.23445678746316</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>79.66010050723622</v>
+        <v>57.84142793116601</v>
       </c>
       <c r="G37" t="n">
         <v>166.3312300154376</v>
@@ -25332,7 +25332,7 @@
         <v>147.4704919849424</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S37" t="n">
         <v>195.0916935772309</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2284975741443</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>351.1427064384027</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.602611067468</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.5808821335967</v>
       </c>
       <c r="I38" t="n">
-        <v>67.82676469672089</v>
+        <v>67.82676469672094</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>282.2769803160161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>66.94630743838542</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>66.94630743838434</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>147.4704919849424</v>
       </c>
       <c r="I40" t="n">
-        <v>105.5372855934948</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>102.665025462782</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.0916935772309</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8539331444638</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>186.40449248461</v>
       </c>
       <c r="X40" t="n">
-        <v>85.19038522832744</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>331.717483328895</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>94.65541443814296</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0496427920231</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>66.94630743838313</v>
+        <v>66.94630743838631</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>95.83112991252301</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3312300154376</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5372855934948</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>84.26439220447074</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>329.9602542438851</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>301.5808821335967</v>
       </c>
       <c r="I44" t="n">
-        <v>67.82676469672089</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.8985460394687</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>8.128518566462901</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>66.94630743838489</v>
+        <v>66.9463074383867</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3312300154376</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4704919849424</v>
       </c>
       <c r="I46" t="n">
-        <v>4.015199217328316</v>
+        <v>105.5372855934949</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.665025462782</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8539331444638</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>21.31383587418065</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>639343.8479465421</v>
+        <v>639343.847946542</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639343.8479465422</v>
+        <v>639343.847946542</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>639343.8479465423</v>
+        <v>639343.847946542</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>639343.8479465421</v>
+        <v>639343.8479465418</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639343.8479465422</v>
+        <v>639343.8479465418</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>639343.8479465422</v>
+        <v>639343.847946542</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>639343.8479465422</v>
+        <v>639343.847946542</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="E2" t="n">
-        <v>437146.1014995975</v>
+        <v>437146.1014995974</v>
       </c>
       <c r="F2" t="n">
         <v>437146.1014995974</v>
       </c>
       <c r="G2" t="n">
-        <v>437146.1014995975</v>
+        <v>437146.1014995974</v>
       </c>
       <c r="H2" t="n">
-        <v>437146.1014995974</v>
+        <v>437146.1014995972</v>
       </c>
       <c r="I2" t="n">
-        <v>437146.1014995976</v>
+        <v>437146.1014995971</v>
       </c>
       <c r="J2" t="n">
-        <v>437146.1014995975</v>
+        <v>437146.1014995973</v>
       </c>
       <c r="K2" t="n">
-        <v>437146.1014995974</v>
+        <v>437146.1014995971</v>
       </c>
       <c r="L2" t="n">
-        <v>437146.1014995973</v>
+        <v>437146.101499597</v>
       </c>
       <c r="M2" t="n">
-        <v>437146.1014995976</v>
+        <v>437146.1014995971</v>
       </c>
       <c r="N2" t="n">
         <v>437146.1014995974</v>
       </c>
       <c r="O2" t="n">
-        <v>437146.1014995975</v>
+        <v>437146.1014995973</v>
       </c>
       <c r="P2" t="n">
-        <v>437146.1014995977</v>
+        <v>437146.1014995973</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
+        <v>21818.51245296789</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21818.51245296789</v>
+      </c>
+      <c r="G4" t="n">
         <v>21818.51245296788</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>21818.51245296787</v>
+      </c>
+      <c r="I4" t="n">
         <v>21818.51245296788</v>
       </c>
-      <c r="G4" t="n">
-        <v>21818.51245296789</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>21818.51245296788</v>
       </c>
-      <c r="I4" t="n">
-        <v>21818.51245296789</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21818.51245296789</v>
-      </c>
       <c r="K4" t="n">
-        <v>21818.51245296789</v>
+        <v>21818.51245296788</v>
       </c>
       <c r="L4" t="n">
-        <v>21818.51245296789</v>
+        <v>21818.51245296786</v>
       </c>
       <c r="M4" t="n">
-        <v>21818.51245296789</v>
+        <v>21818.51245296786</v>
       </c>
       <c r="N4" t="n">
-        <v>21818.51245296787</v>
+        <v>21818.51245296788</v>
       </c>
       <c r="O4" t="n">
-        <v>21818.51245296789</v>
+        <v>21818.51245296786</v>
       </c>
       <c r="P4" t="n">
-        <v>21818.51245296787</v>
+        <v>21818.51245296786</v>
       </c>
     </row>
     <row r="5">
@@ -26487,31 +26487,31 @@
         <v>57994.76650862438</v>
       </c>
       <c r="H5" t="n">
-        <v>57994.76650862438</v>
+        <v>57994.76650862437</v>
       </c>
       <c r="I5" t="n">
-        <v>57994.76650862439</v>
+        <v>57994.76650862437</v>
       </c>
       <c r="J5" t="n">
-        <v>57994.76650862439</v>
+        <v>57994.76650862437</v>
       </c>
       <c r="K5" t="n">
-        <v>57994.76650862439</v>
+        <v>57994.76650862437</v>
       </c>
       <c r="L5" t="n">
-        <v>57994.76650862439</v>
+        <v>57994.76650862435</v>
       </c>
       <c r="M5" t="n">
-        <v>57994.76650862439</v>
+        <v>57994.76650862435</v>
       </c>
       <c r="N5" t="n">
-        <v>57994.76650862438</v>
+        <v>57994.76650862437</v>
       </c>
       <c r="O5" t="n">
-        <v>57994.76650862439</v>
+        <v>57994.76650862435</v>
       </c>
       <c r="P5" t="n">
-        <v>57994.76650862438</v>
+        <v>57994.76650862435</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118654.3597953511</v>
+        <v>118694.0819961641</v>
       </c>
       <c r="C6" t="n">
-        <v>118654.3597953511</v>
+        <v>118694.0819961641</v>
       </c>
       <c r="D6" t="n">
-        <v>118654.359795351</v>
+        <v>118694.0819961642</v>
       </c>
       <c r="E6" t="n">
-        <v>-573843.5543629756</v>
+        <v>-568936.7176910167</v>
       </c>
       <c r="F6" t="n">
-        <v>351880.7817913842</v>
+        <v>356787.6184633431</v>
       </c>
       <c r="G6" t="n">
-        <v>351880.7817913843</v>
+        <v>356787.6184633431</v>
       </c>
       <c r="H6" t="n">
-        <v>351880.7817913842</v>
+        <v>356787.6184633428</v>
       </c>
       <c r="I6" t="n">
-        <v>351880.7817913843</v>
+        <v>356787.6184633427</v>
       </c>
       <c r="J6" t="n">
-        <v>351880.7817913843</v>
+        <v>356787.6184633429</v>
       </c>
       <c r="K6" t="n">
-        <v>351880.7817913842</v>
+        <v>356787.6184633428</v>
       </c>
       <c r="L6" t="n">
-        <v>351880.7817913841</v>
+        <v>356787.6184633427</v>
       </c>
       <c r="M6" t="n">
-        <v>196415.5803340478</v>
+        <v>201322.4170060063</v>
       </c>
       <c r="N6" t="n">
-        <v>351880.7817913842</v>
+        <v>356787.618463343</v>
       </c>
       <c r="O6" t="n">
-        <v>351880.7817913843</v>
+        <v>356787.6184633429</v>
       </c>
       <c r="P6" t="n">
-        <v>351880.7817913844</v>
+        <v>356787.6184633429</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>920.4064538571853</v>
       </c>
       <c r="H3" t="n">
-        <v>920.4064538571854</v>
+        <v>920.4064538571852</v>
       </c>
       <c r="I3" t="n">
-        <v>920.4064538571854</v>
+        <v>920.4064538571851</v>
       </c>
       <c r="J3" t="n">
-        <v>920.4064538571854</v>
+        <v>920.4064538571851</v>
       </c>
       <c r="K3" t="n">
-        <v>920.4064538571854</v>
+        <v>920.4064538571851</v>
       </c>
       <c r="L3" t="n">
-        <v>920.4064538571854</v>
+        <v>920.4064538571851</v>
       </c>
       <c r="M3" t="n">
-        <v>920.4064538571854</v>
+        <v>920.4064538571851</v>
       </c>
       <c r="N3" t="n">
-        <v>920.4064538571854</v>
+        <v>920.4064538571851</v>
       </c>
       <c r="O3" t="n">
-        <v>920.4064538571854</v>
+        <v>920.4064538571851</v>
       </c>
       <c r="P3" t="n">
-        <v>920.4064538571854</v>
+        <v>920.4064538571851</v>
       </c>
     </row>
     <row r="4">
@@ -26807,31 +26807,31 @@
         <v>623.8471351075286</v>
       </c>
       <c r="H4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="I4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="J4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="K4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="L4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075282</v>
       </c>
       <c r="M4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075282</v>
       </c>
       <c r="N4" t="n">
-        <v>623.8471351075286</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="O4" t="n">
-        <v>623.8471351075289</v>
+        <v>623.8471351075282</v>
       </c>
       <c r="P4" t="n">
-        <v>623.8471351075285</v>
+        <v>623.8471351075282</v>
       </c>
     </row>
   </sheetData>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H20" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I20" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J20" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K20" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L20" t="n">
-        <v>583.9077043902223</v>
+        <v>583.9077043902222</v>
       </c>
       <c r="M20" t="n">
-        <v>649.7098281039216</v>
+        <v>649.7098281039215</v>
       </c>
       <c r="N20" t="n">
-        <v>660.2228123733557</v>
+        <v>660.2228123733556</v>
       </c>
       <c r="O20" t="n">
-        <v>623.4296800093663</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P20" t="n">
-        <v>532.0828083325853</v>
+        <v>532.0828083325852</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R20" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S20" t="n">
-        <v>84.31663142621353</v>
+        <v>84.31663142621352</v>
       </c>
       <c r="T20" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H21" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I21" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395193</v>
       </c>
       <c r="J21" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K21" t="n">
-        <v>319.6849472798113</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L21" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M21" t="n">
-        <v>501.621517352166</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N21" t="n">
-        <v>514.8979462950683</v>
+        <v>514.8979462950682</v>
       </c>
       <c r="O21" t="n">
-        <v>471.0310273810447</v>
+        <v>471.0310273810446</v>
       </c>
       <c r="P21" t="n">
-        <v>378.0439263022089</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q21" t="n">
         <v>252.712353142071</v>
@@ -32581,10 +32581,10 @@
         <v>36.77284275552054</v>
       </c>
       <c r="T21" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346725</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H22" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I22" t="n">
-        <v>49.91318933376344</v>
+        <v>49.91318933376343</v>
       </c>
       <c r="J22" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K22" t="n">
         <v>192.8326963982758</v>
       </c>
       <c r="L22" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M22" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N22" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O22" t="n">
         <v>234.5980253208446</v>
@@ -32654,16 +32654,16 @@
         <v>138.981374532435</v>
       </c>
       <c r="R22" t="n">
-        <v>74.6283659143875</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S22" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T22" t="n">
-        <v>7.091656283817655</v>
+        <v>7.091656283817653</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0905317823466085</v>
+        <v>0.09053178234660847</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H23" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I23" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J23" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K23" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L23" t="n">
-        <v>583.9077043902223</v>
+        <v>583.9077043902221</v>
       </c>
       <c r="M23" t="n">
-        <v>649.7098281039216</v>
+        <v>649.7098281039214</v>
       </c>
       <c r="N23" t="n">
-        <v>660.2228123733557</v>
+        <v>660.2228123733555</v>
       </c>
       <c r="O23" t="n">
-        <v>623.4296800093663</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P23" t="n">
-        <v>532.0828083325853</v>
+        <v>532.082808332585</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R23" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S23" t="n">
-        <v>84.31663142621353</v>
+        <v>84.3166314262135</v>
       </c>
       <c r="T23" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H24" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I24" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395192</v>
       </c>
       <c r="J24" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K24" t="n">
-        <v>319.6849472798113</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L24" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M24" t="n">
-        <v>501.621517352166</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N24" t="n">
-        <v>514.8979462950683</v>
+        <v>514.8979462950681</v>
       </c>
       <c r="O24" t="n">
-        <v>471.0310273810447</v>
+        <v>471.0310273810445</v>
       </c>
       <c r="P24" t="n">
-        <v>378.0439263022089</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q24" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420709</v>
       </c>
       <c r="R24" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S24" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552053</v>
       </c>
       <c r="T24" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346724</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H25" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I25" t="n">
-        <v>49.91318933376344</v>
+        <v>49.91318933376342</v>
       </c>
       <c r="J25" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K25" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982757</v>
       </c>
       <c r="L25" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M25" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N25" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O25" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P25" t="n">
-        <v>200.7391387232129</v>
+        <v>200.7391387232128</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.981374532435</v>
+        <v>138.9813745324349</v>
       </c>
       <c r="R25" t="n">
-        <v>74.6283659143875</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S25" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T25" t="n">
-        <v>7.091656283817655</v>
+        <v>7.091656283817652</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0905317823466085</v>
+        <v>0.09053178234660846</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H26" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I26" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J26" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K26" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L26" t="n">
-        <v>583.9077043902223</v>
+        <v>583.9077043902221</v>
       </c>
       <c r="M26" t="n">
-        <v>649.7098281039216</v>
+        <v>649.7098281039214</v>
       </c>
       <c r="N26" t="n">
-        <v>660.2228123733557</v>
+        <v>660.2228123733555</v>
       </c>
       <c r="O26" t="n">
-        <v>623.4296800093663</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P26" t="n">
-        <v>532.0828083325853</v>
+        <v>532.082808332585</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R26" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S26" t="n">
-        <v>84.31663142621353</v>
+        <v>84.3166314262135</v>
       </c>
       <c r="T26" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H27" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I27" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395192</v>
       </c>
       <c r="J27" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K27" t="n">
-        <v>319.6849472798113</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L27" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M27" t="n">
-        <v>501.621517352166</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N27" t="n">
-        <v>514.8979462950683</v>
+        <v>514.8979462950681</v>
       </c>
       <c r="O27" t="n">
-        <v>471.0310273810447</v>
+        <v>471.0310273810445</v>
       </c>
       <c r="P27" t="n">
-        <v>378.0439263022089</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q27" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420709</v>
       </c>
       <c r="R27" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S27" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552053</v>
       </c>
       <c r="T27" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346724</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H28" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I28" t="n">
-        <v>49.91318933376344</v>
+        <v>49.91318933376342</v>
       </c>
       <c r="J28" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K28" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982757</v>
       </c>
       <c r="L28" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M28" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N28" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O28" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P28" t="n">
-        <v>200.7391387232129</v>
+        <v>200.7391387232128</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.981374532435</v>
+        <v>138.9813745324349</v>
       </c>
       <c r="R28" t="n">
-        <v>74.6283659143875</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S28" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T28" t="n">
-        <v>7.091656283817655</v>
+        <v>7.091656283817652</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0905317823466085</v>
+        <v>0.09053178234660846</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H29" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I29" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J29" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K29" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L29" t="n">
-        <v>583.9077043902223</v>
+        <v>583.9077043902221</v>
       </c>
       <c r="M29" t="n">
-        <v>649.7098281039216</v>
+        <v>649.7098281039214</v>
       </c>
       <c r="N29" t="n">
-        <v>660.2228123733557</v>
+        <v>660.2228123733555</v>
       </c>
       <c r="O29" t="n">
-        <v>623.4296800093663</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P29" t="n">
-        <v>532.0828083325853</v>
+        <v>532.082808332585</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R29" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S29" t="n">
-        <v>84.31663142621353</v>
+        <v>84.3166314262135</v>
       </c>
       <c r="T29" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H30" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I30" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395192</v>
       </c>
       <c r="J30" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K30" t="n">
-        <v>319.6849472798113</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L30" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M30" t="n">
-        <v>501.621517352166</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N30" t="n">
-        <v>514.8979462950683</v>
+        <v>514.8979462950681</v>
       </c>
       <c r="O30" t="n">
-        <v>471.0310273810447</v>
+        <v>471.0310273810445</v>
       </c>
       <c r="P30" t="n">
-        <v>378.0439263022089</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q30" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420709</v>
       </c>
       <c r="R30" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S30" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552053</v>
       </c>
       <c r="T30" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346724</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H31" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I31" t="n">
-        <v>49.91318933376344</v>
+        <v>49.91318933376342</v>
       </c>
       <c r="J31" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K31" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982757</v>
       </c>
       <c r="L31" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M31" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N31" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O31" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P31" t="n">
-        <v>200.7391387232129</v>
+        <v>200.7391387232128</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.981374532435</v>
+        <v>138.9813745324349</v>
       </c>
       <c r="R31" t="n">
-        <v>74.6283659143875</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S31" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T31" t="n">
-        <v>7.091656283817655</v>
+        <v>7.091656283817652</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0905317823466085</v>
+        <v>0.09053178234660846</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H32" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I32" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J32" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K32" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L32" t="n">
-        <v>583.9077043902223</v>
+        <v>583.9077043902221</v>
       </c>
       <c r="M32" t="n">
-        <v>649.7098281039216</v>
+        <v>649.7098281039214</v>
       </c>
       <c r="N32" t="n">
-        <v>660.2228123733557</v>
+        <v>660.2228123733555</v>
       </c>
       <c r="O32" t="n">
-        <v>623.4296800093663</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P32" t="n">
-        <v>532.0828083325853</v>
+        <v>532.082808332585</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R32" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S32" t="n">
-        <v>84.31663142621353</v>
+        <v>84.3166314262135</v>
       </c>
       <c r="T32" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H33" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I33" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395192</v>
       </c>
       <c r="J33" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K33" t="n">
-        <v>319.6849472798113</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L33" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M33" t="n">
-        <v>501.621517352166</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N33" t="n">
-        <v>514.8979462950683</v>
+        <v>514.8979462950681</v>
       </c>
       <c r="O33" t="n">
-        <v>471.0310273810447</v>
+        <v>471.0310273810445</v>
       </c>
       <c r="P33" t="n">
-        <v>378.0439263022089</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420709</v>
       </c>
       <c r="R33" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S33" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552053</v>
       </c>
       <c r="T33" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346724</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H34" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I34" t="n">
-        <v>49.91318933376344</v>
+        <v>49.91318933376342</v>
       </c>
       <c r="J34" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K34" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982757</v>
       </c>
       <c r="L34" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M34" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N34" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O34" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P34" t="n">
-        <v>200.7391387232129</v>
+        <v>200.7391387232128</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.981374532435</v>
+        <v>138.9813745324349</v>
       </c>
       <c r="R34" t="n">
-        <v>74.6283659143875</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S34" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T34" t="n">
-        <v>7.091656283817655</v>
+        <v>7.091656283817652</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0905317823466085</v>
+        <v>0.09053178234660846</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H35" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I35" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J35" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K35" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L35" t="n">
-        <v>583.9077043902223</v>
+        <v>583.9077043902221</v>
       </c>
       <c r="M35" t="n">
-        <v>649.7098281039216</v>
+        <v>649.7098281039214</v>
       </c>
       <c r="N35" t="n">
-        <v>660.2228123733557</v>
+        <v>660.2228123733555</v>
       </c>
       <c r="O35" t="n">
-        <v>623.4296800093663</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P35" t="n">
-        <v>532.0828083325853</v>
+        <v>532.082808332585</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R35" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S35" t="n">
-        <v>84.31663142621353</v>
+        <v>84.3166314262135</v>
       </c>
       <c r="T35" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H36" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I36" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395192</v>
       </c>
       <c r="J36" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K36" t="n">
-        <v>319.6849472798113</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L36" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M36" t="n">
-        <v>501.621517352166</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N36" t="n">
-        <v>514.8979462950683</v>
+        <v>514.8979462950681</v>
       </c>
       <c r="O36" t="n">
-        <v>471.0310273810447</v>
+        <v>471.0310273810445</v>
       </c>
       <c r="P36" t="n">
-        <v>378.0439263022089</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420709</v>
       </c>
       <c r="R36" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S36" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552053</v>
       </c>
       <c r="T36" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346724</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H37" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I37" t="n">
-        <v>49.91318933376344</v>
+        <v>49.91318933376342</v>
       </c>
       <c r="J37" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K37" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982757</v>
       </c>
       <c r="L37" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M37" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N37" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O37" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P37" t="n">
-        <v>200.7391387232129</v>
+        <v>200.7391387232128</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.981374532435</v>
+        <v>138.9813745324349</v>
       </c>
       <c r="R37" t="n">
-        <v>74.6283659143875</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S37" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T37" t="n">
-        <v>7.091656283817655</v>
+        <v>7.091656283817652</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0905317823466085</v>
+        <v>0.09053178234660846</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H38" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I38" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J38" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K38" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L38" t="n">
-        <v>583.9077043902223</v>
+        <v>583.9077043902221</v>
       </c>
       <c r="M38" t="n">
-        <v>649.7098281039216</v>
+        <v>649.7098281039214</v>
       </c>
       <c r="N38" t="n">
-        <v>660.2228123733557</v>
+        <v>660.2228123733555</v>
       </c>
       <c r="O38" t="n">
-        <v>623.4296800093663</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P38" t="n">
-        <v>532.0828083325853</v>
+        <v>532.082808332585</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R38" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S38" t="n">
-        <v>84.31663142621353</v>
+        <v>84.3166314262135</v>
       </c>
       <c r="T38" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H39" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I39" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395192</v>
       </c>
       <c r="J39" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K39" t="n">
-        <v>319.6849472798113</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L39" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M39" t="n">
-        <v>501.621517352166</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N39" t="n">
-        <v>514.8979462950683</v>
+        <v>514.8979462950681</v>
       </c>
       <c r="O39" t="n">
-        <v>471.0310273810447</v>
+        <v>471.0310273810445</v>
       </c>
       <c r="P39" t="n">
-        <v>378.0439263022089</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420709</v>
       </c>
       <c r="R39" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S39" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552053</v>
       </c>
       <c r="T39" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346724</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H40" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I40" t="n">
-        <v>49.91318933376344</v>
+        <v>49.91318933376342</v>
       </c>
       <c r="J40" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K40" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982757</v>
       </c>
       <c r="L40" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M40" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N40" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O40" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P40" t="n">
-        <v>200.7391387232129</v>
+        <v>200.7391387232128</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.981374532435</v>
+        <v>138.9813745324349</v>
       </c>
       <c r="R40" t="n">
-        <v>74.6283659143875</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S40" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T40" t="n">
-        <v>7.091656283817655</v>
+        <v>7.091656283817652</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0905317823466085</v>
+        <v>0.09053178234660846</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H41" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I41" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J41" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K41" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174308</v>
       </c>
       <c r="L41" t="n">
-        <v>583.9077043902223</v>
+        <v>583.9077043902221</v>
       </c>
       <c r="M41" t="n">
-        <v>649.7098281039216</v>
+        <v>649.7098281039214</v>
       </c>
       <c r="N41" t="n">
-        <v>660.2228123733557</v>
+        <v>660.2228123733555</v>
       </c>
       <c r="O41" t="n">
-        <v>623.4296800093663</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P41" t="n">
-        <v>532.0828083325853</v>
+        <v>532.082808332585</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R41" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S41" t="n">
-        <v>84.31663142621353</v>
+        <v>84.3166314262135</v>
       </c>
       <c r="T41" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H42" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I42" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395192</v>
       </c>
       <c r="J42" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K42" t="n">
-        <v>319.6849472798113</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L42" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M42" t="n">
-        <v>501.621517352166</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N42" t="n">
-        <v>514.8979462950683</v>
+        <v>514.8979462950681</v>
       </c>
       <c r="O42" t="n">
-        <v>471.0310273810447</v>
+        <v>471.0310273810445</v>
       </c>
       <c r="P42" t="n">
-        <v>378.0439263022089</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420709</v>
       </c>
       <c r="R42" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S42" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552053</v>
       </c>
       <c r="T42" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346724</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H43" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I43" t="n">
-        <v>49.91318933376344</v>
+        <v>49.91318933376342</v>
       </c>
       <c r="J43" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K43" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982757</v>
       </c>
       <c r="L43" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M43" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N43" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O43" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P43" t="n">
-        <v>200.7391387232129</v>
+        <v>200.7391387232128</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.981374532435</v>
+        <v>138.9813745324349</v>
       </c>
       <c r="R43" t="n">
-        <v>74.6283659143875</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S43" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T43" t="n">
-        <v>7.091656283817655</v>
+        <v>7.091656283817652</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0905317823466085</v>
+        <v>0.09053178234660846</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.700126447667074</v>
+        <v>3.700126447667073</v>
       </c>
       <c r="H44" t="n">
-        <v>37.89391998217043</v>
+        <v>37.89391998217042</v>
       </c>
       <c r="I44" t="n">
         <v>142.649124873685</v>
       </c>
       <c r="J44" t="n">
-        <v>314.0436070876836</v>
+        <v>314.0436070876835</v>
       </c>
       <c r="K44" t="n">
-        <v>470.6699596174309</v>
+        <v>470.6699596174302</v>
       </c>
       <c r="L44" t="n">
-        <v>583.9077043902223</v>
+        <v>583.9077043902221</v>
       </c>
       <c r="M44" t="n">
-        <v>649.7098281039216</v>
+        <v>649.7098281039214</v>
       </c>
       <c r="N44" t="n">
-        <v>660.2228123733557</v>
+        <v>660.2228123733555</v>
       </c>
       <c r="O44" t="n">
-        <v>623.4296800093663</v>
+        <v>623.4296800093661</v>
       </c>
       <c r="P44" t="n">
-        <v>532.0828083325853</v>
+        <v>532.082808332585</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.572029925508</v>
+        <v>399.5720299255079</v>
       </c>
       <c r="R44" t="n">
         <v>232.428067968267</v>
       </c>
       <c r="S44" t="n">
-        <v>84.31663142621353</v>
+        <v>84.3166314262135</v>
       </c>
       <c r="T44" t="n">
-        <v>16.19730352466263</v>
+        <v>16.19730352466262</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2960101158133659</v>
+        <v>0.2960101158133658</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.979742183768286</v>
+        <v>1.979742183768285</v>
       </c>
       <c r="H45" t="n">
-        <v>19.12014161692003</v>
+        <v>19.12014161692002</v>
       </c>
       <c r="I45" t="n">
-        <v>68.16217606395195</v>
+        <v>68.16217606395192</v>
       </c>
       <c r="J45" t="n">
-        <v>187.0422209673362</v>
+        <v>187.0422209673361</v>
       </c>
       <c r="K45" t="n">
-        <v>319.6849472798113</v>
+        <v>319.6849472798112</v>
       </c>
       <c r="L45" t="n">
-        <v>429.8558631905657</v>
+        <v>429.8558631905656</v>
       </c>
       <c r="M45" t="n">
-        <v>501.621517352166</v>
+        <v>501.6215173521658</v>
       </c>
       <c r="N45" t="n">
-        <v>514.8979462950683</v>
+        <v>514.8979462950681</v>
       </c>
       <c r="O45" t="n">
-        <v>471.0310273810447</v>
+        <v>471.0310273810445</v>
       </c>
       <c r="P45" t="n">
-        <v>378.0439263022089</v>
+        <v>378.0439263022088</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.712353142071</v>
+        <v>252.7123531420709</v>
       </c>
       <c r="R45" t="n">
         <v>122.9176769887011</v>
       </c>
       <c r="S45" t="n">
-        <v>36.77284275552054</v>
+        <v>36.77284275552053</v>
       </c>
       <c r="T45" t="n">
-        <v>7.979750293346727</v>
+        <v>7.979750293346724</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1302461963005452</v>
+        <v>0.1302461963005451</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.659749343021154</v>
+        <v>1.659749343021153</v>
       </c>
       <c r="H46" t="n">
-        <v>14.75668052249718</v>
+        <v>14.75668052249717</v>
       </c>
       <c r="I46" t="n">
-        <v>49.91318933376344</v>
+        <v>49.91318933376342</v>
       </c>
       <c r="J46" t="n">
-        <v>117.3442785515956</v>
+        <v>117.3442785515955</v>
       </c>
       <c r="K46" t="n">
-        <v>192.8326963982758</v>
+        <v>192.8326963982757</v>
       </c>
       <c r="L46" t="n">
-        <v>246.7594614160723</v>
+        <v>246.7594614160722</v>
       </c>
       <c r="M46" t="n">
-        <v>260.1732538337614</v>
+        <v>260.1732538337613</v>
       </c>
       <c r="N46" t="n">
-        <v>253.98691537341</v>
+        <v>253.9869153734099</v>
       </c>
       <c r="O46" t="n">
         <v>234.5980253208446</v>
       </c>
       <c r="P46" t="n">
-        <v>200.7391387232129</v>
+        <v>200.7391387232128</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.981374532435</v>
+        <v>138.9813745324349</v>
       </c>
       <c r="R46" t="n">
-        <v>74.6283659143875</v>
+        <v>74.62836591438747</v>
       </c>
       <c r="S46" t="n">
-        <v>28.92490445974137</v>
+        <v>28.92490445974136</v>
       </c>
       <c r="T46" t="n">
-        <v>7.091656283817655</v>
+        <v>7.091656283817652</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0905317823466085</v>
+        <v>0.09053178234660846</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>186.2956296410783</v>
       </c>
       <c r="K12" t="n">
-        <v>331.4697534311971</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L12" t="n">
         <v>291.3014834106915</v>
@@ -35509,10 +35509,10 @@
         <v>244.0695188878786</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.8078667918986</v>
+        <v>230.7287177411232</v>
       </c>
       <c r="R12" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.45663775424462</v>
+        <v>60.20459430066944</v>
       </c>
       <c r="K15" t="n">
         <v>446.3087453180308</v>
@@ -35740,7 +35740,7 @@
         <v>383.5562342117349</v>
       </c>
       <c r="O15" t="n">
-        <v>328.4347829366002</v>
+        <v>362.4466692262338</v>
       </c>
       <c r="P15" t="n">
         <v>244.0695188878786</v>
@@ -35749,7 +35749,7 @@
         <v>322.8078667918986</v>
       </c>
       <c r="R15" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.20459430066944</v>
+        <v>186.2956296410783</v>
       </c>
       <c r="K18" t="n">
-        <v>181.8435083054522</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L18" t="n">
-        <v>291.3014834106915</v>
+        <v>409.2996220957651</v>
       </c>
       <c r="M18" t="n">
-        <v>604.9911507363571</v>
+        <v>359.4874834301476</v>
       </c>
       <c r="N18" t="n">
-        <v>623.8471351075286</v>
+        <v>383.5562342117349</v>
       </c>
       <c r="O18" t="n">
         <v>328.4347829366002</v>
@@ -35986,7 +35986,7 @@
         <v>112.7305790560495</v>
       </c>
       <c r="R18" t="n">
-        <v>22.759842836058</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>132.9977025609973</v>
       </c>
       <c r="K20" t="n">
-        <v>250.5801085724504</v>
+        <v>250.5801085724503</v>
       </c>
       <c r="L20" t="n">
-        <v>348.1412894202351</v>
+        <v>348.141289420235</v>
       </c>
       <c r="M20" t="n">
-        <v>419.3635948766489</v>
+        <v>419.3635948766488</v>
       </c>
       <c r="N20" t="n">
-        <v>430.8097487767648</v>
+        <v>430.8097487767647</v>
       </c>
       <c r="O20" t="n">
-        <v>393.3314685876795</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P20" t="n">
-        <v>300.8498125773157</v>
+        <v>300.8498125773156</v>
       </c>
       <c r="Q20" t="n">
-        <v>177.2663400510586</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R20" t="n">
-        <v>16.84253015413492</v>
+        <v>16.84253015413486</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.2956296410783</v>
+        <v>60.20459430066944</v>
       </c>
       <c r="K21" t="n">
-        <v>331.469753431197</v>
+        <v>181.8435083054522</v>
       </c>
       <c r="L21" t="n">
-        <v>291.3014834106916</v>
+        <v>504.4435422778236</v>
       </c>
       <c r="M21" t="n">
-        <v>359.4874834301477</v>
+        <v>359.4874834301475</v>
       </c>
       <c r="N21" t="n">
-        <v>383.556234211735</v>
+        <v>383.5562342117349</v>
       </c>
       <c r="O21" t="n">
-        <v>328.4347829366002</v>
+        <v>623.8471351075284</v>
       </c>
       <c r="P21" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.8078667918986</v>
+        <v>112.7305790560494</v>
       </c>
       <c r="R21" t="n">
-        <v>22.75984283605801</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.98509843492279</v>
+        <v>23.98509843492276</v>
       </c>
       <c r="K22" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L22" t="n">
         <v>274.3494866763884</v>
@@ -36290,16 +36290,16 @@
         <v>299.7571307956019</v>
       </c>
       <c r="N22" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O22" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P22" t="n">
         <v>198.0176979881064</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074057</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609972</v>
       </c>
       <c r="K23" t="n">
-        <v>250.5801085724504</v>
+        <v>250.5801085724502</v>
       </c>
       <c r="L23" t="n">
-        <v>348.1412894202351</v>
+        <v>348.1412894202348</v>
       </c>
       <c r="M23" t="n">
-        <v>419.3635948766489</v>
+        <v>419.3635948766487</v>
       </c>
       <c r="N23" t="n">
-        <v>430.8097487767648</v>
+        <v>430.8097487767646</v>
       </c>
       <c r="O23" t="n">
-        <v>393.3314685876795</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P23" t="n">
-        <v>300.8498125773157</v>
+        <v>300.8498125773155</v>
       </c>
       <c r="Q23" t="n">
-        <v>177.2663400510586</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R23" t="n">
-        <v>16.84253015413492</v>
+        <v>16.84253015413483</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.20459430066947</v>
+        <v>186.2956296410782</v>
       </c>
       <c r="K24" t="n">
-        <v>181.8435083054523</v>
+        <v>354.2295962672551</v>
       </c>
       <c r="L24" t="n">
-        <v>481.393125808816</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M24" t="n">
-        <v>359.4874834301477</v>
+        <v>359.4874834301474</v>
       </c>
       <c r="N24" t="n">
-        <v>383.556234211735</v>
+        <v>383.5562342117348</v>
       </c>
       <c r="O24" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P24" t="n">
-        <v>562.5322875278158</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.7305790560495</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.98509843492279</v>
+        <v>23.98509843492275</v>
       </c>
       <c r="K25" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L25" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763883</v>
       </c>
       <c r="M25" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N25" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O25" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P25" t="n">
-        <v>198.0176979881064</v>
+        <v>198.0176979881063</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074054</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.997702560998</v>
+        <v>132.9977025609972</v>
       </c>
       <c r="K26" t="n">
-        <v>250.5801085724504</v>
+        <v>250.5801085724502</v>
       </c>
       <c r="L26" t="n">
-        <v>348.1412894202351</v>
+        <v>348.1412894202348</v>
       </c>
       <c r="M26" t="n">
-        <v>419.3635948766489</v>
+        <v>419.3635948766487</v>
       </c>
       <c r="N26" t="n">
-        <v>430.8097487767648</v>
+        <v>430.8097487767646</v>
       </c>
       <c r="O26" t="n">
-        <v>393.3314685876795</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P26" t="n">
-        <v>300.8498125773157</v>
+        <v>300.8498125773155</v>
       </c>
       <c r="Q26" t="n">
-        <v>177.2663400510586</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R26" t="n">
-        <v>16.84253015413492</v>
+        <v>16.84253015413505</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.20459430066947</v>
+        <v>186.2956296410782</v>
       </c>
       <c r="K27" t="n">
-        <v>446.3087453180309</v>
+        <v>354.2295962672551</v>
       </c>
       <c r="L27" t="n">
-        <v>291.3014834106916</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M27" t="n">
-        <v>359.4874834301477</v>
+        <v>359.4874834301474</v>
       </c>
       <c r="N27" t="n">
-        <v>383.556234211735</v>
+        <v>383.5562342117348</v>
       </c>
       <c r="O27" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P27" t="n">
-        <v>278.0814051775125</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q27" t="n">
-        <v>322.8078667918986</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.98509843492279</v>
+        <v>23.98509843492275</v>
       </c>
       <c r="K28" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L28" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763883</v>
       </c>
       <c r="M28" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N28" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O28" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P28" t="n">
-        <v>198.0176979881064</v>
+        <v>198.0176979881063</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074054</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609972</v>
       </c>
       <c r="K29" t="n">
-        <v>250.5801085724504</v>
+        <v>250.5801085724502</v>
       </c>
       <c r="L29" t="n">
-        <v>348.1412894202351</v>
+        <v>348.1412894202348</v>
       </c>
       <c r="M29" t="n">
-        <v>419.3635948766489</v>
+        <v>419.3635948766487</v>
       </c>
       <c r="N29" t="n">
-        <v>430.8097487767656</v>
+        <v>430.8097487767649</v>
       </c>
       <c r="O29" t="n">
-        <v>393.3314685876795</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P29" t="n">
-        <v>300.8498125773157</v>
+        <v>300.8498125773155</v>
       </c>
       <c r="Q29" t="n">
-        <v>177.2663400510586</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R29" t="n">
-        <v>16.84253015413492</v>
+        <v>16.84253015413483</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.20459430066947</v>
+        <v>186.2956296410782</v>
       </c>
       <c r="K30" t="n">
-        <v>181.8435083054523</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L30" t="n">
-        <v>623.8471351075289</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M30" t="n">
-        <v>359.4874834301477</v>
+        <v>359.4874834301474</v>
       </c>
       <c r="N30" t="n">
-        <v>383.556234211735</v>
+        <v>383.5562342117348</v>
       </c>
       <c r="O30" t="n">
-        <v>504.4435422778245</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P30" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.7305790560495</v>
+        <v>207.9688749050648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.75984283605797</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.98509843492279</v>
+        <v>23.98509843492275</v>
       </c>
       <c r="K31" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L31" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763883</v>
       </c>
       <c r="M31" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N31" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O31" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P31" t="n">
-        <v>198.0176979881064</v>
+        <v>198.0176979881063</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074054</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609972</v>
       </c>
       <c r="K32" t="n">
-        <v>250.5801085724504</v>
+        <v>250.5801085724502</v>
       </c>
       <c r="L32" t="n">
-        <v>348.1412894202351</v>
+        <v>348.1412894202348</v>
       </c>
       <c r="M32" t="n">
-        <v>419.3635948766489</v>
+        <v>419.3635948766487</v>
       </c>
       <c r="N32" t="n">
-        <v>430.8097487767648</v>
+        <v>430.8097487767646</v>
       </c>
       <c r="O32" t="n">
-        <v>393.3314685876795</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P32" t="n">
-        <v>300.8498125773157</v>
+        <v>300.8498125773155</v>
       </c>
       <c r="Q32" t="n">
-        <v>177.266340051059</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R32" t="n">
-        <v>16.84253015413492</v>
+        <v>16.84253015413483</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.20459430066947</v>
+        <v>186.2956296410782</v>
       </c>
       <c r="K33" t="n">
-        <v>181.8435083054523</v>
+        <v>354.2295962672542</v>
       </c>
       <c r="L33" t="n">
-        <v>481.393125808816</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M33" t="n">
-        <v>359.4874834301477</v>
+        <v>359.4874834301474</v>
       </c>
       <c r="N33" t="n">
-        <v>383.556234211735</v>
+        <v>383.5562342117348</v>
       </c>
       <c r="O33" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P33" t="n">
-        <v>562.5322875278158</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.7305790560495</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.98509843492279</v>
+        <v>23.98509843492275</v>
       </c>
       <c r="K34" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L34" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763883</v>
       </c>
       <c r="M34" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N34" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O34" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P34" t="n">
-        <v>198.0176979881064</v>
+        <v>198.0176979881063</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074054</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609972</v>
       </c>
       <c r="K35" t="n">
-        <v>250.5801085724504</v>
+        <v>250.5801085724502</v>
       </c>
       <c r="L35" t="n">
-        <v>348.1412894202351</v>
+        <v>348.1412894202348</v>
       </c>
       <c r="M35" t="n">
-        <v>419.3635948766489</v>
+        <v>419.3635948766487</v>
       </c>
       <c r="N35" t="n">
-        <v>430.8097487767648</v>
+        <v>430.8097487767646</v>
       </c>
       <c r="O35" t="n">
-        <v>393.3314685876795</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P35" t="n">
-        <v>300.8498125773157</v>
+        <v>300.8498125773155</v>
       </c>
       <c r="Q35" t="n">
-        <v>177.2663400510586</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R35" t="n">
-        <v>16.84253015413492</v>
+        <v>16.84253015413483</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.20459430066947</v>
+        <v>94.21648059030173</v>
       </c>
       <c r="K36" t="n">
-        <v>181.8435083054523</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L36" t="n">
-        <v>623.8471351075289</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M36" t="n">
-        <v>359.4874834301477</v>
+        <v>359.4874834301474</v>
       </c>
       <c r="N36" t="n">
-        <v>383.556234211735</v>
+        <v>383.5562342117348</v>
       </c>
       <c r="O36" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P36" t="n">
-        <v>420.078278229103</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.7305790560495</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.98509843492279</v>
+        <v>23.98509843492275</v>
       </c>
       <c r="K37" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L37" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763883</v>
       </c>
       <c r="M37" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N37" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O37" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P37" t="n">
-        <v>198.0176979881064</v>
+        <v>198.0176979881063</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074054</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609972</v>
       </c>
       <c r="K38" t="n">
-        <v>250.5801085724504</v>
+        <v>250.5801085724502</v>
       </c>
       <c r="L38" t="n">
-        <v>348.1412894202351</v>
+        <v>348.1412894202348</v>
       </c>
       <c r="M38" t="n">
-        <v>419.3635948766489</v>
+        <v>419.3635948766487</v>
       </c>
       <c r="N38" t="n">
-        <v>430.8097487767648</v>
+        <v>430.8097487767646</v>
       </c>
       <c r="O38" t="n">
-        <v>393.3314685876795</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P38" t="n">
-        <v>300.8498125773157</v>
+        <v>300.8498125773155</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.2663400510586</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R38" t="n">
-        <v>16.84253015413492</v>
+        <v>16.84253015413483</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.2956296410783</v>
+        <v>186.2956296410782</v>
       </c>
       <c r="K39" t="n">
-        <v>354.229596267255</v>
+        <v>446.3087453180308</v>
       </c>
       <c r="L39" t="n">
-        <v>291.3014834106916</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M39" t="n">
-        <v>359.4874834301477</v>
+        <v>359.4874834301474</v>
       </c>
       <c r="N39" t="n">
-        <v>383.556234211735</v>
+        <v>383.5562342117348</v>
       </c>
       <c r="O39" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P39" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q39" t="n">
-        <v>322.8078667918986</v>
+        <v>230.7287177411228</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.98509843492279</v>
+        <v>23.98509843492275</v>
       </c>
       <c r="K40" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L40" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763883</v>
       </c>
       <c r="M40" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N40" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O40" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P40" t="n">
-        <v>198.0176979881064</v>
+        <v>198.0176979881063</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074054</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609972</v>
       </c>
       <c r="K41" t="n">
-        <v>250.5801085724504</v>
+        <v>250.5801085724502</v>
       </c>
       <c r="L41" t="n">
-        <v>348.1412894202351</v>
+        <v>348.1412894202348</v>
       </c>
       <c r="M41" t="n">
-        <v>419.3635948766489</v>
+        <v>419.3635948766487</v>
       </c>
       <c r="N41" t="n">
-        <v>430.8097487767648</v>
+        <v>430.8097487767646</v>
       </c>
       <c r="O41" t="n">
-        <v>393.3314685876795</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P41" t="n">
-        <v>300.8498125773157</v>
+        <v>300.8498125773155</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.2663400510586</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R41" t="n">
-        <v>16.84253015413492</v>
+        <v>16.84253015413483</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.20459430066947</v>
+        <v>186.2956296410782</v>
       </c>
       <c r="K42" t="n">
-        <v>181.8435083054523</v>
+        <v>354.2295962672542</v>
       </c>
       <c r="L42" t="n">
-        <v>623.8471351075289</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M42" t="n">
-        <v>359.4874834301477</v>
+        <v>359.4874834301474</v>
       </c>
       <c r="N42" t="n">
-        <v>383.556234211735</v>
+        <v>383.5562342117348</v>
       </c>
       <c r="O42" t="n">
-        <v>504.4435422778245</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P42" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.7305790560495</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.98509843492279</v>
+        <v>23.98509843492275</v>
       </c>
       <c r="K43" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L43" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763883</v>
       </c>
       <c r="M43" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N43" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O43" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P43" t="n">
-        <v>198.0176979881064</v>
+        <v>198.0176979881063</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074054</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.9977025609973</v>
+        <v>132.9977025609972</v>
       </c>
       <c r="K44" t="n">
-        <v>250.5801085724504</v>
+        <v>250.5801085724496</v>
       </c>
       <c r="L44" t="n">
-        <v>348.1412894202351</v>
+        <v>348.1412894202348</v>
       </c>
       <c r="M44" t="n">
-        <v>419.3635948766489</v>
+        <v>419.3635948766487</v>
       </c>
       <c r="N44" t="n">
-        <v>430.8097487767648</v>
+        <v>430.8097487767646</v>
       </c>
       <c r="O44" t="n">
-        <v>393.3314685876795</v>
+        <v>393.3314685876793</v>
       </c>
       <c r="P44" t="n">
-        <v>300.8498125773157</v>
+        <v>300.8498125773155</v>
       </c>
       <c r="Q44" t="n">
-        <v>177.2663400510586</v>
+        <v>177.2663400510584</v>
       </c>
       <c r="R44" t="n">
-        <v>16.84253015413492</v>
+        <v>16.84253015413483</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.2956296410783</v>
+        <v>186.2956296410782</v>
       </c>
       <c r="K45" t="n">
-        <v>446.3087453180309</v>
+        <v>331.4697534311963</v>
       </c>
       <c r="L45" t="n">
-        <v>291.3014834106916</v>
+        <v>291.3014834106914</v>
       </c>
       <c r="M45" t="n">
-        <v>359.4874834301477</v>
+        <v>359.4874834301474</v>
       </c>
       <c r="N45" t="n">
-        <v>383.556234211735</v>
+        <v>383.5562342117348</v>
       </c>
       <c r="O45" t="n">
-        <v>328.4347829366002</v>
+        <v>328.4347829366001</v>
       </c>
       <c r="P45" t="n">
-        <v>244.0695188878786</v>
+        <v>244.0695188878785</v>
       </c>
       <c r="Q45" t="n">
-        <v>207.9688749050643</v>
+        <v>322.8078667918985</v>
       </c>
       <c r="R45" t="n">
-        <v>22.75984283605801</v>
+        <v>22.75984283605797</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.98509843492279</v>
+        <v>23.98509843492275</v>
       </c>
       <c r="K46" t="n">
-        <v>170.563204572393</v>
+        <v>170.5632045723929</v>
       </c>
       <c r="L46" t="n">
-        <v>274.3494866763884</v>
+        <v>274.3494866763883</v>
       </c>
       <c r="M46" t="n">
         <v>299.7571307956019</v>
       </c>
       <c r="N46" t="n">
-        <v>298.1190877526386</v>
+        <v>298.1190877526385</v>
       </c>
       <c r="O46" t="n">
-        <v>259.1831532348843</v>
+        <v>259.1831532348842</v>
       </c>
       <c r="P46" t="n">
-        <v>198.0176979881064</v>
+        <v>198.0176979881063</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.8193312807406</v>
+        <v>52.81933128074054</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
